--- a/tools/excel/ccb/cyfun2025.xlsx
+++ b/tools/excel/ccb/cyfun2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEC87E-73F3-BF49-8027-7F7FB44119BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6CFAE9-77B8-6B45-B34A-D78A629E9870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="-28180" windowWidth="51200" windowHeight="26920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="scores_content" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">requirements_content!$A$1:$G$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">requirements_content!$A$1:$G$254</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="765">
   <si>
     <t>GV.OC-01.1</t>
   </si>
@@ -1954,10 +1954,6 @@
 · Ensure Conformance and Compliance: Remote systems and activities should conform to internal security requirements and comply with applicable laws, regulations, and industry standards.</t>
   </si>
   <si>
-    <t xml:space="preserve">The cybersecurity risk to the organisation, assets, and individuals is understood by the organisation.
-</t>
-  </si>
-  <si>
     <t>ID.RA</t>
   </si>
   <si>
@@ -2584,12 +2580,2059 @@
   <si>
     <t>ID.AM-05.1</t>
   </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PROTECT</t>
+  </si>
+  <si>
+    <t>PR.AA</t>
+  </si>
+  <si>
+    <t>Identity Management, Authentication, and Access Control</t>
+  </si>
+  <si>
+    <t>Access to physical and logical assets is limited to authorised users, services, and hardware and managed commensurate with the assessed risk of unauthorised access</t>
+  </si>
+  <si>
+    <t>PR.AA-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identities and credentials for authorised users, services, and hardware are managed by the organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identities and credentials for authorised users, services, and hardware shall be managed. </t>
+  </si>
+  <si>
+    <t>PR.AA-01.1</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that identities and credentials for authorised users, services, and hardware are properly managed to prevent unauthorised access and support secure operations in both ICT and OT environments. 
+To achieve this goal, the following should be considered:
+· Access Requests and Authorisation
+    · Access should be formally requested, documented, and approved by system or data owners.
+    · Access rights should follow the principle of least privilege.
+· Identity and Credential Management
+    · Individual user accounts should be used; sharing passwords should be avoided.
+    · Default passwords should be changed before systems are activated.
+    · Unused accounts should be disabled immediately.
+    · Administrator accounts should be limited, reviewed regularly, and not used for daily tasks.
+· Password Policy
+    · Strong password rules should be enforced.
+    · Passwords should be changed regularly or immediately after suspected compromise.
+    · A formal password policy should be in place (See also: CyFun® Toolbox on www.cyfun.eu).
+    · Rights and privileges should be assigned through user groups.
+· Device and Hardware Identity
+    · Each authorised device should have a unique identifier (e.g. MAC address, serial number).
+    · Devices should be physically labelled to support inventory and maintenance.
+· Shared Access to PLCs/HMIs (OT-Specific Measures)
+    · If individual accounts are not feasible, the principle of least privilege should still apply.
+    · A secure jump server or HMI front-end should be used to control access, log activity, and add authentication layers.
+· Secure Remote Access
+    · Technical requirements for remote access should be clearly defined and documented.
+    · Secure methods such as VPNs, encrypted protocols (e.g. SSH, TLS), and multi-factor authentication (MFA – see also PR.AA-03.2) should be used.
+    · Remote access should be monitored and logged.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of credential misuse and unauthorised access by automating identity and credential management processes, ensuring consistency, scalability, and security across IT and OT environments.
+To achieve this goal, the organisation should:
+· Automate Credential Management
+· Automated systems should be used to issue, verify, revoke, and audit credentials for users, services, and hardware. This reduces manual errors and improves operational efficiency.
+· Implement Strong Authentication Mechanisms
+· In alignment with control PR.AA-03.2, MFA shall be required for all remote access to the organisation’s networks. Multifactor authentication (MFA) should use at least two independent factors:
+· Knowledge (e.g. password or PIN)
+· Possession (e.g. token or smartphone)
+· Inherence (e.g. fingerprint or facial recognition)
+· These factors should be independent to ensure that compromise of one does not affect the others.
+· Use Cryptographic and Token-Based Solutions
+· Digital certificates and identity tokens should be used to authenticate users, devices, and services, especially in OT environments where manual credential handling may be impractical.
+· Ensure OT-Specific Integration
+· Identity and access management solutions should support OT systems, including legacy devices and vendor-managed components, with minimal disruption to operations.
+· Where individual user accounts are not feasible (e.g. shared access to PLCs or HMIs), access should be routed through secure jump servers with logging and additional authentication layers.
+· Remote access to OT systems should use secure protocols (e.g. VPN, SSH, TLS), be time-limited (Just-In-Time), and be fully monitored.</t>
+  </si>
+  <si>
+    <t>PR.AA-01.2</t>
+  </si>
+  <si>
+    <t>Identities and credentials for authorised users, services and hardware shall be managed through automated mechanisms whenever feasible.</t>
+  </si>
+  <si>
+    <t>The organisation shall implement documented procedures for verifying the identity of individuals before issuing credentials that provide access to the organisation's systems.</t>
+  </si>
+  <si>
+    <t>PR.AA-02.1</t>
+  </si>
+  <si>
+    <t>All wireless access points used by the organisation, including those providing guest access, shall be securely configured, managed, and monitored to prevent unauthorised  access and ensure network integrity.</t>
+  </si>
+  <si>
+    <t>PR.AA-03.1</t>
+  </si>
+  <si>
+    <t>PR.AA-03.2</t>
+  </si>
+  <si>
+    <t>PR.AA-03.3</t>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA) shall be required to access the organisation's networks remotely.</t>
+  </si>
+  <si>
+    <t>The organisation shall define, document, and implement usage restrictions, connection requirements, and authorisation procedures for remote access to its critical systems. These controls shall ensure that only approved users can connect, using secure methods, with access limited to what is necessary for their role.</t>
+  </si>
+  <si>
+    <t>Access permissions, rights, and authorisations shall be defined, managed, enforced and reviewed.</t>
+  </si>
+  <si>
+    <t>PR.AA-05.1</t>
+  </si>
+  <si>
+    <t>It shall be determined who needs access to the organisation's business-critical information and technology and the means to gain access.</t>
+  </si>
+  <si>
+    <t>PR.AA-05.2</t>
+  </si>
+  <si>
+    <t>PR.AA-05.3</t>
+  </si>
+  <si>
+    <t>PR.AA-05.4</t>
+  </si>
+  <si>
+    <t>PR.AA-05.5</t>
+  </si>
+  <si>
+    <t>PR.AA-05.6</t>
+  </si>
+  <si>
+    <t>PR.AA-05.7</t>
+  </si>
+  <si>
+    <t>Access rights, privileges and authorisations shall be restricted to the systems and specific information needed to perform the tasks (the principle of Least Privilege).</t>
+  </si>
+  <si>
+    <t>No-one shall have administrative privileges for routine day-to-day tasks.</t>
+  </si>
+  <si>
+    <t>Where technically, operationally, and economically feasible—without compromising system integrity, safety, or compliance—automated mechanisms shall be implemented to manage user accounts on critical ICT and OT systems. Feasibility shall be determined based on system capabilities, integration potential, risk assessment, and business impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separation of duties (SoD) shall be ensured in the management of access rights.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privileged users shall be managed and monitored.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical access to all organisational assets, including critical zones, should be managed, monitored, and enforced based on risk. </t>
+  </si>
+  <si>
+    <t>PR.AA-06.1</t>
+  </si>
+  <si>
+    <t>PR.AA-06.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical access controls should include specific procedures for emergency situations, ensuring continued protection of critical and non-critical assets during such events. 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The organisation shall establish and maintain a cybersecurity awareness and training programme to ensure that all personnel understand how to perform their tasks securely and responsibly.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>PR.AT-01.1</t>
+  </si>
+  <si>
+    <t>PR.AT-01.2</t>
+  </si>
+  <si>
+    <t>PR.AT-01.3</t>
+  </si>
+  <si>
+    <t>Personnel shall receive training to understand their specific roles, responsibilities, and priorities during a cybersecurity or information security incident, including the steps they need to follow to respond effectively.</t>
+  </si>
+  <si>
+    <t>The organisation shall include insider threat awareness and reporting in its cybersecurity training to help personnel recognise and respond to potential internal risks.</t>
+  </si>
+  <si>
+    <t>Members of management bodies shall be able to demonstrate that they have completed training that gives them a solid understanding of information and cybersecurity and risk management so that they can assess information and cyber security risks and their consequences and propose the necessary risk mitigation, considering their roles, responsibilities and authorities.</t>
+  </si>
+  <si>
+    <t>PR.AT-02.1</t>
+  </si>
+  <si>
+    <t>PR.AT-02.2</t>
+  </si>
+  <si>
+    <t>PR.AT-02.3</t>
+  </si>
+  <si>
+    <t>Privileged users shall be qualified before privileges are granted, and these users shall be able to demonstrate the understanding of their roles, responsibilities, and authorities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuals in specialised roles shall be provided with awareness and training before privileges are granted, so that they possess the knowledge and skills to perform relevant tasks with cybersecurity risks in mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organisation shall implement software, firmware, and information integrity checks to detect unauthorised changes to its critical system components during storage, transport, start-up and when determined necessary.
+</t>
+  </si>
+  <si>
+    <t>PR.DS-01.1</t>
+  </si>
+  <si>
+    <t>The organisation shall define and enforce clear policies and practical safeguards to manage and restrict the use of portable storage media, in order to reduce the risk of data leakage, unauthorised access, and malware introduction.</t>
+  </si>
+  <si>
+    <t>PR.DS-01.4</t>
+  </si>
+  <si>
+    <t>PR.DS-01.5</t>
+  </si>
+  <si>
+    <t>The organisation shall only allow the use of removable media when absolutely necessary, and shall put technical measures in place to block automatic execution of files from these devices.</t>
+  </si>
+  <si>
+    <t>Enterprise assets shall be disposed of safely.</t>
+  </si>
+  <si>
+    <t>PR.DS-01.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backups for the organisation's business critical data shall be performed and stored on a different system from the device on which the original data resides. </t>
+  </si>
+  <si>
+    <t>PR.DS-11.1</t>
+  </si>
+  <si>
+    <t>PR.DS-11.2</t>
+  </si>
+  <si>
+    <t>PR.DS-11.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The reliability and integrity of backups shall be verified and tested regularly.	</t>
+  </si>
+  <si>
+    <t>The organisation shall maintain secure backups of business-critical data in a separate storage location to ensure data availability in case of system failure or data loss. Backup storage shall apply equivalent security controls as the primary environment.</t>
+  </si>
+  <si>
+    <t>The organisation shall develop, document, and maintain a baseline configuration for its business-critical systems.</t>
+  </si>
+  <si>
+    <t>PR.PS-01.1</t>
+  </si>
+  <si>
+    <t>The organisation shall enforce restrictions on software usage and installation, and ensure that software is maintained, replaced, or removed based on its associated risk.</t>
+  </si>
+  <si>
+    <t>PR.PS-02.1</t>
+  </si>
+  <si>
+    <t>Hardware used in business-critical environments shall be maintained, replaced, or removed based on its associated security and operational risk.</t>
+  </si>
+  <si>
+    <t>PR.PS-03.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs shall be maintained, documented, and monitored.
+</t>
+  </si>
+  <si>
+    <t>PR.PS-04.1</t>
+  </si>
+  <si>
+    <t>PR.PS-04.2</t>
+  </si>
+  <si>
+    <t>PR.PS-04.3</t>
+  </si>
+  <si>
+    <t>Audit data from the organisation's critical systems shall be moved to an alternative system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organisation shall ensure that logbook records contain an authoritative time source or internal clock time stamp that is compared and synchronised with an authoritative time source.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web and e-mail filters shall be installed and used. </t>
+  </si>
+  <si>
+    <t>PR.PS-05.1</t>
+  </si>
+  <si>
+    <t>PR.PS-05.2</t>
+  </si>
+  <si>
+    <t>Installation and execution of unauthorised software shall be prevented.</t>
+  </si>
+  <si>
+    <t>Security shall be considered throughout the lifecycle of systems and applications, whether developed internally or acquired externally.</t>
+  </si>
+  <si>
+    <t>PR.PS-06.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes and exceptions shall be tested and validated before being implemented into operational systems.
+</t>
+  </si>
+  <si>
+    <t>PR.PS-06.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firewalls shall be installed, configured, and actively maintained on all networks used by the organisation to protect against unauthorised  access and cyber threats. </t>
+  </si>
+  <si>
+    <t>PR.IR-01.1</t>
+  </si>
+  <si>
+    <t>To safeguard critical systems, organisations shall implement network segmentation and segregation aligned with trust boundaries and asset criticality, thereby limiting threat propagation and enforcing strict access control.</t>
+  </si>
+  <si>
+    <t>PR.IR-01.2</t>
+  </si>
+  <si>
+    <t>PR.IR-01.3</t>
+  </si>
+  <si>
+    <t>PR.IR-01.4</t>
+  </si>
+  <si>
+    <t>To ensure operational stability and security, the organisation shall, without exception, identify, document, and control connections between components of its critical systems.</t>
+  </si>
+  <si>
+    <t>The organisation shall implement appropriate boundary protection measures to monitor and control communications at external and key internal boundaries of its critical systems, across both IT and OT environments, to ensure secure and reliable operations.</t>
+  </si>
+  <si>
+    <t>The organisation shall define, implement and maintain policies and procedures related to emergency and safety systems, fire protection systems and environmental controls for its critical systems.</t>
+  </si>
+  <si>
+    <t>PR.IR-02.1</t>
+  </si>
+  <si>
+    <t>Adequate resource capacity planning shall ensure that availability of organisation's critical system information processing, networking, telecommunications, and data storage is maintained.</t>
+  </si>
+  <si>
+    <t>PR.IR-04.1</t>
+  </si>
+  <si>
+    <t>PR.AT</t>
+  </si>
+  <si>
+    <t>PR.AT-01</t>
+  </si>
+  <si>
+    <t>PR.AT-02</t>
+  </si>
+  <si>
+    <t>PR.DS-01</t>
+  </si>
+  <si>
+    <t>PR.DS-11</t>
+  </si>
+  <si>
+    <t>PR.PS-01</t>
+  </si>
+  <si>
+    <t>PR.DS</t>
+  </si>
+  <si>
+    <t>PR.PS</t>
+  </si>
+  <si>
+    <t>PR.PS-02</t>
+  </si>
+  <si>
+    <t>PR.PS-03</t>
+  </si>
+  <si>
+    <t>PR.PS-04</t>
+  </si>
+  <si>
+    <t>PR.PS-05</t>
+  </si>
+  <si>
+    <t>PR.PS-06</t>
+  </si>
+  <si>
+    <t>PR.IR-01</t>
+  </si>
+  <si>
+    <t>PR.IR</t>
+  </si>
+  <si>
+    <t>PR.IR-02</t>
+  </si>
+  <si>
+    <t>PR.IR-04</t>
+  </si>
+  <si>
+    <t>I,E,IK,EK</t>
+  </si>
+  <si>
+    <t>PR.AA-05</t>
+  </si>
+  <si>
+    <t>PR.AA-03</t>
+  </si>
+  <si>
+    <t>PR.AA-06</t>
+  </si>
+  <si>
+    <t>PR.AA-02</t>
+  </si>
+  <si>
+    <t>Security architectures are managed with the organisation's risk strategy to protect asset confidentiality, integrity, and availability, and organisational resilience.</t>
+  </si>
+  <si>
+    <t>Technology Infrastructure Resilience</t>
+  </si>
+  <si>
+    <t>Data Security</t>
+  </si>
+  <si>
+    <t>Awareness and Training</t>
+  </si>
+  <si>
+    <t>Data are managed consistent with the organisation's risk strategy to protect the confidentiality, integrity, and availability of information.</t>
+  </si>
+  <si>
+    <t>The organisation's personnel are provided with cybersecurity awareness and training so that they can perform their cybersecurity-related tasks.</t>
+  </si>
+  <si>
+    <t>The cybersecurity risk to the organisation, assets, and individuals is understood by the organisation.</t>
+  </si>
+  <si>
+    <t>The hardware, software (e.g., firmware, operating systems, applications), and services of physical and virtual platforms are managed consistent with the organisation's risk strategy to protect their confidentiality, integrity, and availability.</t>
+  </si>
+  <si>
+    <t>Platform Security</t>
+  </si>
+  <si>
+    <t>Identities are proofed and bound to credentials based on the context of interactions.</t>
+  </si>
+  <si>
+    <t>Users, services, and hardware are authenticated.</t>
+  </si>
+  <si>
+    <t>Access permissions, entitlements, and authorisations are defined in a policy, managed, enforced, and reviewed, and incorporate the principles of least privilege and separation of duties.</t>
+  </si>
+  <si>
+    <t>Physical access to assets is managed, monitored, and enforced commensurate with risk.</t>
+  </si>
+  <si>
+    <t>Personnel are provided with awareness and training so that they possess the knowledge and skills to perform general tasks with cybersecurity risks in mind.</t>
+  </si>
+  <si>
+    <t>Individuals in specialised roles are provided with awareness and training so that they possess the knowledge and skills to perform relevant tasks with cybersecurity risks in mind.</t>
+  </si>
+  <si>
+    <t>The confidentiality, integrity, and availability of data-at-rest are protected.</t>
+  </si>
+  <si>
+    <t>Backups of data are created, protected, maintained, and tested.</t>
+  </si>
+  <si>
+    <t>Configuration management practices are established and applied.</t>
+  </si>
+  <si>
+    <t>Software is maintained, replaced, and removed commensurate with risk.</t>
+  </si>
+  <si>
+    <t>Hardware is maintained, replaced, and removed commensurate with risk.</t>
+  </si>
+  <si>
+    <t>Log records are generated and made available for continuous monitoring.</t>
+  </si>
+  <si>
+    <t>Installation and execution of unauthorised software are prevented.</t>
+  </si>
+  <si>
+    <t>Secure software development practices are integrated, and their performance is monitored throughout the software development life cycle.</t>
+  </si>
+  <si>
+    <t>Networks and environments are protected from unauthorised logical access and usage.</t>
+  </si>
+  <si>
+    <t>The organisation's technology assets are protected from environmental threats.</t>
+  </si>
+  <si>
+    <t>Adequate resource capacity to ensure availability is maintained.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that system credentials are deactivated after a defined period of inactivity, unless doing so would compromise the safe operation of critical processes. This helps reduce the risk of unauthorised access while maintaining operational continuity.
+To achieve this goal, the organisation should:
+· Use Service Accounts for Automated Operations
+    Service accounts should be used to run applications, services, or automated tasks. These accounts should be configured with minimal permissions, isolated from user accounts, and monitored separately to support auditability and secure automation.
+· Apply the Principle of Least Privilege
+    Service accounts should only have the permissions necessary for their function. This limits potential misuse and supports secure operations in both IT and OT environments.
+· Monitor and Audit Service Account Activity
+    Actions performed by service accounts should be logged and reviewed regularly. This improves traceability and helps detect anomalies or misuse.
+· Implement Credential Inactivity Policies
+    System credentials, including those of service and user accounts, should be automatically deactivated after a defined period of inactivity. Exceptions should be documented and justified, especially in OT environments where continuous operation is critical.
+· Establish Formal Access Procedures for External Parties
+    External access should follow a defined process, including role-based access levels, authorisation steps, identity verification, and awareness training. Monitoring and revocation mechanisms should be in place to manage access violations.
+· Ensure OT-Specific Considerations
+    In OT environments, credential deactivation policies should account for system uptime requirements, vendor-managed components, and legacy systems. Coordination with engineering teams may be necessary to avoid operational disruptions.</t>
+  </si>
+  <si>
+    <t>PR.AA-01.3</t>
+  </si>
+  <si>
+    <t>System credentials shall be deactivated after a specified period of inactivity unless it would compromise the safe operation of (critical) processes.</t>
+  </si>
+  <si>
+    <t>PR.AA-01.4</t>
+  </si>
+  <si>
+    <t>PR.AA-01.5</t>
+  </si>
+  <si>
+    <t>For transactions within the organisation's critical systems, the organisation shall
+implement Multi Factor Authentication (MFA), cryptographic certificates, identity tokens, cryptographic keys and other credentials as appropriate and where feasible.</t>
+  </si>
+  <si>
+    <t>The organisation’s critical systems shall be monitored for atypical use of system credentials. Credentials associated with significant risk shall be disabled.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that strong authentication mechanisms are applied to transactions within critical systems. This includes using Multi-Factor Authentication (MFA – PR.AA-03.2), cryptographic credentials, and other secure methods to protect sensitive operations and data exchanges.
+To achieve this goal, the organisation should:
+· Apply Strong Authentication to Critical Transactions
+    Transactions involving access to sensitive data, system configuration changes, command execution, user/device authentication, or data transmission between systems should be protected using MFA, identity tokens, cryptographic keys, or certificates, where feasible.
+· Use Context-Aware and Behaviour-Based Authentication
+    Strong authentication should include context-based checks (e.g. location, time, device) and behavioural biometrics (e.g. typing patterns) to detect anomalies and enhance security.
+· Combine MFA with Single Sign-On (SSO)
+    MFA should be integrated with SSO solutions to streamline access while maintaining robust protection for internal and external critical systems.
+· Manage Cryptographic Credentials Securely
+    Cryptographic certificates, identity tokens, and keys should be issued, stored, rotated, and revoked securely. This supports the secure implementation of strong authentication mechanisms required by this control and complements PR.AA-03.2, which mandates MFA for remote access.
+· Ensure OT-Specific Feasibility
+    In OT environments, authentication methods should be adapted to system constraints, legacy equipment, and operational continuity requirements. Coordination with engineering teams may be necessary to implement feasible solutions.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to detect and respond to abnormal or high-risk use of system credentials in critical systems, helping to prevent unauthorised access, insider threats, and credential-based attacks.
+To achieve this goal, the organisation should:
+· Detect Atypical Credential Use
+    Systems should be monitored for deviations from normal credential usage patterns, such as unusual login times, access from unfamiliar locations, use of unfamiliar systems, simultaneous logins from distant locations, or sudden access to sensitive data.
+· Limit and Respond to Failed Login Attempts
+    A threshold for failed login attempts should be enforced. Accounts should be locked automatically after repeated failures and remain inaccessible until a defined lockout period expires or an authorised administrator resets them.
+· Manage Credential Lifecycles
+    Credential issuance, usage, and revocation should be automated where possible. An up-to-date inventory of active credentials should be maintained, and unused or orphaned accounts should be regularly reviewed and disabled.
+· Monitor and Correlate Events
+    Security Information and Event Management (SIEM) tools or equivalent solutions should be considered to detect anomalies and correlate events across systems. Behavioural baselining should be implemented to identify deviations from typical usage.
+· Disable High-Risk Credentials Automatically
+    Credentials associated with confirmed or high-risk anomalous activity should be disabled immediately. Security teams should be notified for investigation and response. All actions should be logged for audit and forensic purposes.
+· Raise User Awareness
+    Users should be trained on secure credential practices and encouraged to report suspicious activity or anomalies in access behaviour.</t>
+  </si>
+  <si>
+    <t>The goal of this control, which builds further on GV.RR-04.1, is to ensure that only verified individuals are granted access credentials, thereby reducing the risk of identity fraud, unauthorised access, and insider threats.
+To achieve this goal, the organisation should:
+· Establish Documented Identity Verification Procedures
+    A formal process should be developed and approved to verify identities before issuing credentials. This process should ensure accountability, traceability, and auditability.
+· Verify Identity Using Trusted Sources
+    Identity verification should rely on official documents such as government-issued ID cards, passports, or driver’s licences. For remote or digital onboarding, practices should align with ENISA’s Remote Identity Proofing Good Practices.
+· Prevent Identity Fraud and Misuse
+    Procedures should include controls to detect and prevent identity theft or impersonation. This helps reduce the risk of financial loss, reputational damage, and unauthorised access.
+· Ensure OT-Relevant Adaptation
+    Identity verification processes should be adapted for OT environments, especially where third-party technicians or vendor personnel require access to critical systems.</t>
+  </si>
+  <si>
+    <t>PR.AA-02.2</t>
+  </si>
+  <si>
+    <t>The organisation shall ensure that unique credentials are used for each authenticated user, device, and process interacting with the organisation's critical systems. These credentials shall be verified, and the unique identifiers shall be captured during system interactions. Exceptions may be made for emergency access ("break-glass" procedures), provided such access is strictly controlled, logged, and reviewed.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that each user, device, and process interacting with critical systems is uniquely identifiable and authenticated. This supports accountability, traceability, and secure access, while allowing for controlled exceptions in emergencies.
+To achieve this goal, the organisation should:
+· Assign Unique Credentials
+    Each user, device, and automated process should have its own unique credentials. Shared accounts should be avoided. All credentials should be verified before access is granted.
+· Implement Strong Authentication
+    Multi-Factor Authentication (MFA – PR.AA-03.2) has to be used wherever feasible. Authentication mechanisms should be resistant to replay attacks and credential reuse. These practices align with ENISA’s Secure User Authentication Guidelines, which recommend layered and context-aware authentication for critical systems.
+· Enforce Credential Management Practices
+    Password policies and credential rotation should be enforced. Credentials should be reviewed and updated regularly, especially after role changes or offboarding. This supports the principles outlined in ENISA’s NIS2 Technical Implementation Guidance, which emphasise secure identity lifecycle management.
+· Apply Access Control and Monitoring
+    Access should follow the Principle of Least Privilege. Logs and audit trails should be continuously monitored to detect anomalies. Suspicious activity should be investigated promptly.
+· Control Emergency Access ("Break-Glass")
+    Emergency access should be granted only through designated break-glass accounts. These accounts should be tightly controlled, time-limited, fully logged, and reviewed after use. Justification and approval should be required for each instance.
+· Promote User Awareness and Training
+    Personnel should be trained on the importance of using individual credentials and reporting suspicious access. Awareness should include the risks of credential sharing and misuse.
+· Ensure OT-Specific Feasibility
+    In OT environments, unique credentials should be implemented in a way that respects operational constraints and system limitations. Coordination with engineering teams may be required.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all wireless access points, including those for guest use, are securely configured, managed, and monitored to prevent unauthorised access and protect network integrity.
+To achieve this goal, the following should be considered:
+· General Wireless Security
+    · Default administrative credentials should be changed immediately after installation.
+    · SSID broadcasting should be disabled unless operationally necessary.
+    · Strong encryption protocols (e.g. WPA2 or WPA3 with AES) should be used.
+    · Physical access to wireless access points should be restricted.
+    · Firmware should be updated regularly to address known vulnerabilities.
+    · Wireless networks should be monitored for unauthorised access points and suspicious activity.
+· Guest Wi-Fi Security
+    · Guest networks should be isolated from internal systems using VLANs or separate SSIDs.
+    · Bandwidth and access restrictions should be applied to guest networks.
+    · Captive portals should be used to display terms of use and optionally log guest access.
+    · Sensitive data should not be stored or transmitted over guest networks.
+    · Guest Wi-Fi should be disabled when not in use or outside business hours, if feasible.
+· Endpoint and User Practices
+    · Devices connecting to wireless networks should comply with endpoint security policies.
+    · VPNs should be used when connecting to unknown or unsecured networks.
+    · Wi-Fi credentials should follow password policies that enforce complexity and regular updates.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to protect the organisation’s networks by requiring multi-factor authentication (MFA)
+for all remote access, thereby reducing the risk of unauthorised access and credential-based attacks.
+To achieve this goal, the following should be considered:
+· General MFA Enforcement
+    · MFA should be enforced on all internet-facing systems, including email, VPNs, RDP, cloud services, and
+web portals.
+    · All remote access, including access by third-party vendors and contractors, should require MFA.
+· MFA Technology Selection
+    · MFA methods should be selected based on security strength, phishing resistance, and operational fit.
+    · Common options include:
+        · Hardware TOTP (Time-based One-Time Password) tokens — secure, limited phishing resistance
+        · Authenticator apps (software TOTP) — widely used, moderate security
+        · Passkeys — passwordless, user-friendly, cryptographically secure
+        · FIDO2 (platform or hardware-based – Fast Identity Online 2) — strong cryptographic authentication
+        · Push-based apps — convenient, but may be vulnerable to push fatigue
+        · SMS and email-based MFA should be avoided due to security weaknesses.
+· Supporting Security Measures
+    · Strong password policies should be enforced alongside MFA.
+    · Users should be trained to log out of sessions explicitly.
+    · Anti-malware tools and platforms should be kept up-to-date.
+    · Regular phishing awareness training should be conducted.
+· OT-Specific MFA Considerations (see also PR.AA-01.1)
+    · Shared Access to PLCs/HMIs
+    · If individual accounts are not feasible, the principle of least privilege should be applied.
+    · A secure jump server or HMI front-end should be used to control access, log activity, and add an authentication layer.
+· Secure Remote Access to OT Systems
+    · Technical and procedural requirements for remote access should be clearly defined.
+    · Secure protocols (e.g. VPN, SSH, TLS) should be used.
+    · MFA should be enforced for all remote OT access, especially for third-party suppliers.
+    · Just-In-Time (JIT) access controls should be used to grant temporary, time-limited access.
+    · All remote access should be logged and monitored.
+· Integration and Compatibility
+    · The MFA solution should be compatible with both IT and OT systems.
+    · Integration should be tested in OT environments to avoid disruptions.
+    · Where direct integration is not possible, secure intermediary platforms (e.g. jump servers) should be used.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that remote access to critical systems is tightly controlled through defined usage restrictions, secure connection methods, and formal authorisation procedures. This helps prevent unauthorised access and limits exposure to cyber threats.
+To achieve this goal, the organisation should:
+· Define Usage Restrictions
+    Identify which systems are critical (e.g. OT systems, production servers, financial databases). Define who may access them remotely (e.g. specific roles, third-party vendors). Limit access to approved timeframes and restrict it to only the systems and functions necessary for the user’s role.
+· Set Secure Connection Requirements
+    Remote access should be established using secure methods such as VPNs with strong encryption, TLS/SSH, or jump servers for OT environments. All remote access should be protected by Multi-Factor Authentication (MFA), in line with PR.AA-03.2. Devices used for remote access should meet endpoint security requirements (e.g. antivirus, patching).
+· Document and Approve Access
+    A remote access policy should define request and approval procedures, roles, and technical requirements. A register of remote users should be maintained, including access scope, approval dates, and review timelines.
+· Monitor and Review Access
+    All remote sessions should be logged, capturing user identity, time, duration, and systems accessed. Logs should be reviewed regularly for anomalies. Remote access permissions and configurations should be audited periodically.
+· Apply OT-Specific Controls
+    For OT systems, access should be routed through secure front-end interfaces or jump servers. If shared accounts are required (e.g. for PLCs or HMIs), access should be logged, time-limited, protected by MFA at the jump server level, and follow the principle of least privilege.
+· Align with ENISA Guidance
+    These practices align with ENISA’s NIS2 Technical Implementation Guidance, which recommends secure remote access policies, strong authentication, and continuous monitoring as part of cybersecurity risk management for critical systems.</t>
+  </si>
+  <si>
+    <t>PR.AA-03.4</t>
+  </si>
+  <si>
+    <t>PR.AA-03.5</t>
+  </si>
+  <si>
+    <t>Remote access to the organisation’s critical systems shall be monitored and cryptographic mechanisms shall be implemented where determined necessary.</t>
+  </si>
+  <si>
+    <t>The security for connections with external systems shall be verified and framed by documented agreements.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that remote access to critical systems is not only restricted and approved (as defined in PR.AA-03.3), but also actively monitored and protected using cryptographic mechanisms to prevent unauthorised access and data compromise.
+To achieve this goal, the organisation should:
+· Monitor Remote Access Activities
+    All remote access sessions should be logged, capturing user identity, time, duration, and systems accessed. Monitoring tools should detect unusual or unauthorised access patterns and alert security teams in real time. Logs should be reviewed regularly and retained according to policy.
+· Apply Cryptographic Protections
+    Remote connections should use strong encryption protocols such as TLS (Transport Layer Security), SSH (Secure Shell), or IPsec. Data transmitted during remote sessions should be encrypted in transit. Where sensitive data is accessed, end-to-end encryption should be considered.
+· Enforce Access Rules from PR.AA-03.3
+    Monitoring and encryption settings should reflect the access restrictions defined in PR.AA-03.3. For example, alerts should trigger on out-of-hours access or attempts to reach unauthorised systems. All access should be verified against documented approvals.
+· Support Continuous Improvement
+    Monitoring data should be used to refine access policies, identify enforcement gaps, and support incident response. Cryptographic standards should be reviewed periodically to ensure alignment with current best practices.
+· Ensure OT-Specific Feasibility
+    In OT environments, monitoring and encryption should be implemented in a way that respects system constraints and operational continuity. Jump servers or secure gateways should be used to centralise control and logging.
+· Align with ENISA Guidance
+    These practices align with ENISA’s NIS2 Technical Implementation Guidance, which recommends secure remote access, encryption of communications, and continuous monitoring as part of effective cybersecurity risk management for critical systems.</t>
+  </si>
+  <si>
+    <t>Identity assertions are protected, conveyed, and verified</t>
+  </si>
+  <si>
+    <t>PR.AA-04</t>
+  </si>
+  <si>
+    <t>PR.AA-04.1</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that identity assertions — claims about the identity of a user, device, or process — are protected against tampering, securely transmitted, and reliably verified before granting access to critical systems or data.
+Definition: An identity assertion is a digital statement used during authentication that confirms the identity of a user, device, or process. It typically includes information such as the identity provider, authentication method, and validity period, and is used to grant access to systems or services.
+To achieve this goal, the organisation should:
+· Protect Identity Assertions
+    Identity assertions should be protected from tampering, theft, or misuse. Strong encryption (e.g. TLS 1.2 or higher) and digital signatures should be applied. Identity providers should comply with the eIDAS Regulation (e.g. itsme®, SPID, FranceConnect). These practices align with ENISA’s Digital Identity and Trust Services guidance.
+· Convey Identity Assertions Securely
+    Identity data should be transmitted using secure protocols such as SAML 2.0 or OpenID Connect. Token exposure in URLs should be avoided; HTTP headers or POST methods should be used. For cross-border identity federation, eIDAS nodes should be used to ensure secure interoperability between EU member states.
+· Verify Identity Assertions
+    All assertions should be validated before access is granted. This includes verifying digital signatures using trusted certificate authorities listed in the EU Trusted List (EUTL), checking token claims (issuer, audience, expiration), and validating against eIDAS metadata. Qualified Trust Service Providers (QTSPs) should be used for issuing and verifying identity credentials.
+· Ensure OT-Specific Feasibility
+    In OT environments, identity assertions should be integrated into secure access gateways or jump servers. Where direct integration is not feasible, identity verification should occur at the interface layer, with logging and monitoring in place.
+· Align with ENISA Guidance
+    These practices are supported by ENISA’s NIS2 Technical Implementation Guidance and its work on secure digital identity frameworks under the eIDAS and European Digital Identity regulations.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that access permissions, rights, and authorisations are clearly defined, properly managed, consistently enforced, and regularly reviewed to protect systems and data from unauthorised access.
+To achieve this goal, the following should be considered:
+· Access Definition and Management
+    · Access lists for systems (e.g. files, servers, software, databases) should be created and reviewed regularly.
+    · Reviews should be supported by tools such as Active Directory analysis.
+·     Permission management procedures should be documented and updated as needed.
+· Access Review and Revocation
+    · Logical and physical access rights should be reviewed periodically and whenever roles change or individuals leave the organisation.
+    · Unnecessary privileges should be revoked immediately.
+· User Account Practices
+    · Each user, including contractors, should have a separate account to ensure accountability.
+    · Where technically feasible, appropriate authentication measures should be applied.
+    · Guest accounts should be restricted to minimum required privileges (e.g. internet access only).
+    · Single Sign-On (SSO) should be used where appropriate.
+· Authorisation Criteria
+    Authorisation decisions should consider characteristics such as geolocation, time of access, and the security posture of the requesting device.
+· OT-Specific Considerations
+    · In environments where individual accounts are not technically feasible — such as shared access to PLCs or HMIs, access should be limited to essential functions only, and enforced through secure methods like a jump server or HMI front-end that logs activity, restricts access by role or time, and adds an extra authentication layer (e.g. badge or PIN).
+    · Authentication methods should align with the capabilities of OT systems.
+    · Access to OT systems should be logged and monitored where possible.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to determine who requires access to the organisation’s business-critical information and technology, and to define the secure means by which this access is granted.
+To achieve this goal, the following should be considered:
+· Access Determination and Restriction
+    · Access rights should be limited to only those individuals who need them to perform their roles.
+    · A zero trust model should be considered for both IT and OT environments, requiring verification before granting access.
+· Means of Access
+    · Access methods should include secure mechanisms such as keys, passwords, codes, or administrative privileges.
+    · These methods should be managed and monitored to prevent misuse.
+· Cyber Health of Endpoints
+    · Devices such as laptops, smartphones, and tablets should meet security standards before connecting to the production network.
+    · Endpoint health should be verified by checking for:
+        · Up-to-date antivirus software
+        · Absence of malware
+        · Installation of the latest security patches
+    · Only compliant devices should be allowed to access critical systems and data.
+· OT-Specific Considerations
+    · In OT environments, access to control systems should be limited to essential personnel.
+    · Secure access methods (e.g. jump servers, role-based restrictions) should be used where individual accounts are not feasible.
+· Reference
+    For practical tools and templates, refer to the Access Policy template in the CyFun® Toolbox on www.cyfun.eu</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that access rights, privileges, and authorisations are restricted to only the systems and specific information needed to perform assigned tasks, following the principle of least privilege.
+To achieve this goal, the following should be considered:
+· Apply Least Privilege
+    · Access rights should be limited to the minimum necessary for users, systems, and services.
+    · Accounts should start with low privileges, and be elevated only when justified.
+    · Just-in-time access should be used to limit the duration of elevated privileges.
+· Define and Manage Permissions
+    · Access rights should be clearly defined based on roles and responsibilities.
+    · An inventory of accounts and their permissions should be maintained and kept up to date.
+    · Separate accounts should be used for contractors and third parties to ensure traceability.
+· Enforce Access Controls
+    · Role-based or attribute-based access control models should be implemented where feasible.
+    · Internet access points and external connections should be limited to what is strictly necessary.
+· Harden Systems
+    Systems should be hardened to support access control by:
+    · Disabling unused ports and services
+    · Restricting Bluetooth where not needed
+    · Limiting legacy protocols such as FTP unless securely configured
+· Review and Adapt Access
+    · Access rights should be reviewed regularly and adjusted based on role changes, project completion, or security assessments.
+    · Access should be revoked immediately when no longer needed.
+· OT-Specific Considerations
+    In OT environments, access control should still follow the principle of least privilege. Where technical limitations exist, previously defined OT access control measures (see PR.AA-01.1 and PR.AA-05.1) should be applied to ensure secure and traceable access.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to prevent the use of administrative privileges for routine, day-to-day tasks, thereby reducing the risk of misuse or exploitation by attackers.
+To ensure this goal is met, the organisation should consider the following:
+· Account Separation and Privilege Management
+    · Administrative and general user accounts should be strictly separated.
+    · Dedicated administrator accounts should be used only for system management and administrative tasks.
+    · User accounts should not have administrative privileges.
+· Access Restrictions and Security Measures
+    · Unique local administrator passwords should be created for each system.
+    · Unused accounts should be promptly disabled.
+    · Internet browsing from administrative accounts should be prohibited to reduce exposure to web-based threats.
+· OT-Specific Considerations
+    · In OT environments, administrative access should be limited to essential personnel and functions.
+    · Where shared access is necessary, secure access methods (e.g. jump servers, session logging) should be used to enforce accountability and reduce risk.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that user accounts on critical ICT and OT systems are managed securely, efficiently, and consistently through automated mechanisms — where technically, operationally, and economically feasible — without compromising system integrity, safety, or compliance.
+To achieve this goal, the organisation should:
+· Assess Feasibility of Automation
+    Feasibility should be based on system capabilities, integration potential, risk assessment, and business impact.
+    · For ICT systems, feasibility depends on the availability of automation tools, APIs, or integration options, and the absence of major technical or financial barriers.
+    · For OT systems, feasibility depends on system age, vendor limitations, safety requirements, and the risk of disrupting critical operations.
+    · General feasibility should consider technical capability, operational safety, cost-effectiveness, and compliance with security and regulatory standards.
+· Automate Account Lifecycle Management
+    Automated mechanisms should manage account creation, modification, and deletion based on predefined rules. This ensures that only authorised users have access and that accounts are promptly removed when no longer needed.
+· Disable Inactive or Unauthorised Accounts
+    Accounts should be automatically disabled when users leave the organisation or no longer require access. This reduces the risk of unauthorised access to critical systems.
+· Monitor and Report Account Activity
+    Automated tools should continuously monitor account usage and generate reports to detect unusual or unauthorised activity. Alerts should be triggered for suspicious behaviour.
+· Send Notifications for Key Events
+    Automated notifications should inform administrators of important events such as account creation, modification, or deletion, enabling timely oversight.
+· Maintain Audit Trails for Compliance
+    All account-related activities should be logged automatically to support compliance with internal policies and external regulations.
+· Ensure OT-Specific Feasibility
+    In OT environments, automation should be implemented only where it does not compromise safety or operational continuity. Where direct automation is not feasible, account management should be handled through secure interface layers or jump servers.
+· Align with ENISA Guidance
+    These practices are supported by ENISA’s NIS2 Technical Implementation Guidance and its work on secure access management in critical infrastructure environments.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that no single individual has full control over critical systems or processes by enforcing Separation of Duties (SoD). This should reduce the risk of errors, fraud, and misuse of access rights.
+To achieve this goal, the organisation should:
+· Define Separation of Duties
+    Responsibilities should be divided so that key tasks are performed by different individuals.
+SoD should include:
+    · Operational and system support roles should be assigned to different individuals.
+    · System support tasks should require oversight or dual control.
+    · A single person should not initiate and approve the same transaction.
+    · Access control and audit functions should be handled by separate roles.
+· Manage Access Rights Appropriately
+    · Role-Based Access Control (RBAC) should be used to assign permissions based on job roles.
+    · The principle of least privilege should be applied to limit access to what is strictly necessary.
+    · Access rights should be reviewed regularly, especially for critical systems and high-risk roles.
+    · Separate tools or accounts should be used for administrative and audit functions where feasible.
+· Apply Controls for System Administrators
+    · Administrative responsibilities should be split to prevent full control by a single individual.
+    · Administrators should use separate accounts for regular and privileged tasks.
+    · All administrative actions should be logged and reviewed by an independent party.
+    · Administrators managing access should not be responsible for auditing that access.
+· Ensure Feasibility in OT Environments
+    · In OT systems, SoD should be adapted to operational and safety constraints.
+    · Where full separation is not feasible, compensating controls such as dual approval, logging, and external review should be implemented.
+· Align with ENISA Guidance
+    These practices align with ENISA’s Security Measures for Operators of Essential Services, which highlight the importance of Separation of Duties (SoD) and Role-Based Access Control (RBAC) in reducing access-related risks across ICT and OT environments.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of unauthorised access, data breaches, and operational disruption by ensuring that privileged users, who have elevated access to critical systems, are subject to strict management and continuous oversight.
+To achieve this goal, the organisation should:
+· Monitor Privileged Activities
+    Activities of privileged users should be logged and reviewed routinely or continuously, even if performed by individuals not independent of the process.
+· Protect Sensitive Data
+    Monitoring should help prevent privileged users from exposing or misusing sensitive information and system configurations.
+· Prevent Abuse of Privileges
+    Privileged accounts should be managed to avoid unauthorised changes, privilege escalation, or bypassing of security controls.
+· Detect Suspicious Behaviour
+    Behavioural anomalies and unauthorised actions should be identified through automated logging and alerting mechanisms.
+· Support Incident Response
+    Monitoring data should be used to investigate and respond to security incidents involving privileged accounts.
+· Manage Access Rights Proactively
+    Access rights should be clearly defined, regularly reviewed, and adjusted based on role changes, operational needs, or risk assessments.
+· Ensure OT-Specific Feasibility
+    In OT environments, privileged access should be managed with consideration for system stability and safety. Where full monitoring is not feasible, compensating controls such as interface-level logging1 or external review should be implemented.
+· Align with ENISA Guidance
+    These practices align with ENISA’s NIS2 Technical Implementation Guidance, which emphasises the importance of privileged access control and monitoring in securing essential services and critical infrastructure.</t>
+  </si>
+  <si>
+    <t>PR.AA-05.8</t>
+  </si>
+  <si>
+    <t>Account usage restrictions for specific time periods and locations shall be taken
+into account in the organisation's security access policy and applied accordingly.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of unauthorised access by ensuring that account usage is restricted based on time, location, device, and user context. These restrictions should be defined in the organisation’s security access policy and applied consistently across ICT and OT environments.
+To achieve this goal, the organisation should:
+· Apply Time-Based Restrictions
+    · Access to systems should be limited to defined working hours to reduce exposure during off-hours.
+    · Usage durations for certain accounts should be capped to prevent excessive or unattended sessions.
+· Apply Location-Based Restrictions
+    · Geofencing should be used to allow access only from trusted geographic locations.
+    · IP address filtering should restrict access to known and approved network ranges.
+· Apply Device-Based Restrictions
+    · Access should be allowed only from managed devices that comply with the organisation’s security policies.
+    · Unmanaged devices should be restricted or granted limited access (e.g. read-only or no access to sensitive data).
+· Apply User-Based Restrictions
+    · Role-Based Access Control (RBAC) should ensure users only access systems and data relevant to their job.
+    · Conditional access policies should require additional verification (e.g. Multi-Factor Authentication) in high-risk scenarios.
+    · Continuous Adaptive Risk and Trust Assessment (CARTA) should be considered to evaluate user and device trust dynamically. This approach aligns with the Zero Trust principle, which assumes no implicit trust for any user or device, even inside the network.
+· Ensure OT-Specific Feasibility
+    In OT environments, restrictions should be adapted to operational and safety requirements. Where technical limitations exist, compensating controls such as physical access restrictions or monitored jump servers should be implemented.
+· Align with ENISA Guidance
+    These practices align with ENISA’s NIS2 Technical Implementation Guidance, which supports contextual access control as part of effective cybersecurity risk management.</t>
+  </si>
+  <si>
+    <t>PR.AA-05.9</t>
+  </si>
+  <si>
+    <t>Privileged users shall be managed, monitored and audited.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that privileged user accounts, those with elevated access to critical systems, are tightly controlled, continuously monitored, and independently audited. This should reduce the risk of misuse, ensure accountability, and protect critical Information Technology (IT), Operational Technology (OT), and Internet of Things (IoT) environments.
+To achieve this goal, the organisation should:
+· Enforce Strong Privileged Access Management
+    Privileged accounts should have clearly defined roles, limited access scopes, and be subject to regular access reviews.
+· Implement Continuous Monitoring
+    All privileged user activities should be logged and monitored continuously, using automated tools where possible, to support traceability and incident response.
+· Conduct Independent Audits
+    · Audits should be performed periodically by individuals who are independent of the access management process.
+    · Audits should:
+        · Verify that privileged access is granted in line with policy.
+        · Confirm that monitoring and logging mechanisms function correctly.
+        · Identify misuse, policy violations, or deviations.
+        · Produce documented outcomes such as audit reports or corrective action plans.
+· Apply the Four-Eyes Principle
+    No single individual should be able to grant, modify, or revoke privileged access without oversight or approval from another authorised person.
+· Differentiate Between Monitoring and Auditing
+    · Daily compliance monitoring should focus on operational issues (e.g. alerts, anomalies).
+    · Periodic audits should assess the overall effectiveness and integrity of the privileged access management process.
+· Ensure OT-Specific Feasibility
+    In OT environments, privileged access controls should be adapted to operational and safety constraints. Where full auditing is not feasible, compensating controls such as interface-level logging or external review should be implemented.
+· Align with ENISA Guidance
+    These practices should align with ENISA’s NIS2 Technical Implementation Guidance, which highlights the importance of privileged access control, monitoring, and auditing in securing essential services and critical infrastructure.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that physical access to all organisational assets, especially in critical zones, is managed, monitored, and enforced based on risk to prevent unauthorised entry and protect sensitive systems.
+To support this goal, the following actions should be taken:
+· Access Control Measures
+    · Keys, badges, and alarm codes should be strictly managed.
+    · Employee access credentials should be collected immediately upon departure.
+    · Alarm codes should be changed regularly.
+    · External service providers (e.g. cleaners) should only receive access when necessary, and it should be:
+    · Time-limited using technical controls
+    · Logged electronically for traceability
+· Physical Security Enhancements
+    · Critical zones should be protected with physical controls such as:
+        · Surveillance cameras
+        · Security guards
+        · Locked doors and gates
+        · Alarm systems
+    · These controls should be placed strategically to monitor and restrict access.
+· Network Access Protection
+    Internal network ports (e.g. Ethernet) should not be exposed in unsecured areas such as waiting rooms, corridors, or reception zones.
+· OT-Specific Considerations
+    · Physical access to OT environments (e.g. control rooms, cabinets, field devices) should be limited to authorised personnel only.
+    · Access should be logged and monitored, and physical barriers should be used where feasible.
+· Reference
+    For practical tools and templates, refer to the Access Policy in the CyFun® Toolbox on www.cyfun.eu.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that physical access controls remain effective and adaptable during emergency situations. This includes maintaining security over critical and non-critical assets while enabling safe, authorised, and traceable access for emergency response, recovery, or containment actions — especially in environments where physical and operational safety are tightly linked, such as Operational Technology (OT) and Internet of Things (IoT) systems.
+To achieve this goal, the organisation should:
+· Define Emergency Scenarios
+    Emergency procedures should cover a range of events, including:
+    · Environmental and safety incidents (e.g. fire, flood, medical emergencies, evacuations)
+    · Infrastructure failures (e.g. power outages, system malfunctions)
+    · Security incidents (e.g. intrusions, access control failures)
+    · Cybersecurity events (e.g. ransomware, data breaches, insider threats)
+· Maintain Emergency Access Procedures
+    Emergency access should be:
+    · Logged: Record who accessed what, when, and why.
+    · Monitored: Use surveillance or access control systems to track activity.
+    · Reviewed: Conduct post-event reviews to verify appropriate use and detect misuse.
+· Support Emergency Readiness with Physical Controls
+    · Up-to-date lists of authorised individuals with emergency access rights should be maintained.
+    · Identity credentials (e.g. access badges) should be used and security zones defined.
+    · Escort requirements should be applied for visitors or temporary personnel.
+    · Physical barriers should be implemented such as fences, locks, turnstiles, and staffed checkpoints.
+    · Surveillance systems should be used to monitor entry and exit points.
+· Apply Additional Safeguards
+    · Badge systems with differentiated access levels for various zones should be considered.
+    · Physical access to servers and network components should be restricted to authorised personnel only.
+    · All access to critical infrastructure should be logged and reviewed regularly.
+    · Maintain and review — Visitor access records should be maintained and reviewed. Corrective action should be taken when necessary.
+· Ensure OT-Specific Feasibility
+    In OT environments, physical access procedures should be adapted to avoid disrupting safety or operational continuity. Emergency access should be designed to support both rapid response and asset protection.
+· Align with ENISA Guidance
+    These practices align with ENISA’s NIS2 Technical Implementation Guidance, which highlights the importance of physical and logical access controls in maintaining resilience during emergencies.</t>
+  </si>
+  <si>
+    <t>PR.AA-06.3</t>
+  </si>
+  <si>
+    <t>PR.AA-06.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Critical zones should have additional physical access controls beyond those applied to general facilities.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of unauthorised physical access to areas essential for operational continuity, data integrity, and personnel and equipment safety by applying stricter access measures than those used in general facility areas.
+To achieve this goal, the following actions should be taken:
+· Critical zones should be identified during asset classification. These typically include:
+    · Production and Operational Technology (OT) environments
+    · Server rooms and data centres
+    · Finance and Human Resources offices
+    · Control rooms
+    · Locations storing sensitive or classified information
+· The following enhanced physical access controls should be considered:
+    · Dual-factor authentication (e.g. badge + biometrics)
+    · Continuous surveillance (e.g. CCTV, motion sensors)
+    · Access logging with regular review
+    · On-site or patrolling security personnel
+    · Alarm systems with real-time alerts
+    · Visitor management procedures:
+    · Pre-approval and escorting
+    · Time-limited access
+    · Visitor logs
+· Ensure consistency with broader physical access policies, including:
+    · PR.AA-06.1 – Risk-based access control
+    · PR.AA-06.2 – Emergency access procedures
+    · PR.AA-06.4 – Physical protection of assets
+· Adapt controls to the criticality of each zone and integrate them into the overall physical security strategy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assets located within critical zones should be physically protected against unauthorised access, damage, or interference.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to safeguard essential assets located in critical zones from unauthorised access, damage, or interference, whether intentional or accidental, by applying tailored physical protection measures.
+To achieve this goal, the following measures should be considered:
+· Assets within critical zones should be physically protected based on their criticality and risk profile. These assets may include:
+    · Servers and control systems
+    · Power infrastructure and cabling
+    · Sensitive data repositories
+    · Operational Technology (OT) components
+· Protection measures should include:
+    · Physical barriers and containment:
+        · Locked enclosures, secure cabinets, or cages for sensitive equipment
+        · Tamper-evident seals to detect unauthorised access
+        · Environmental safeguards (e.g. fire suppression, temperature control)
+    · Infrastructure protection:
+        · Securing power and network cabling, access interfaces, and equipment
+        · Redundant and physically separated power systems for critical operations
+    · Access control and supervision:
+        · Escorting guests, vendors, and third parties at all times
+        · Maintaining and regularly reviewing access logs
+· Controls should be aligned with related requirements, including:
+    · PR.AA-06.1 – Risk-based access control
+    · PR.AA-06.2 – Emergency access procedures
+    · PR.AA-06.3 – Enhanced access controls for critical zones
+· Protection should be proactive, initiated during asset classification and facility design, and integrated into the broader physical security strategy.</t>
+  </si>
+  <si>
+    <t>The goal of control PR.AT-01.1 is to ensure everyone in the organisation understands how to work securely by providing regular, clear, and practical cybersecurity training that reduces human risk and supports safe behaviour in both IT and OT environments.
+To achieve this goal, the following should be considered:
+· Basic Training Should Be Provided to All
+    Cybersecurity awareness training should be given to all employees, contractors, partners, and suppliers, including those in Operational Technology (OT) environments.
+· Training Should Cover Common Threats
+    Topics such as phishing, weak passwords, social engineering, and OT-specific risks (e.g. USB misuse, remote access threats) should be included.
+· Training Should Start Early and Be Repeated Regularly
+    Training should be provided during onboarding and refreshed at least annually. Ongoing updates and reminders should reinforce key messages.
+· Multiple Channels Should Be Used
+    Awareness should be raised through structured sessions, campaigns, posters, newsletters, and interactive tools.
+· Consequences of Non-Compliance Should Be Explained
+    The impact of violating cybersecurity policies should be clearly communicated, both for individuals and the organisation.
+· Training Should Align with Policies and Best Practices
+    Content should reflect internal cybersecurity policies, expected behaviours, and protection measures. Recognised frameworks like ENISA’s AR-in-a-Box should guide programme design.
+· OT-Specific Risks Should Be Addressed
+    Training should be tailored to include the unique responsibilities and risks faced by personnel working with industrial control systems and other OT assets.
+· Content Should Be Kept Up to Date
+    Training materials should be regularly reviewed and updated to reflect new threats and lessons learned from incidents.</t>
+  </si>
+  <si>
+    <t>PR.AT-01.4</t>
+  </si>
+  <si>
+    <t>The organisation shall evaluate whether its cybersecurity awareness training is effective in improving knowledge, behaviour, and readiness across the organisation.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all personnel are trained to recognise and report potential insider threats, thereby reducing the risk of internal cybersecurity incidents.
+This control builds on the general awareness from PR.AT-01.1 by introducing specific threat scenarios and response actions.
+The implementation should consider:
+· Training should include how to recognise behavioural signs of insider threats, such as unusual access patterns, data hoarding, or sudden changes in behaviour.
+· The organisation should define insider threats clearly (e.g. malicious, negligent, or compromised insiders, including employees and contractors).
+· Staff should be trained on how and where to report suspicious activity, and why timely reporting matters.
+· Real-life case studies or simulations should be used to show the impact of insider threats and reinforce learning.
+· Insider threat awareness should be part of regular security training and onboarding for all staff.
+· Specialised training should be provided to staff with access to sensitive data or systems, focusing on their specific responsibilities.
+· Cross-functional teams-training should be developed with both IT security and OT operational expertise (Cross-Training).
+· Annual refresher training should be used to reinforce key messages and introduce updates.
+· The organisation should promote a culture of security where employees feel safe to report concerns without fear of retaliation.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all personnel understand their specific roles, responsibilities, and priorities during a cybersecurity or information security incident, enabling them to respond effectively and in coordination with the organisation’s incident response and contingency plans. This control builds on the threat-specific awareness from PR.AT-01.2 by introducing role-based training and incident response readiness.
+The implementation should consider the following:
+· Training should be tailored to different roles (e.g., IT, HR, executives) so that each group understands its specific responsibilities during an incident.
+· Personnel should be familiar with their objectives, recovery priorities, and the correct order of actions to take during an incident.
+· Tabletop exercises or simulated drills should be used to practice incident response in a realistic but controlled environment.
+· Clear documentation should be provided outlining each role’s tasks and responsibilities during an incident.
+· Training should explain how incident response connects to contingency planning, ensuring that staff understand when and how to activate contingency measures (see also ID.IM-04.1).
+· Regular refresher sessions should be held to keep knowledge up to date and reinforce readiness.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that cybersecurity awareness training leads to measurable improvements in personnel knowledge, secure behaviour, and readiness to respond to cyber threats across all levels of the organisation. This control builds on the threat-specific awareness from PR.AT-01.2 and the role-based training
+from PR.AT-01.3 by introducing a structured approach to measure the impact of awareness efforts.
+The implementation should consider the following:
+· The organisation should assess whether awareness training is accessible to all relevant personnel and whether it effectively influences their cybersecurity behaviour, awareness, and attitudes.
+· If the organisation lacks experience in evaluation, it should consider using existing evaluated frameworks or tools, such as ENISA’s AR-in-a-Box, which includes guidance on setting goals, selecting KPIs, and measuring impact.
+· If developing an evaluation method internally, the organisation should look into good practices and evidence-based approaches for evaluating awareness programmes.
+· Evaluation methods should include a mix of:
+    · Pre- and post-training assessments or quizzes.
+    · Simulated phishing or social engineering tests.
+    · Surveys to measure changes in awareness, confidence, and behaviour.
+    · Feedback from participants and trainers.
+· The organisation should document lessons learned and use the results to improve future training efforts.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that members of management bodies are equipped to make informed decisions on cybersecurity risks and mitigation strategies by developing a foundational understanding of information security, cyber threats, and risk management principles relevant to their leadership roles.
+To achieve this goal, the following practices should be considered:
+· Training should provide management with the ability to assess cybersecurity risks, understand their potential impact, and propose appropriate mitigation measures aligned with their responsibilities and authority.
+· Training content should consider:
+    · Core concepts of information and cybersecurity
+    · Risk identification, assessment, and mitigation
+    · Strategic decision-making in the context of cyber threats
+    · Recognition of potential security gaps and governance responsibilities
+· Training should be tailored to leadership roles, using guidance from the European Union Agency for Cybersecurity (ENISA) on role profiles, including titles, missions, tasks, skills, and competencies (Ref. European Cyber­ security Skills Framework Role Profiles).
+· Annual refresher sessions should be considered to reinforce existing practices and introduce new developments in cybersecurity and risk management.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that individuals in specialised roles receive cybersecurity awareness and training before privileged access is granted, enabling them to perform their tasks with a strong understanding of cybersecurity risks.
+To achieve this goal, the organisation should:
+· The specialised roles within the organisation that require additional cybersecurity training (e.g. physical and cybersecurity personnel, finance personnel, people in management roles, and anyone with access to business-­ critical data) should be formally identified.
+· Role-based cybersecurity awareness and training should be provided to all those in specialised roles, including contractors, partners, suppliers, and other third parties.
+· It should be ensured that the training is delivered before access is granted, and that it is tailored to the specific risks and responsibilities of each role.
+· Individuals should be periodically assessed and tested on their understanding of cybersecurity practices through tests, simulations, or practical evaluations relevant to their role.
+· Consider annual refreshers to reinforce existing practices and introduce new practices.
+· Both Information Technology (IT) and Operational Technology (OT) contexts should be included, particularly for roles that interact with industrial systems or critical infrastructure.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that individuals granted privileged access, whether in IT or OT environments, are demonstrably competent and fully aware of the cybersecurity responsibilities, risks, and authority boundaries tied to their role. This reduces the likelihood of accidental misuse or exploitation of elevated privileges, especially in critical systems where operational continuity and safety are at stake.
+To ensure this goal is met, the organisation should consider the following:
+· Privileged users should be trained in various aspects to ensure that they use their elevated access rights in a safe and responsible manner. The following training topics could be considered:
+    · Security awareness: It is crucial that privileged users are aware of the security risks associated with their elevated access rights. This includes knowledge about phishing, malware, and other cyber threats.
+    · Access management: Users should understand how to properly manage their access rights, including using strong passwords, multi-factor authentication, and restricting access only to what is necessary for their role.
+    · Compliance and regulation: It is important that privileged users are aware of relevant laws and regulations, such as GDPR, NIS2, DORA…, and how they affect their work.
+    · Incident response: Training on how to respond to security incidents is essential. This includes recognising suspicious activity and knowing how and to whom to report it.
+    · Data management best practices: Users should be trained on how to store, process and transfer sensitive data securely.
+    · Ethics and responsibility: It is important that privileged users are aware of their ethical responsibilities and the possible consequences of misusing their access rights.
+· Privileged users should be periodically assessed and tested on their understanding of cybersecurity practices for their specialised roles.
+· Consider annual refreshers to reinforce existing practices and introduce new practices.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure the integrity and trustworthiness of critical system components, such as software, firmware, and configuration data, by detecting unauthorised modifications that could compromise operational safety, reliability, or security across all lifecycle stages, including storage, transport, and start-up.
+To effectively protect the integrity of data-at-rest, the organisation should implement a layered set of controls designed to detect and prevent unauthorised changes to stored data, software, and system components.
+The following practices should be considered:
+· Apply Cryptographic Integrity Mechanisms
+    · Use cryptographic hashes (e.g., SHA-256), digital signatures, or other cryptographic mechanisms (e.g. message authentication codes (MACs)) to verify the integrity of stored data and critical files.
+·     Integrity values should be generated at the time of storage and verified before access or execution.
+· Implement Automated Integrity Monitoring
+    · Deploy file integrity monitoring (FIM) tools to continuously track changes to critical system files, configurations, and applications.
+    · Alerts should be generated for any unauthorised or unexpected modifications, and logs should be retained for audit and investigation.
+· Validate Software and Firmware Integrity
+    · Ensure that software and firmware stored on systems are validated using signature verification or secure boot mechanisms before execution.
+    · Integrity validation should be part of the system start-up process and enforced through technical controls.
+· Enforce Change Control and Access Restrictions
+    · Limit write access to critical data and system components through role-based access controls (RBAC) and least privilege principles.
+    · All changes to data-at-rest should be subject to formal change management procedures and logged for traceability.
+· Protect Integrity of Backups
+    · Backups should include integrity verification mechanisms (e.g. checksums or digital signatures) to ensure they have not been tampered with.
+    · Regular test restorations should be performed to confirm the integrity and usability of backup data.</t>
+  </si>
+  <si>
+    <t>PR.DS-01.2</t>
+  </si>
+  <si>
+    <t>PR.DS-01.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall implement automated tools where feasible to provide notification upon discovering discrepancies during integrity verification.</t>
+  </si>
+  <si>
+    <t>The organisation shall define and implement automated responses to detected integrity violations, using predefined safeguards that are proportionate to the severity and impact of the violation.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that discrepancies in system or data integrity are detected and reported automatically, enabling timely response and reducing the risk of undetected tampering, especially in environments where operational continuity and safety are critical.
+To achieve this goal, the organisation should:
+· Implement automated tools where feasible to continuously verify the integrity of critical data and systems.
+· Ensure these tools promptly report integrity violations when discrepancies are detected.
+· Configure alerts to notify relevant personnel, such as system administrators, business owners, and information security officers, to enable swift investigation and response.
+· Use centrally managed integrity verification solutions to streamline monitoring and reporting across both IT (Information Technology) and OT (Operational Technology) environments.
+· Follow guidance from ENISA, such as the NIS2 Technical Implementation Guidance (ENISA, 2025), which outlines best practices for automated integrity monitoring and incident response.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to minimise the impact of integrity violations by enabling timely, proportionate, and automated responses that help contain threats, preserve system stability, and support forensic analysis, especially in environments where manual intervention may be delayed or impractical.
+To achieve this goal, the following guidance should be considered:
+· Severity levels and response actions should be defined, with integrity violations being categorised (e.g. low, medium, high impact) and linked to appropriate automated safeguards.
+· Alerts and notifications should be triggered automatically when integrity violations are detected, and integrated with Security Orchestration, Automation, and Response (SOAR) platforms to streamline incident handling.
+· Affected components should be quarantined or isolated, such as compromised files, applications, or systems, to prevent further damage.
+· All events should be logged and auditable, including detected violations and automated actions, to support forensic investigations and compliance reporting.
+· Lightweight automation should be used where possible, such as:
+    · Blocking specific processes or users
+    · Reverting to a known-good configuration
+    · Temporarily disabling affected services
+· Response mechanisms should be tested and tuned regularly in controlled environments to ensure effectiveness and avoid unnecessary disruption.
+· The European Union Agency for Cybersecurity (ENISA) guidance in the “Implementation Guidance on Security Measures” (For Public Consultation, Document No. ENISA/2024/IGSM) should be consulted.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of data leakage, unauthorised access, and malware introduction by defining and enforcing clear policies and safeguards for the use of portable storage media.
+To achieve this goal, the organisation should:
+· Define and Communicate Policy
+    · A documented policy on acceptable use of portable storage devices (e.g. USB drives, SD cards, external hard disks) should be established.
+    · The policy should be communicated during onboarding and reinforced through regular security awareness training.
+· Control Device Usage
+    · Only organisation-approved portable storage devices should be permitted.
+    · An inventory of approved devices should be maintained and linked to specific users or departments.
+· Apply Practical Safeguards
+    · Access Control: Devices should require user authentication (e.g. password protection).
+    · Encryption: Data on portable devices should be encrypted using hardware-encrypted drives or software tools such as BitLocker To Go or VeraCrypt.
+    · Read-Only Mode: Devices used for distribution (e.g. software updates) should be configured as read-only.
+    · Malware Scanning: Devices should be scanned for malware before and after use.
+    · Physical Security: Devices should be stored securely (e.g. in locked drawers or cabinets) when not in use.
+· Monitor and Log Usage
+    · On managed systems, USB device connections and file transfers should be logged using endpoint management tools.
+    · Logs should be reviewed periodically to detect unauthorised use or anomalies.
+· Examples
+    · A field technician should use a company-issued, encrypted USB drive to collect data from remote sensors. The drive should be scanned before and after use, and data should be uploaded to a secure server upon return.
+    · A marketing team should use a read-only USB stick to distribute promotional materials at a trade show, thereby preventing any data from being copied back onto the device.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to minimise the attack surface in operational and IT environments by strictly limiting the use of removable media and preventing automatic execution of potentially harmful files.
+To reduce the risk of malware infections and data leaks from removable media (e.g. USB sticks, external drives), the organisation should:
+· Allow Use Only When Necessary
+    · The organisation should state in its policy that removable media should only be used when no safer alternative is available (e.g., secure file transfer).
+    · Technical tools should be used to limit access to USB ports or require approval before use.
+· Disable Autorun and Auto-Execution
+    · All systems should be configured to disable autorun and autoplay features so that files on removable media do not run automatically.
+    · This should help prevent malware from executing without user action.
+· Use Security Tools to Control Access
+    · The organisation should use endpoint protection tools to:
+        · Block or limit USB access.
+        · Allow only approved devices.
+        · Require administrator approval for new devices.
+· Monitor and Review Usage
+    · The organisation should monitor removable media use by logging device connections through endpoint protection tools or operating system logs. In OT environments, manual logging or controlled access procedures should be used. Logs should be reviewed regularly to detect unauthorised activity.
+· Example: A finance team should use encrypted, company-approved USB drives to transfer sensitive reports. These drives should be scanned before use, autorun should be disabled on all systems, and access should be logged and reviewed.
+Clarification of the difference with PR.DS-01.4
+· PR.DS-01.4 focuses on setting rules and procedures for how removable media should be used (e.g., who can use them, encryption, physical protection).
+· PR.DS-01.5 focuses on the technical enforcement of those rules — how systems should be configured to reduce risk.</t>
+  </si>
+  <si>
+    <t>PR.DS-01.6</t>
+  </si>
+  <si>
+    <t>The organisation shall protect the confidentiality of its critical assets while at rest.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that sensitive operational and business data stored on systems, servers, or devices remains protected from unauthorised access, even if physical or logical security is compromised.
+In OT environments, where legacy systems and shared infrastructure are common, protecting data-at-rest is critical to prevent exposure of configuration files, process data, or credentials that could be exploited to disrupt operations or gain lateral access.
+This control builds further on PR.DS-01.1.
+To enable the protection of the organisation' s critical assets at-rest, the following techniques should be considered:
+· Encryption: Encrypt data-at-rest, on hard drives, on external media, in stored files, in configuration files and stored in the cloud, using strong encryption algorithms to prevent unauthorised access and protect the data against tampering.
+· Access Controls: Implement strict access controls to ensure only authorised personnel can access sensitive information.
+· Regular Audits: Conduct regular security audits to identify and address vulnerabilities.
+· Data Masking: Use data masking techniques to obscure sensitive information in non-production environments (For example, GDPR-sensitive data from the production environment may not be copied to a test environment without randomisation to prevent unauthorised access to data).</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all enterprise assets are disposed of in a secure and controlled manner, to prevent unauthorised access to sensitive business, personal, or operational data.
+To support this goal, the organisation should consider to:
+· Sanitise Data Before Disposal
+    Sensitive data should be securely removed (“wiped”) from all assets, such as computers, servers, hard drives, USB drives, mobile devices, and paper documents, before retirement, reassignment, repair, or replacement.
+· Use Appropriate Destruction Methods
+    Suitable methods should be available for destroying paper records, digital storage media, and other physical data carriers.
+· Enable Remote Wiping for Mobile Devices
+    Remote wiping capabilities should be enabled on laptops, tablets, phones, and other mobile devices to protect data if lost or stolen.
+· Manage Expired Domain Names Carefully
+    Expired domains should be protected, as they are often targeted by cyber-criminals. The following practices should be considered:
+    · Enable auto-renewal or renew domains for at least ten years.
+    · Communicate domain changes clearly and manage transitions internally.
+    · Set auto-replies for emails sent to old domains.
+    · Update online references and cloud service settings.
+    · Change or delete accounts registered with old domains.
+     · Keep login email addresses current and enable MFA.
+    · Avoid using non-approved cloud storage for sensitive data.
+· Follow Asset Management Best Practices
+    Guidance from trusted sources, such as the Asset Management policy template in the CyFun® Toolbox on www.cyfun.eu, should be used to support secure disposal.
+· Include OT Assets in Disposal Planning
+    OT systems and devices should be included in disposal procedures, ensuring operational data and configurations are securely removed before decommissioning.</t>
+  </si>
+  <si>
+    <t>PR.DS-02</t>
+  </si>
+  <si>
+    <t>The confidentiality, integrity, and availability of data-in-transit are protected</t>
+  </si>
+  <si>
+    <t>PR.DS-02.1</t>
+  </si>
+  <si>
+    <t>Portable storage devices containing system data shall be controlled and protected while in transit and in storage.</t>
+  </si>
+  <si>
+    <t>PR.DS-02.2</t>
+  </si>
+  <si>
+    <t>The organisation shall protect its critical and sensitive information while in transit.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to prevent unauthorised access, tampering, or loss of critical system data when portable storage devices are moved between locations or stored outside secure environments.
+In OT environments, where data may be transferred between isolated systems or remote sites using physical media, protecting these devices is essential to maintain system integrity and confidentiality.
+To achieve this goal, the organisation should:
+· Scan all portable storage devices for malicious code before use on organisational systems.
+· Encrypt data to ensure confidentiality if a device is lost or stolen.
+· Use tamper-evident seals and locked containers during transport.
+· Rely on trusted couriers or secure transport services, and avoid leaving devices unattended.
+· Limit access to stored devices to authorised personnel, supported by documented access control policies.
+· Store devices in secure, climate-controlled environments to prevent physical damage.
+· Conduct regular audits and inventory checks to ensure devices are accounted for and properly secured.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that critical and sensitive information remains confidential and unaltered while being transmitted across networks or between systems, especially in environments where data flows between IT and OT layers or across remote sites.
+In OT contexts, where data may traverse less secure or legacy communication channels (e.g. between control systems, field devices, or remote monitoring stations), protection in transit is essential to prevent interception, manipulation, or leakage. This control builds further on PR.DS-01.1.
+To enable the protection of the organisation's critical and sensitive information while in transit, the following techniques should be considered:
+· Encryption: Use strong encryption protocols like Transport Layer Security (TLS) or Secure Sockets Layer (SSL) to encrypt data during transmission. This ensures that even if data is intercepted, it remains unreadable to unauthorised parties.
+· End-to-End Encryption (E2EE): Implement E2EE, which encrypts data on the sender’s device and only decrypts it on the recipient’s device.
+· Multi-Factor Authentication (MFA): Require MFA for accessing sensitive information.
+· Strong Password Policies: Enforce strong password policies, including the use of complex passwords and regular updates.
+· Virtual Private Networks (VPNs): Use VPNs — either site-to-site or remote access — to establish secure tunnels for data transmission, in particular when connecting over untrusted networks such as public Wi-Fi.
+· Regular Security Audits: Conduct regular security audits to identify and address vulnerabilities in your data transmission processes.</t>
+  </si>
+  <si>
+    <t>PR.DS-10</t>
+  </si>
+  <si>
+    <t>The confidentiality, integrity, and availability of data-in-use are protected</t>
+  </si>
+  <si>
+    <t>PR.DS-10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation’s critical systems shall be protected against denial-of-service attacks or at least the effect of such attacks shall be limited.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that critical systems remain available and operational even when targeted by denial-of-service (DoS) attacks, which aim to overload or disrupt services.
+To achieve this goal, the organisation should:
+· Limit the impact of DoS attacks by:
+    · Deploying boundary protection devices or services that filter malicious traffic.
+    · Ensuring sufficient network capacity and redundancy to absorb traffic spikes.
+· Restrict the ability to launch DoS attacks by:
+    · Limiting connectivity options to prevent unauthorised transmission over wired, wireless, or satellite links.
+    · Enforcing resource usage limits to prevent system overload.
+    · Applying strong authentication and authorisation to control access to critical functions.
+· Strengthen system resilience by:
+    · Conducting regular security testing and audits to identify and address vulnerabilities.
+    · Monitoring network traffic for anomalies that may indicate early signs of a DoS attempt.
+· OT-Specific Considerations
+    In OT environments, where availability directly affects safety and production, even short disruptions can have severe consequences. DoS protections should be tailored to industrial protocols and legacy systems, ensuring that defences do not interfere with real-time operations.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that business-critical data is regularly backed up and securely stored on a separate system to protect against data loss, system failure, or cyberattacks such as ransomware.
+To support this goal, the organisation should:
+· Back Up Critical Data and Systems
+    Backups should include:
+    · Business-critical data (e.g. customer records, financial and operational data).
+    · System data such as software configurations, device settings, documentation, and application backups.
+· Define a Backup Strategy
+    · Critical data should be backed up continuously or in near-real time.
+    · Other important data should be backed up at regular, agreed intervals.
+    · Backups should be stored on a system that is physically or logically separate from the original data source.
+    This means they must not reside on the same device, server, or storage array as the original data. Ideally, backups should be stored in a different security zone, network segment, or even offsite location to ensure they remain accessible and uncompromised in the event of system failure, ransomware, or other incidents affecting the primary environment.
+· Ensure Network Separation
+    · Backups should not be stored on the same network as the original systems.
+    · At least one backup copy should be kept completely offline or air-gapped to ensure recovery in the event of a network breach or ransomware attack.
+· Plan for Recovery
+    Recovery Time Objective (RTO – how quickly systems must be restored) and Recovery Point Objective (RPO – how much data loss is acceptable) should be defined and reviewed regularly to ensure timely and effective restoration.
+· Include OT Environments
+    Backup strategies should cover OT systems, including control system configurations, operational data, and device settings critical to industrial operations.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that backup data can be trusted and successfully restored when needed, supporting operational continuity and resilience.
+To achieve this goal, the organisation should:
+· Test Recovery Procedures
+    Backup recovery procedures should be tested regularly to confirm that data can be restored accurately and completely.
+· Verify Backup Integrity
+    · Backups should be checked for signs of compromise, corruption, or tampering before use.
+    · Integrity checks should focus on indicators of security breaches or data loss.
+· Schedule Testing
+    · All types of data sources should be included in backup and restore tests.
+    · Testing should occur at least annually, or more frequently on a sample basis.
+· Align with Related Controls
+    This control should be implemented in coordination with RC.RP-05.1 (Recovery Planning), ensuring consistency in recovery strategies.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation can reliably recover its business-critical data in two key scenarios:
+· Natural disasters or physical damage to the primary site (requiring offsite or cloud-based backups).
+· Advanced cyberattacks, including ransomware or insider threats, where attackers may attempt to corrupt or delete backups (requiring isolated or tamper-proof backups).
+This control helps ensure that an organisation can recover its critical data if something goes wrong. It focuses on keeping backups separate and just as secure as the original data, making it especially useful for organisations that are still building up their cybersecurity capabilities (organisations with less mature security posture).
+· Backup Strategy to be considered
+    · To meet these objectives, the organisation should implement a diversified and resilient backup approach, such as the 3-2-1 backup rule:
+        · Maintain three copies of business-critical data.
+        · Store these copies on at least two different types of storage media (e.g. local disk and cloud).
+        · Ensure at least one copy is stored offsite or off-premises, in a physically separate location.
+· To protect against both physical and cyber threats, the organisation should consider the following backup
+types:
+    · Offsite or Cloud Backups
+    These backups are stored in a geographically separate location and help ensure recoverability in case of natural disasters or physical damage to the primary site.
+    · Immutable Backups 
+    These are backups that cannot be altered or deleted for a defined period. They are especially effective against ransomware and insider threats, and can be automated to reduce manual effort.
+    · Offline or Air-Gapped Backups _x0008_
+    These are backups stored on devices that are completely disconnected from any network, including the internet. This isolation ensures that even if the organisation’s network is compromised, the backup remains untouched.
+· Additional Considerations
+    · Geographic Separation: Backup locations should be in different physical regions to reduce the risk of simultaneous impact from regional disasters.
+    · Security Parity: All backup locations should implement the same level of security controls as the primary environment (e.g. encryption, access control, monitoring).
+    · Regular Testing: Backup and recovery procedures should be tested regularly to ensure data integrity and operational readiness.</t>
+  </si>
+  <si>
+    <t>PR.DS-11.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall regularly verify the integrity and recoverability of backups through coordinated testing with all relevant continuity and incident response functions. Backup testing shall be integrated into broader resilience planning, including business continuity, disaster recovery, and cyber incident response.</t>
+  </si>
+  <si>
+    <t>This control is an evolution of PR.DS-11.3 and ensures that backup systems are not only in place but are regularly tested and aligned with the organisation’s broader recovery and continuity plans. It highlights the importance of coordination across teams and proactive planning, helping the organisation stay prepared to recover quickly and effectively from serious incidents.
+To ensure that backup and recovery capabilities are effective and integrated into the organisation’s overall resilience strategy, the following practices should be implemented:
+· Coordinate Backup Testing Across Plans
+    Backup verification should be planned and executed in coordination with the teams responsible for the organisation’s key continuity and response plans. These include:
+    · Business Continuity Plans (BCP)
+    · Disaster Recovery Plans (DRP)
+    · Contingency Plans
+    · Continuity of Operations Plans (COOP)
+    · Crisis Communications Plans
+    · Critical Infrastructure Protection Plans
+    · Cyber Incident Response Plans
+· Include Backup Recovery in Scenario Testing
+    During exercises or simulations of incidents (e.g. cyberattacks, system failures, or natural disasters), the recovery of backup data should be explicitly tested. This ensures that backups are not only available but also usable and aligned with recovery time and recovery point objectives (RTO/RPO).
+· Document and Review Results
+    The outcomes of backup verification and recovery tests should be documented and reviewed with relevant stakeholders to identify gaps and improve procedures.</t>
+  </si>
+  <si>
+    <t>PR.DS-11.5</t>
+  </si>
+  <si>
+    <t>Backups of critical systems (such as operating systems, configurations, and applications) shall be kept separate from backups of critical information (such as business data, documents, and databases) to support faster and more reliable recovery.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to support faster and more reliable recovery by separating backups of critical systems (e.g. operating systems, configurations, applications) from backups of critical information (e.g. business data, documents, databases).
+To achieve this goal, the organisation should:
+· Separate backup scopes
+    · System backups should include operating systems, configurations, installed software, and system-level settings.
+    · Information backups should include business-critical data such as databases, documents, and application data.
+· Use tailored backup methods
+    · System backups should use full images or snapshots to capture the complete system state.
+    · Information backups should use incremental or differential methods to efficiently capture data changes.
+· Encrypt sensitive data
+    Both system and information backups should be encrypted during storage and transmission, especially when containing sensitive or regulated data.
+· Align with recovery objectives
+    Backup separation should reflect different Recovery Time Objectives (RTOs) and Recovery Point Objectives (RPOs). For example, system recovery may require faster restoration than business data.
+· Document and automate
+    · Backup scopes and procedures should be clearly documented.
+    · Backup processes should be automated where possible to reduce human error and ensure consistency.
+OT-Specific Considerations
+    In OT environments, separating system and data backups helps restore control systems quickly without waiting for large data sets to be recovered. This supports operational continuity and reduces downtime in critical industrial processes.
+Relation with PR.DS-11.3 and PR.DS-11.4
+PR.DS-11.5 is an evolution — not a repetition — of PR.DS-11.3 and PR.DS-11.4. While the earlier controls focus on where and how backups are stored and verified, PR.DS-11.5 focuses on what is being backed up and how it is logically separated to optimise recovery:
+    · PR.DS-11.3 ensures backups are secure and stored separately.
+    · PR.DS-11.4 ensures backups are tested and integrated into recovery planning.
+    · PR.DS-11.5 ensures functional separation between system and data backups to enable faster, more targeted recovery.</t>
+  </si>
+  <si>
+    <t>This control ensures that all business-critical systems operate in a known, secure, and approved state. A baseline configuration defines the standard setup for these systems, helping to detect unauthorised changes, enforce security policies, and support consistent operations.
+To implement this control the following should be considered:
+· Definition of what is Business-Critical
+    Business-critical systems may include IT, OT (Operational Technology), and potentially IoT (Internet of Things) components — if they support essential business functions:
+    · IT systems are typically managed internally.
+    · OT systems may include industrial control systems.
+    · IoT systems (e.g. sensors, smart devices) can be business-critical if their failure disrupts operations or introduces security risks.
+· Establish and Maintain Baseline Configurations
+    For each business-critical system, the baseline should include:
+    · System components (e.g. approved software, hardware)
+    · Operating system and application versions, including patch levels
+    · Configuration settings and parameters
+    · Network topology, showing how components are connected, including:
+    · External connections
+    · Servers hosting sensitive data or functions
+    · DNS and security services
+    · Logical placement of components within the system architecture
+· Apply Security Principles
+    · Baselines should enforce the principle of least functionality — only necessary features and services should be enabled.
+    · Default settings should be reviewed and adjusted to reduce security risks during installation or upgrades.
+· Monitor and Update
+    · Continuously monitor systems for deviations from the approved baseline.
+    · Update baselines when systems are patched, upgraded, or reconfigured.
+· Cloud and Supplier-Managed Systems
+    For systems managed by third parties (e.g. cloud services), ensure that baseline expectations are defined contractually and that suppliers provide visibility into configuration and change management.</t>
+  </si>
+  <si>
+    <t>PR.PS-01.2</t>
+  </si>
+  <si>
+    <t>PR.PS-01.3</t>
+  </si>
+  <si>
+    <t>PR.PS-01.4</t>
+  </si>
+  <si>
+    <t>PR.PS-01.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall configure its business-critical systems to operate with only the essential functions needed for their intended purpose. This includes reviewing and updating baseline configurations to disable any non-essential capabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall identify and disable specific functions, ports, protocols, and services within its critical systems that are not required for business operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall implement technical safeguards to enforce a policy of ‘deny-all’ and ‘permit-by-exception’ so that only authorised software programmes are executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unauthorised configuration changes to organisation's systems shall be monitored and addressed with the appropriate mitigation actions.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce security risks and system complexity by ensuring that business-critical systems are configured to run only the functions necessary for their intended purpose.
+To achieve this goal, the organisation should:
+· Apply the principle of least functionality by disabling non-essential features, services, and components.
+· Regularly review and update baseline configurations to reflect operational needs and evolving threats.
+· Assess and limit the following elements to what is strictly required:
+    · Installed software
+    · Enabled services
+    · Open ports
+    · Allowed protocols
+    · System features
+· Align configurations with security policies to minimise exposure to vulnerabilities and improve system performance.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the attack surface of critical systems by disabling functions, ports, protocols, and services that are not essential for business operations.
+To achieve this goal, the organisation should:
+· Identify system features that are not required based on the system’s role and associated risks.
+· Disable unnecessary elements to limit potential entry points and reduce lateral movement within the network.
+· Regularly assess and update configurations to reflect operational needs and evolving threats.
+· Elements to consider disabling include:
+     · Bluetooth
+    · File Transfer Protocol (FTP)
+    · Peer-to-peer networking
+    · Other unused or legacy services</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that only explicitly authorised software is allowed to run, reducing the risk of unauthorised or malicious programs affecting critical systems.
+To achieve this goal, the organisation should consider the following:
+· Implement application whitelisting to allow only approved software to execute.
+· Use group policies to enforce application control rules across systems.
+· Apply Software Restriction Policies (SRP) or similar mechanisms to block unauthorised software based on file path, hash, or digital signature.
+· Enforce role-based access control (RBAC) to ensure only authorised users can run specific applications.
+· Configure Java Security Manager to restrict which classes and methods can execute in Java-based environments.
+· Use configuration management tools to maintain consistent enforcement of authorised software across all systems.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to detect and respond to unauthorised configuration changes that could compromise system integrity or availability.
+To achieve this goal, the organisation should consider to:
+· Monitor configuration changes in line with defined policies and procedures.
+· Detect and log unauthorised modifications to system settings.
+· Alert designated personnel when unauthorised changes occur.
+· Restore approved configurations promptly to maintain operational stability.
+· Halt, in critical cases, affected system processes to prevent further impact.
+· Consult the guidance in ENISA NIS2 Technical Implementation Guidance (latest version), which recommends continuous monitoring and prompt mitigation of unauthorised changes to preserve system resilience and compliance.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce security and operational risks by controlling which software is used, ensuring it is properly maintained, and removing it when no longer needed or supported.
+To achieve this goal, the organisation should consider to:
+· Allow only approved software and restrict access based on user roles and responsibilities.
+· Replace unsupported or end-of-life software to avoid unpatched vulnerabilities.
+· Uninstall unused or unnecessary software, including outdated OS utilities, to reduce the attack surface.
+· Apply patches based on risk:
+    · Critical vulnerabilities should be patched within hours.
+    · Routine updates should follow a defined schedule (e.g. weekly or monthly).
+· In container environments, only trusted and up-to-date images should be used; outdated containers should be replaced.
+· Remove or disable software and services that pose unacceptable risk, such as FTP or peer-to-peer tools, unless explicitly required and secured.
+· In ICS/OT environments, ensure PLC programming is pre-approved and scheduled; avoid ad-hoc changes to protect operational safety.
+· Maintain a software inventory with version and support status.
+· Define procedures for software approval, patching, replacement, and removal.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that hardware used in business-critical environments remains secure, reliable, and fit for purpose by managing it based on operational and security risks.
+To achieve this goal, the organisation should consider to:
+· Regularly assess whether hardware supports required security features (e.g. encryption, secure boot, firmware updates); replace hardware that cannot meet these needs.
+· Phase out end-of-life or unsupported hardware in a controlled manner.
+· Define and maintain a hardware lifecycle plan, including:
+    · Inventory tracking
+    · End-of-life timelines
+    · Replacement schedules
+    · Secure disposal procedures
+· Perform preventive maintenance and timely replacements to avoid unexpected failures that could impact operations or security.
+· Ensure hardware can support secure, up-to-date software; address any limitations that prevent this.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that logs are consistently maintained, documented, and monitored to support visibility, accountability, and early detection of anomalies or threats.
+To support this goal, the organisation should:
+· Enable Logging Across Systems
+    All operating systems, applications, services (including cloud-based), and security tools (e.g. firewalls, anti­ virus) should be configured to generate log records.
+· Include a Variety of Log Types
+    Logs should include, where applicable: audit logs, event logs, application logs, security logs, system logs, and maintenance logs.
+· Protect Log Data
+    Logs should be protected from unauthorised access using encryption and access controls.
+· Back Up and Retain Logs
+    Log backups should be performed regularly and retained for a predefined period, based on business needs or regulatory requirements.
+· Review Logs for Anomalies
+    Logs should be reviewed to detect unusual patterns or behaviours, such as repeated malware detections or excessive access to non-business websites.
+· Define Retention Periods
+    Retention periods for logs should be clearly defined. Sector-specific requirements should be taken into account.
+· Support Monitoring and Accountability
+    Monitoring should be in place to provide visibility into system activity and support effective auditing and incident response.
+· Include OT Systems
+    Logging practices should extend to OT environments, including industrial control systems, where logs can help detect operational anomalies or unauthorised access attempts.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that logbook records across systems use a consistent and trusted time reference, so that events can be accurately tracked and correlated.
+To achieve this goal, the organisation should consider to:
+· Use a reliable time reference such as a GPS clock, internal time server, or other trusted source to synchronise system clocks.
+· Configure systems to update their clocks regularly to avoid time drift.
+· Set up multiple time sources to ensure redundancy and accuracy.
+· Monitor synchronisation status and trigger alerts if systems fall out of sync.
+· Document procedures for time synchronisation, including server settings, update intervals, and monitoring processes.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to protect the integrity of audit records by transferring them from critical systems to a separate, secure location where they cannot be changed or tampered with.
+To achieve this goal, the organisation should consider to:
+· Transfer audit data to a separate system where records cannot be modified by users or services from the original system.
+· Ensure the destination system keeps audit records unchanged once stored.
+· Monitor the impact of log transfers to avoid performance issues on the source systems.
+· Put measures in place that protect the data without slowing down or disrupting system operations.</t>
+  </si>
+  <si>
+    <t>PR.PS-04.4</t>
+  </si>
+  <si>
+    <t>PR.PS-04.5</t>
+  </si>
+  <si>
+    <t>The organisation shall ensure that audit processing failures on the organisation's systems generate alerts and trigger defined responses.</t>
+  </si>
+  <si>
+    <t>The organisation shall ensure that authorised personnel can extend or enhance audit logging and monitoring capabilities when needed to support investigations or incident response.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that any failure in audit logging, such as errors in log collection, processing, or storage, triggers alerts and predefined responses to maintain system integrity and traceability.
+To achieve this goal:
+· Audit failures should include software or hardware issues, broken logging mechanisms, or full storage.
+· Alerts should be automatically generated when such failures occur, and predefined actions should be triggered to address them.
+· Each audit log repository, whether on a server, firewall, or application, should be monitored individually and collectively.
+· System Logging Protocol (Syslog) servers or similar centralised logging solutions should be used to support reliable log collection and alerting.
+· Systems generating logs should be configured to capture detailed activity, access, and behaviour data to support zero-trust principles.
+· Audit logs should be continuously monitored to ensure availability, integrity, and sufficient storage capacity.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that audit logging can be quickly adapted to provide deeper visibility during security incidents or investigations, without disrupting normal operations.
+To achieve this goal:
+· Audit logging systems should allow on-demand adjustments, such as increasing log detail, extending retention, or expanding coverage.
+· Authorised personnel and conditions for enabling extended logging should be clearly defined.
+· Activation procedures should include approvals, documentation, and change tracking.
+· Logbook records should be reviewed regularly for accuracy and completeness across ICT and OT systems.
+· Policies should ensure extended logging is used only when justified and is properly recorded.
+· Technical capacity, escalation paths, and personnel availability should be pre-planned to support timely activation.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of malware infections, phishing attacks, and data breaches by implementing and maintaining effective web and email filtering solutions.
+To support this goal, the organisation should:
+· Implement Web Filtering
+    Web filters should be used to control access to websites based on:
+    · Predefined allow/block lists (e.g. by URL or domain)
+    · Real-time content analysis to detect malicious or inappropriate content
+    · Techniques such as URL filtering, content filtering, DNS filtering, and client- or server-side filtering
+· Configure Email Filtering
+    Email filters should be configured to:
+    · Block spam, phishing attempts, and malicious attachments or links
+    · Categorise incoming emails (e.g. newsletters, social media alerts) to reduce clutter and improve awareness
+    · Scan for known threats and suspicious patterns to enhance email security
+· Keep Filters Updated
+    Filtering rules and threat databases should be updated regularly to respond to evolving threats.
+· Integrate with Security Policies
+    Web and email filtering should align with the broader organisational security policies and awareness efforts.
+· Include OT Considerations
+    In OT environments, internet and email access should be restricted to only what is operationally necessary. Filtering should be applied to any systems with external connectivity to prevent exposure to threats.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of compromise by ensuring only trusted and approved software is installed and executed on systems.
+To achieve this goal:
+· Software installation and execution should be limited to pre-approved applications and environments.
+· Platforms should be configured to block unauthorised software and restrict execution where the risk justifies it.
+· The source and integrity of all new software should be verified before installation.
+· Access to harmful websites should be blocked using trusted and approved internet filtering services that are designed to detect and stop known online threats.
+· Where possible, systems should be configured to allow installation of organisation-approved software only.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to make sure that security is built into systems and applications from the beginning and maintained throughout their entire life — from design to retirement — whether they are developed in-house or purchased.
+To achieve this goal:
+· Initiation Phase:
+    Security requirements should be defined early, risks identified, and relevant stakeholders, including security experts, engaged from the start.
+· Acquisition or Development Phase:
+    For acquired solutions: vendors should follow secure development practices, provide evidence of testing, and meet contractual security requirements.
+    · For in-house development: secure coding practices should be applied, changes managed, and security testing conducted.
+    · Implementation Phase: Systems should be securely configured before deployment, with access controls and encryption applied to protect sensitive data.
+· Operations and Maintenance Phase:
+    Systems should be monitored for incidents, regularly updated, and security controls reviewed and improved as needed.
+· Disposition Phase:
+    Systems should be decommissioned securely, sensitive data removed, and lessons learned documented to strengthen future processes.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of disruptions or vulnerabilities by ensuring that all changes and exceptions are properly tested and validated before being applied to operational systems.
+To achieve this goal:
+· All proposed changes and exceptions should follow a formal process that includes documentation, review, testing, and approval.
+· The potential risks of applying, or not applying, a change should be assessed and recorded.
+· Exceptions, defined as approved deviations from standard policies or procedures, should be evaluated with a clear understanding of the risks and a defined plan to reduce or manage them.
+· Accepted risks should be periodically reviewed to confirm that the original decision to accept them remains valid, especially if conditions change or if the acceptance was based on future actions or milestones.
+· These practices should be adapted to the operational environment to avoid unplanned downtime or safety issues, especially in OT systems.</t>
+  </si>
+  <si>
+    <t>PR.PS-06.3</t>
+  </si>
+  <si>
+    <t>PR.PS-06.4</t>
+  </si>
+  <si>
+    <t>Secure software development practices shall be integrated into all phases of the software development lifecycle, and their effectiveness should be regularly monitored and improved.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce security risks in software by embedding protective measures throughout development and continuously improving them based on performance and evolving threats.
+To achieve this goal, the organisation should:
+· Integrate Security into the Development Lifecycle
+    · Secure coding standards and trusted development frameworks should be applied.
+    · Threat modelling should be conducted early to identify and reduce risks.
+    · All software components should be protected from tampering and unauthorised access.
+    · Access controls for databases and sensitive data should be enforced.
+    · Software dependencies and libraries should be kept up to date.
+    · Outdated or unused software should be securely removed.
+· Monitor the Effectiveness of Security Practices
+    · Metrics should be defined and tracked, such as:
+        · Vulnerabilities found during development vs. in production.
+        · Time taken to fix identified issues.
+        · Percentage of code reviewed or tested for security.
+        · Developer participation in secure coding training.
+    · These metrics should be used to identify gaps and improve practices.
+· Build Security Awareness
+    Developers and technical teams should receive regular training on secure coding and design principles.
+· Maintain and Improve
+    Secure development practices should be reviewed and updated based on:
+    · New threats or vulnerabilities.
+    · Lessons learned from incidents or audits.
+    · Industry standards and best practices.</t>
+  </si>
+  <si>
+    <t>For planned changes to the organisation's critical systems, a security impact analysis shall be performed in a separate test environment before implementation in an operational environment.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to prevent unintended security risks by testing planned changes to critical systems in a controlled environment before deployment.
+To achieve this goal, the organisation should:
+· Plan the Test Scenario
+    · Security threats to systems, assets, processes, and people should be identified.
+    · Planned configuration changes or system modifications should be analysed for their potential impact on security.
+· Prepare the Test Environment
+    · Test data should reflect realistic operational scenarios.
+    · Hardware, software, and network requirements should be clearly defined.
+    · The test environment should closely mirror the production environment in setup and configuration.
+    · Sufficient disk space should be allocated for testing activities.
+    · Software versions in the test environment should match those in production.
+· Ensure Security and Maintainability
+    · Software in the test environment should be regularly updated to address known vulnerabilities.
+    · Virtualisation or containerisation should be used to create consistent and replicable environments.
+    · Isolated virtual machines (VMs) should be used to prevent interference with operational systems.
+    · Security controls such as firewalls and access restrictions should be implemented in the test environment.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all networks used by the organisation are protected against unauthorised access and cyber threats through the installation, configuration, and active maintenance of firewalls.
+This control focuses on the installation, configuration, and maintenance of network-based firewalls to prevent unauthorised access by monitoring and controlling traffic entering or leaving the network (focus: control and prevention). In contrast, control DE.CM-01.1 addresses host-based firewalls, which help detect threats that bypass the network perimeter by monitoring traffic to and from individual devices (focus: visibility and detection).
+To implement this control, the organisation should:
+· Protect the Network Perimeter
+    · A firewall should be installed between the internal network and the internet. This may be integrated into a wireless access point, router, or ISP-provided device.
+    · Firewalls should be configured based on a baseline security policy using the principle of “deny all by default, allow only exceptions.”
+· Secure Endpoint Devices
+    · A software firewall should be installed and regularly updated on all endpoint devices, including laptops, smartphones, and other networked systems.
+    · Local firewalls should remain active even when using VPNs or cloud services.
+· Secure Home and Remote Work Environments
+    · Home networks used for teleworking should use routers with built-in firewalls, which should be enabled, securely configured, and kept up to date.
+    · Software firewalls should be active and updated on all remote work devices.
+    · Default administrator credentials on home routers should be changed and updated regularly.
+· Protect Operational Technology (OT) Environments
+    · Remote access to OT systems should be treated as third-party access, not standard teleworking.
+    · A clear separation between IT and OT networks should be enforced.
+    · When IT-to-OT access is necessary, it should pass through a secure jump host located in a dedicated DMZ.
+· Enhance Detection with IDPS
+    An Intrusion Detection and Prevention System (IDPS) should be considered to monitor and analyse network traffic for suspicious activity and enhance overall protection.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to limit the spread of cyber threats and enforce strict access control by implementing network segmentation and segregation based on trust boundaries and the criticality of systems.
+To implement this control, the following should be considered:
+· Define Security Zones
+    Networks should be divided into distinct zones (e.g. office, production, guest, mobile). Traffic between zones should be monitored and controlled, for example using firewalls.
+· Align Segmentation with Trust and Criticality
+    Segmentation should reflect which users and systems are trusted and how critical each asset is. Only essential communication between zones should be allowed, following the principle of least privilege.
+· Avoid Flat Networks
+    Flat networks should be avoided, as compromising one system could expose the entire environment. Segmentation should help contain threats within a single zone.
+· Separate IT and OT Environments
+    In environments with industrial systems (OT), office and production networks should be separated. Guest and mobile networks should not have direct access to internal office or production systems. Segmentation should follow the IEC 62443 standard, in particular requirements SR 5.1 to SR 5.3.
+· Use VLANs with Caution
+    VLANs should be used only as part of a broader defence-in-depth strategy. They should not be relied on alone to meet Security Level 2 requirements under IEC 62443-3-3. VLANs should be combined with firewalls, access controls, and monitoring.
+· Enforce Segmentation with Firewalls
+    Firewalls should be configured to block all traffic by default and allow only specific, approved connections. Segmentation and segregation should be enforced through well-maintained firewall rules, in line with control PR.IR-01.1.
+· Clarify Segmentation vs. Segregation
+    · Segmentation should be used to logically divide networks and control traffic between zones.
+    · Segregation should be applied where systems have to be isolated, with no direct communication unless explicitly permitted.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to maintain operational stability and security by ensuring that all connections between components of critical systems are known, documented, and actively managed.
+In OT environments, undocumented or uncontrolled connections — whether physical, wireless, or logical — can introduce vulnerabilities, disrupt processes, or bypass safety mechanisms.
+To effectively manage and secure network connections between system components, the following practices should be considered:
+· Configuration Management
+    Organisations should implement configuration management processes to ensure that all changes to network connections are documented, reviewed, and approved. Configuration files and logs should be kept current and securely maintained.
+· Access Controls
+    Strict access controls should be enforced to ensure that only authorised personnel can modify network configurations. Role-Based Access Control (RBAC) should be used to restrict access based on job responsibilities and operational needs.
+· Regular Audits
+    Regular audits should be conducted to verify that all documented connections remain accurate and that no unauthorised changes have occurred. Audit results should be used to update documentation and strengthen controls.
+· Link to Asset Management (ID.AM)
+    Connections between system components should be documented under ID.AM (Asset Management) and controlled under this requirement (PR.IR-01.3) to ensure consistency, traceability, and enforceability across the organisation’s cybersecurity architecture.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure secure and reliable operations by actively monitoring and controlling communications at key network boundaries — especially where critical systems interface with external networks or less trusted internal zones.
+In OT environments, where legacy systems often lack built-in security, boundary protection is essential to prevent unauthorised access, contain potential threats, and maintain process integrity across IT and OT domains.
+To achieve this goal, the following should be considered:
+· Boundary Protection Devices
+    Firewalls, security gateways, and routers should be deployed at external and internal boundaries to enforce traffic filtering and routing policies. These devices should operate under a “deny by default, allow by exception” model.
+· Zoning and Isolation in OT Environments
+    In OT environments, boundary protection should include strict separation between control systems and external networks. Zones should be defined based on criticality and trust, and communications between zones should be tightly controlled and monitored.
+· Unidirectional Gateways (Data Diodes)
+    Where data must flow from secure OT systems to external destinations (e.g. cloud services or regulators), unidirectional gateways should be used to prevent inbound threats while allowing outbound data transfer.
+· Encrypted Communications
+    Communications across boundaries should be encrypted using secure protocols (e.g. VPNs, TLS) to protect data in transit and ensure confidentiality and integrity.
+· Intrusion Detection and Prevention
+    Intrusion Detection and Prevention Systems (IDPS) should be deployed at key boundaries to monitor traffic for anomalies, detect unauthorised access attempts, and block malicious activity.
+· Access Control Enforcement
+    Access to boundary devices and communication channels should be restricted to authorised personnel. Network Access Control (NAC) solutions should be considered to enforce device and user authentication at entry points.
+· Continuous Monitoring and Patching
+    Boundary devices and communication channels should be continuously monitored for suspicious activity. All systems exposed to external or inter-zone communication should be regularly updated and patched to address known vulnerabilities.</t>
+  </si>
+  <si>
+    <t>PR.IR-01.5</t>
+  </si>
+  <si>
+    <t>The organisation shall implement, where feasible, authenticated proxy servers or firewalls with URL filtering and threat intelligence capabilities for defined communications traffic between its critical systems and external networks.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to reduce the risk of cyber threats entering critical systems, by filtering and inspecting outbound and inbound communications through authenticated proxies or firewalls.
+To achieve this goal, the following should be considered:
+· Access Controls
+    Proxy servers and firewalls should enforce strict access controls, allowing only authorised users and systems. Strong authentication methods, such as multi-factor authentication (MFA), should be used to support zero-trust principles.
+· Encryption
+    Communications between clients and proxy servers should be encrypted using the most current and secure versions of SSL/TLS to protect against eavesdropping and man-in-the-middle attacks.
+· Threat Intelligence and URL Filtering
+    · To effectively monitor and control communications across IT and OT environments, proxy servers and firewalls should:
+    · Integrate threat intelligence feeds to detect and block known malicious domains, IP addresses, and URLs.
+    · Apply URL filtering to prevent access to harmful or unauthorised web content.
+    · In OT environments, where systems often lack built-in security features, intelligent filtering at network boundaries should be used to:
+        · Detect and block malicious traffic before it reaches critical systems.
+        · Prevent data exfiltration and unauthorised external communication.
+        · Enforce communication policies without disrupting operational processes.
+    These measures should be part of a layered defence strategy that supports secure and reliable operations across both IT and OT domains.
+· Logging and Monitoring
+    Detailed logging and continuous monitoring should be enabled to track access, detect anomalies, and support incident response. Logs should be regularly reviewed for signs of compromise.
+· Firewall Configuration
+    Firewalls should be configured to allow only explicitly authorised traffic to and from proxy servers. A “deny by default” policy should be enforced.
+· Regular Updates and Patching
+    Proxy servers, firewalls, and their underlying systems should be regularly updated and patched to address known vulnerabilities and maintain security effectiveness.
+· Performance and Reliability
+    Load balancing should be used to distribute traffic across multiple proxy servers or firewalls, ensuring high availability and optimal performance. Resource usage should be monitored to prevent overload and degradation.</t>
+  </si>
+  <si>
+    <t>PR.IR-01.6</t>
+  </si>
+  <si>
+    <t>The organisation shall ensure that its critical systems are designed to fail securely and remain protected in the event of an operational failure of a border protection device.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that critical systems remain protected and do not become exposed or vulnerable if a firewall, proxy, or other boundary protection device fails.
+In OT environments, where availability and safety are paramount, systems should be designed to fail securely, for example, by defaulting to a deny-all state, isolating affected segments, or triggering alerts, so that a failure in one component does not compromise the entire system or allow unauthorised access.
+To achieve this goal, the following should be considered:
+· Fail-Secure Configuration
+    Devices should be configured to default to a secure state (e.g. deny all traffic) in the event of failure, preventing unauthorised access or data leakage.
+· Redundancy and High Availability
+    Redundant systems or failover mechanisms should be in place to ensure continuous protection. Avoid single points of failure, especially in OT environments where uptime is critical.
+· Regular Testing and Maintenance
+    Failover mechanisms and secure failure configurations should be tested regularly. Maintenance should ensure devices remain in a secure and functional state.
+· Access Control Integrity
+    Access Control Lists (ACLs) and security policies should remain protected and unaltered during failures to preserve the system’s security posture.
+· Monitoring and Alerts
+    Real-time monitoring and alerting should be implemented to detect failures promptly and initiate corrective actions.
+· Segmentation and Isolation
+    Network design should include segmentation and isolation to limit the impact of a failure and prevent cascading effects across systems.
+These practices align with recognised standards, including NIST SP 800-53 Rev. 5, NIST SP 800-53A, and IEC 62443-3-3 SR 5.2 RE 3 – Fail Close, which emphasise secure failure and resilience in critical infrastructure systems.</t>
+  </si>
+  <si>
+    <t>PR.IR-01.7</t>
+  </si>
+  <si>
+    <t>PR.IR-01.8</t>
+  </si>
+  <si>
+    <t>PR.IR-01.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall ensure that development and test environments are strictly separated from the production environment, particularly in ICS/OT systems where any crossover could compromise safety, endanger health, or disrupt essential operations.</t>
+  </si>
+  <si>
+    <t>The organisation shall define, monitor, and control the flow of information and data within and between its critical systems to ensure that only authorised and secure exchanges occur, regardless of network boundaries or system architecture.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to prevent unintended disruptions, safety risks, or security breaches by ensuring that development and testing activities do not interfere with live operational systems.
+In OT environments, such as Industrial Control Systems (ICS), even minor crossovers between test and production can lead to unsafe conditions, process interruptions, or exposure of sensitive configurations. Strict separation helps maintain system integrity, supports change control, and reduces the risk of accidental or malicious actions affecting critical operations.
+To achieve this goal, the following should be considered:
+· Strict Environment Separation
+    Development and testing activities should be conducted in environments that are physically or logically separated from the production environment. This is especially critical in ICS/OT settings, where operational safety and reliability must not be compromised.
+· Pre-Deployment Testing
+    Any change intended for the ICT or OT environment should first be tested in a non-production environment. This allows for the evaluation of potential impacts and necessary adjustments before deployment.
+· Realistic Test Environments
+    Test environments should closely replicate the production environment in terms of configuration, architecture, and data flow, to ensure accurate testing outcomes.
+· Secure Development Practices
+    Cybersecurity features should be integrated and tested as early as possible in the development lifecycle, following secure development lifecycle (SDLC) principles.</t>
+  </si>
+  <si>
+    <t>This requirement builds on PR.IR-01.3 (control of system connections) and PR.IR-01.4 (boundary protection), but goes further by focusing on what data is allowed to move, where, and under what conditions — not just how systems are connected or segmented.
+It also complements ID.AM-03.2, which requires that network communication and internal data flows be mapped, documented, authorised, and updated. PR.IR-01.8 ensures that these documented flows are also actively enforced and monitored.
+Controlling information and data flows is especially critical in ICS/OT environments, where any unauthorised or unintended exchange of data can compromise health, safety, and environmental protection, and must therefore be strictly governed.
+To implement this requirement effectively, the organisation should:
+· Define and Enforce Flow Control Policies
+    Tools and policies should be used to control how data moves between systems and within different parts of the network, ensuring only authorised flows occur.
+· Encrypt Data-in-Transit and at-Rest
+    Use secure encryption protocols such as TLS/SSL for data in transit and AES-256 for data at rest to protect confidentiality and integrity.
+· Use Multi-Factor Authentication (MFA)
+    MFA should be implemented to verify the identity of users accessing systems that handle or transmit sensitive data.
+· Secure APIs
+    APIs used for inter-system communication should follow secure development practices and be regularly reviewed for vulnerabilities.
+· Implement Continuous Monitoring
+    Real-time monitoring tools should detect unauthorised data flows or anomalies, with alerts for immediate response.
+· Conduct Periodic Audits
+    Regular audits should verify compliance with data flow policies and identify potential weaknesses or unauthorised changes.
+· Apply Network Segmentation
+    Segment the network to restrict unnecessary data flows and limit the impact of potential breaches.
+· Secure Remote Access
+    VPNs should be used to securely connect remote systems and users to the organisation’s network.
+· Deploy Data Loss Prevention (DLP)
+    DLP solutions should monitor and control the transfer of sensitive information, especially when leaving the organisation.
+· Train Staff and Raise Awareness
+    Employees should be trained on data handling policies and the importance of controlling information flows.
+· Simulate Phishing Attacks
+    Regular phishing simulations should be conducted to reduce the risk of social engineering attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall manage interfaces with external telecommunications services as part of its broader network security policy, by defining how traffic is controlled, ensuring the confidentiality and integrity of transmitted information, and reviewing and documenting any exceptions to established rules.</t>
+  </si>
+  <si>
+    <t>This control builds on PR.IR-01.8 by focusing specifically on how external communications are governed within the organisation’s network security policy. While firewall configurations and baseline security settings provide technical enforcement, this requirement emphasises the policy and oversight layer.
+To implement this effectively, the organisation should:
+· Integrate Traffic Flow Management into the Network Security Policy
+    The network security policy should include clear rules for how data and voice traffic is allowed to flow between internal systems and external telecommunications services.
+· Define Security Objectives and Scope
+    The policy should outline the goals for protecting external communications and specify which systems and services are covered.
+· Control and Monitor Traffic
+    Network traffic should be continuously monitored to ensure it complies with defined rules. Suspicious or unauthorised flows should trigger alerts and be investigated.
+· Protect Data in Transit
+    Confidentiality and integrity of transmitted data should be protected using encryption protocols such as TLS/SSL.
+· Document and Review Exceptions
+    Any exceptions to the traffic flow rules (e.g., temporary access for a third party) should be formally documented, justified, and regularly reviewed.
+· Respond to Incidents
+    The organisation should be prepared to isolate and respond to abnormal or malicious traffic patterns quickly.
+· Maintain Policy Alignment
+    The traffic flow component should align with other elements of the network security policy, including access control, VPN usage, patch management, and incident response.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to protect critical systems from environmental hazards and emergencies that could disrupt operations, damage equipment, or endanger safety — especially in OT environments where physical conditions directly impact system availability and human safety.
+To achieve this goal, the organisation should:
+· Conduct risk assessments of all locations housing critical systems to identify environmental and emergency risks.
+· Define policies and procedures for fire protection, emergency response, and environmental controls.
+· Install monitoring systems such as temperature, humidity, smoke, and water leak sensors, with alerts for abnormal conditions.
+· Implement fire protection measures including appropriate suppression systems (e.g. gas-based for data centres), alarms, detectors, and extinguishers.
+· Inspect and maintain fire safety and environmental systems regularly, including HVAC and emergency lighting.
+· Include environmental protection requirements in third-party contracts, and request evidence of compliance and maintenance.
+· Train staff on emergency procedures and conduct evacuation and fire response drills at least annually.</t>
+  </si>
+  <si>
+    <t>PR.IR-02.2</t>
+  </si>
+  <si>
+    <t>The organisation shall implement fire detection devices that activate and notify key personnel automatically in the event of a fire.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that fire incidents are detected early and that key personnel are automatically alerted, to enable a rapid and coordinated response — especially in environments where critical systems support safety or essential operations.
+To achieve this goal, the organisation should:
+· Deploy automated fire detection systems using smoke and heat detectors that activate without manual intervention.
+· Integrate fire detection with automatic suppression systems where appropriate (e.g. sprinklers or gas-based systems).
+· Configure systems to automatically notify designated personnel or emergency responders upon activation.
+· Define and maintain a notification list with clearly assigned roles, ensuring that individuals have the necessary access and clearance — particularly in sensitive or classified environments.</t>
+  </si>
+  <si>
+    <t>PR.IR-03</t>
+  </si>
+  <si>
+    <t>PR.IR-03.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall implement mechanisms to ensure that critical systems and services remain operational or can be quickly restored during both normal operations and adverse conditions.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that critical systems and services remain operational, or can be quickly restored, during both normal operations and adverse conditions such as cyber-attacks, hardware failures, or natural disasters.
+This control supports the broader objective of operational resilience. While redundancy (as addressed in GV.OC-04.3) helps prevent outages by duplicating components, resilience ensures that operations can continue or recover quickly even when failures do occur. Both are essential for maintaining availability in complex IT and OT environments.
+To achieve this goal, the organisation should:
+· Define Resilience Objectives
+    · Identify critical systems and define acceptable Recovery Time Objectives (RTO) and Recovery Point Objec- tives (RPO).
+    · Align resilience goals with business continuity and disaster recovery plans.
+· Design for Resilience
+    · Implement fault-tolerant architectures (e.g. clustering, load balancing, geo-redundancy).
+    · Use diverse technologies and suppliers to reduce dependency on single points of failure.
+· Ensure Operational Readiness
+    · Test failover systems regularly through simulations and switchovers.
+    · Keep operational procedures and recovery instructions current and accurate.
+· Enhance Cyber Resilience
+    · Integrate resilience strategies into incident response plans (e.g. ransomware containment, data restoration).
+    · Use immutable backups and network segmentation to limit the impact of cyber incidents.
+· Assess Third-Party Resilience
+    · Evaluate the resilience of critical service providers and document findings.
+    · Include resilience and recovery requirements in service-level agreements (SLAs).
+· Promote Continuous Improvement
+    · Review and update resilience mechanisms after incidents or major changes.
+    · Incorporate lessons learned into future planning and testing.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that critical systems have enough computing, storage, and network resources available at all times by planning ahead for current and future capacity needs.
+To achieve this goal, the organisation should:
+· Forecast and Plan
+    Resource needs should be regularly forecasted based on business growth, seasonal patterns, and usage trends. Future demand for compute, storage, and network capacity should be anticipated to prevent performance issues or outages.
+· Account for Procurement Lead Times
+    Capacity planning should consider potential delays in hardware or service delivery due to supply chain or geopolitical disruptions. Buffer capacity should be maintained to absorb unexpected demand or expansion delays.
+· Monitor and Set Thresholds
+    Systems should be continuously monitored to track usage. Thresholds and alerts should be configured to trigger timely scaling actions before performance is impacted.
+· Use High-Availability Components
+    Redundant components (e.g. RAID arrays, dual network interfaces, backup power) should be deployed to reduce downtime from hardware failures. These should complement, not replace, capacity planning.
+· Review and Adjust Regularly
+    Capacity plans should be reviewed periodically and updated based on changes in business strategy, technology, or external risk factors.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2633,13 +4676,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2649,6 +4714,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2775,7 +4852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2820,28 +4897,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2872,6 +4952,84 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3286,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BAF61A-04DC-E843-B98B-FBB8A932C760}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A11" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3359,12 +5517,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="173" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3400,7 +5557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="11">
         <v>1</v>
       </c>
@@ -3413,7 +5570,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3427,7 +5584,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3438,7 +5595,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3458,7 +5615,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3470,7 +5627,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -3490,7 +5647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -3502,7 +5659,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -3522,7 +5679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -3542,7 +5699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -3562,7 +5719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="304" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -3582,7 +5739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3602,7 +5759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3622,7 +5779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3642,7 +5799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2</v>
       </c>
@@ -3656,7 +5813,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>3</v>
       </c>
@@ -3667,7 +5824,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -3687,7 +5844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>3</v>
       </c>
@@ -3699,7 +5856,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -3719,7 +5876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3</v>
       </c>
@@ -3731,7 +5888,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -3751,7 +5908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -3771,7 +5928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>3</v>
       </c>
@@ -3783,7 +5940,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="208" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -3803,7 +5960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
@@ -3815,7 +5972,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -3835,7 +5992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>2</v>
       </c>
@@ -3850,7 +6007,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>3</v>
       </c>
@@ -3862,7 +6019,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -3882,7 +6039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -3895,7 +6052,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -3915,7 +6072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3935,7 +6092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>3</v>
       </c>
@@ -3947,7 +6104,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -3967,7 +6124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -3987,7 +6144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>3</v>
       </c>
@@ -3999,7 +6156,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>126</v>
       </c>
@@ -4019,7 +6176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -4039,7 +6196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>2</v>
       </c>
@@ -4054,7 +6211,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>3</v>
       </c>
@@ -4066,7 +6223,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="256" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -4086,7 +6243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -4106,7 +6263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>2</v>
       </c>
@@ -4121,7 +6278,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>3</v>
       </c>
@@ -4133,7 +6290,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -4153,7 +6310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>3</v>
       </c>
@@ -4165,7 +6322,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="224" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -4185,7 +6342,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>2</v>
       </c>
@@ -4200,7 +6357,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>3</v>
       </c>
@@ -4212,7 +6369,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -4232,7 +6389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>3</v>
       </c>
@@ -4244,7 +6401,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>126</v>
       </c>
@@ -4264,7 +6421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>3</v>
       </c>
@@ -4276,7 +6433,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -4296,7 +6453,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>3</v>
       </c>
@@ -4308,7 +6465,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="208" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -4328,7 +6485,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -4348,7 +6505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -4368,7 +6525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>3</v>
       </c>
@@ -4380,7 +6537,7 @@
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -4400,7 +6557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>3</v>
       </c>
@@ -4412,7 +6569,7 @@
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -4432,7 +6589,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="304" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -4452,7 +6609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4472,7 +6629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -4492,7 +6649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>3</v>
       </c>
@@ -4504,7 +6661,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -4524,7 +6681,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>3</v>
       </c>
@@ -4536,7 +6693,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="304" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="304" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -4556,7 +6713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>3</v>
       </c>
@@ -4568,7 +6725,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -4588,7 +6745,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="11" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="11">
         <v>1</v>
       </c>
@@ -4601,7 +6758,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>2</v>
       </c>
@@ -4615,7 +6772,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>3</v>
       </c>
@@ -4626,7 +6783,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -4646,7 +6803,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -4666,7 +6823,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -4686,7 +6843,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="208" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -4706,7 +6863,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>3</v>
       </c>
@@ -4717,7 +6874,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="320" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="320" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -4737,7 +6894,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>126</v>
       </c>
@@ -4757,7 +6914,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -4777,7 +6934,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -4797,7 +6954,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>126</v>
       </c>
@@ -4817,18 +6974,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -4845,10 +7002,10 @@
         <v>297</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="256" hidden="1" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="256" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -4868,18 +7025,18 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="208" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -4899,7 +7056,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -4919,18 +7076,18 @@
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F92" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="365" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -4938,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D93" t="s">
         <v>250</v>
@@ -4950,7 +7107,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>3</v>
       </c>
@@ -4961,7 +7118,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -4981,7 +7138,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -5001,7 +7158,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>3</v>
       </c>
@@ -5012,7 +7169,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -5032,7 +7189,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -5052,7 +7209,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -5065,14 +7222,14 @@
       <c r="D100" t="s">
         <v>249</v>
       </c>
-      <c r="F100" s="24" t="s">
+      <c r="F100" s="25" t="s">
         <v>327</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -5085,14 +7242,14 @@
       <c r="D101" t="s">
         <v>239</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F101" s="25" t="s">
         <v>341</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="208" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -5105,14 +7262,14 @@
       <c r="D102" t="s">
         <v>249</v>
       </c>
-      <c r="F102" s="24" t="s">
+      <c r="F102" s="25" t="s">
         <v>329</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -5125,14 +7282,14 @@
       <c r="D103" t="s">
         <v>258</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="26" t="s">
         <v>344</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -5145,14 +7302,14 @@
       <c r="D104" t="s">
         <v>249</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F104" s="26" t="s">
         <v>331</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -5165,14 +7322,14 @@
       <c r="D105" t="s">
         <v>258</v>
       </c>
-      <c r="F105" s="25" t="s">
+      <c r="F105" s="26" t="s">
         <v>349</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -5185,14 +7342,14 @@
       <c r="D106" t="s">
         <v>258</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F106" s="26" t="s">
         <v>351</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -5205,14 +7362,14 @@
       <c r="D107" t="s">
         <v>249</v>
       </c>
-      <c r="F107" s="26" t="s">
+      <c r="F107" s="27" t="s">
         <v>333</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -5225,14 +7382,14 @@
       <c r="D108" t="s">
         <v>249</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F108" s="28" t="s">
         <v>335</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -5252,32 +7409,32 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
+        <v>359</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="224" hidden="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -5285,19 +7442,19 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D112" t="s">
         <v>250</v>
       </c>
-      <c r="F112" s="31" t="s">
-        <v>364</v>
+      <c r="F112" s="32" t="s">
+        <v>363</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5305,19 +7462,19 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D113" t="s">
         <v>249</v>
       </c>
-      <c r="F113" s="28" t="s">
-        <v>366</v>
+      <c r="F113" s="29" t="s">
+        <v>365</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -5325,19 +7482,19 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D114" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="29" t="s">
-        <v>368</v>
+      <c r="F114" s="30" t="s">
+        <v>367</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -5345,19 +7502,19 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D115" t="s">
         <v>239</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -5365,19 +7522,19 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D116" t="s">
         <v>249</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="224" hidden="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -5385,30 +7542,30 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D117" t="s">
         <v>249</v>
       </c>
-      <c r="F117" s="30" t="s">
-        <v>373</v>
+      <c r="F117" s="31" t="s">
+        <v>372</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="208" hidden="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="208" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -5416,50 +7573,50 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D119" t="s">
         <v>249</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="224" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>391</v>
       </c>
       <c r="D120" t="s">
         <v>239</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="224" hidden="1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -5467,30 +7624,30 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D122" t="s">
         <v>249</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -5498,19 +7655,19 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D124" t="s">
         <v>250</v>
       </c>
-      <c r="F124" s="32" t="s">
-        <v>397</v>
+      <c r="F124" s="33" t="s">
+        <v>396</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="192" hidden="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -5518,19 +7675,19 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D125" t="s">
         <v>259</v>
       </c>
-      <c r="F125" s="32" t="s">
-        <v>399</v>
+      <c r="F125" s="33" t="s">
+        <v>398</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -5538,30 +7695,30 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D126" t="s">
         <v>256</v>
       </c>
-      <c r="F126" s="33" t="s">
+      <c r="F126" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5569,30 +7726,30 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D128" t="s">
         <v>249</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="192" hidden="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>126</v>
       </c>
@@ -5600,64 +7757,64 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D130" t="s">
         <v>257</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G130" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="272" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>126</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>416</v>
       </c>
       <c r="D131" t="s">
         <v>239</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" t="s">
+        <v>419</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>126</v>
       </c>
@@ -5665,30 +7822,30 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D134" t="s">
         <v>249</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="272" hidden="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>126</v>
       </c>
@@ -5696,19 +7853,19 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D136" t="s">
         <v>249</v>
       </c>
-      <c r="F136" s="35" t="s">
-        <v>429</v>
+      <c r="F136" s="36" t="s">
+        <v>428</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -5716,19 +7873,19 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D137" t="s">
         <v>249</v>
       </c>
-      <c r="F137" s="34" t="s">
-        <v>431</v>
+      <c r="F137" s="35" t="s">
+        <v>430</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -5736,19 +7893,19 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D138" t="s">
         <v>259</v>
       </c>
-      <c r="F138" s="34" t="s">
-        <v>433</v>
+      <c r="F138" s="35" t="s">
+        <v>432</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>126</v>
       </c>
@@ -5756,19 +7913,19 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D139" t="s">
         <v>249</v>
       </c>
-      <c r="F139" s="34" t="s">
-        <v>435</v>
+      <c r="F139" s="35" t="s">
+        <v>434</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -5776,19 +7933,19 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D140" t="s">
         <v>249</v>
       </c>
-      <c r="F140" s="34" t="s">
-        <v>437</v>
+      <c r="F140" s="35" t="s">
+        <v>436</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>126</v>
       </c>
@@ -5796,59 +7953,59 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D141" t="s">
         <v>249</v>
       </c>
-      <c r="F141" s="34" t="s">
-        <v>440</v>
+      <c r="F141" s="35" t="s">
+        <v>439</v>
       </c>
       <c r="G141" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="224" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>126</v>
-      </c>
-      <c r="B142">
-        <v>4</v>
-      </c>
-      <c r="C142" t="s">
-        <v>450</v>
       </c>
       <c r="D142" t="s">
         <v>239</v>
       </c>
       <c r="F142" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G142" s="2" t="s">
+    </row>
+    <row r="143" spans="1:7" ht="256" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="256" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>126</v>
-      </c>
-      <c r="B143">
-        <v>4</v>
-      </c>
-      <c r="C143" t="s">
-        <v>453</v>
       </c>
       <c r="D143" t="s">
         <v>239</v>
       </c>
       <c r="F143" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>126</v>
       </c>
@@ -5856,30 +8013,30 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D144" t="s">
         <v>256</v>
       </c>
       <c r="F144" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>443</v>
-      </c>
-      <c r="F145" s="34" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="380" hidden="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="F145" s="35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="380" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>126</v>
       </c>
@@ -5887,44 +8044,1938 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D146" t="s">
         <v>259</v>
       </c>
-      <c r="F146" s="34" t="s">
-        <v>441</v>
+      <c r="F146" s="35" t="s">
+        <v>440</v>
       </c>
       <c r="G146" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>126</v>
-      </c>
-      <c r="B147">
-        <v>4</v>
-      </c>
-      <c r="C147" t="s">
-        <v>460</v>
       </c>
       <c r="D147" t="s">
         <v>256</v>
       </c>
       <c r="F147" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>462</v>
+    </row>
+    <row r="148" spans="1:7" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B148" s="11">
+        <v>1</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="F148" s="13"/>
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>470</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>473</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>476</v>
+      </c>
+      <c r="D151" t="s">
+        <v>322</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>126</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>479</v>
+      </c>
+      <c r="D152" t="s">
+        <v>249</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>614</v>
+      </c>
+      <c r="D153" t="s">
+        <v>239</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>616</v>
+      </c>
+      <c r="D154" t="s">
+        <v>239</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>617</v>
+      </c>
+      <c r="D155" t="s">
+        <v>239</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>586</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>126</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>482</v>
+      </c>
+      <c r="D157" t="s">
+        <v>249</v>
+      </c>
+      <c r="F157" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>623</v>
+      </c>
+      <c r="D158" t="s">
+        <v>239</v>
+      </c>
+      <c r="F158" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>584</v>
+      </c>
+      <c r="F159" s="38" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>484</v>
+      </c>
+      <c r="D160" t="s">
+        <v>250</v>
+      </c>
+      <c r="F160" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>126</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>485</v>
+      </c>
+      <c r="D161" t="s">
+        <v>322</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="256" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>486</v>
+      </c>
+      <c r="D162" t="s">
+        <v>582</v>
+      </c>
+      <c r="F162" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>126</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>629</v>
+      </c>
+      <c r="D163" t="s">
+        <v>239</v>
+      </c>
+      <c r="F163" s="61" t="s">
+        <v>631</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>126</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>630</v>
+      </c>
+      <c r="D164" t="s">
+        <v>239</v>
+      </c>
+      <c r="F164" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>635</v>
+      </c>
+      <c r="F165" s="61" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="288" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>636</v>
+      </c>
+      <c r="D166" t="s">
+        <v>239</v>
+      </c>
+      <c r="F166" s="61" t="s">
+        <v>634</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>583</v>
+      </c>
+      <c r="F167" s="61" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>490</v>
+      </c>
+      <c r="D168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="335" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>126</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>492</v>
+      </c>
+      <c r="D169" t="s">
+        <v>322</v>
+      </c>
+      <c r="F169" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>126</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>493</v>
+      </c>
+      <c r="D170" t="s">
+        <v>322</v>
+      </c>
+      <c r="F170" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>494</v>
+      </c>
+      <c r="D171" t="s">
+        <v>322</v>
+      </c>
+      <c r="F171" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>495</v>
+      </c>
+      <c r="D172" t="s">
+        <v>249</v>
+      </c>
+      <c r="F172" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="395" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>126</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>496</v>
+      </c>
+      <c r="D173" t="s">
+        <v>249</v>
+      </c>
+      <c r="F173" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>126</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>497</v>
+      </c>
+      <c r="D174" t="s">
+        <v>249</v>
+      </c>
+      <c r="F174" s="43" t="s">
+        <v>502</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>126</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>645</v>
+      </c>
+      <c r="D175" t="s">
+        <v>239</v>
+      </c>
+      <c r="F175" s="59" t="s">
+        <v>646</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>126</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>648</v>
+      </c>
+      <c r="D176" t="s">
+        <v>239</v>
+      </c>
+      <c r="F176" s="59" t="s">
+        <v>649</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>585</v>
+      </c>
+      <c r="F177" s="59" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>126</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>504</v>
+      </c>
+      <c r="D178" t="s">
+        <v>250</v>
+      </c>
+      <c r="F178" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>126</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>505</v>
+      </c>
+      <c r="D179" t="s">
+        <v>249</v>
+      </c>
+      <c r="F179" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>126</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>653</v>
+      </c>
+      <c r="D180" t="s">
+        <v>239</v>
+      </c>
+      <c r="F180" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>654</v>
+      </c>
+      <c r="D181" t="s">
+        <v>239</v>
+      </c>
+      <c r="F181" s="60" t="s">
+        <v>657</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>565</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F182" s="60" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>566</v>
+      </c>
+      <c r="F183" s="60" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>126</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>508</v>
+      </c>
+      <c r="D184" t="s">
+        <v>250</v>
+      </c>
+      <c r="F184" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>126</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>509</v>
+      </c>
+      <c r="D185" t="s">
+        <v>249</v>
+      </c>
+      <c r="F185" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>126</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>510</v>
+      </c>
+      <c r="D186" t="s">
+        <v>249</v>
+      </c>
+      <c r="F186" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>126</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>660</v>
+      </c>
+      <c r="D187" t="s">
+        <v>239</v>
+      </c>
+      <c r="F187" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>567</v>
+      </c>
+      <c r="F188" s="28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>126</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>514</v>
+      </c>
+      <c r="D189" t="s">
+        <v>249</v>
+      </c>
+      <c r="F189" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>126</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>515</v>
+      </c>
+      <c r="D190" t="s">
+        <v>249</v>
+      </c>
+      <c r="F190" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>126</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>516</v>
+      </c>
+      <c r="D191" t="s">
+        <v>249</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>571</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F192" s="35" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>568</v>
+      </c>
+      <c r="F193" s="35" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="335" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>520</v>
+      </c>
+      <c r="D194" t="s">
+        <v>249</v>
+      </c>
+      <c r="F194" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>126</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>669</v>
+      </c>
+      <c r="D195" t="s">
+        <v>239</v>
+      </c>
+      <c r="F195" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>126</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>670</v>
+      </c>
+      <c r="D196" t="s">
+        <v>239</v>
+      </c>
+      <c r="F196" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="335" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>522</v>
+      </c>
+      <c r="D197" t="s">
+        <v>249</v>
+      </c>
+      <c r="F197" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>126</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>523</v>
+      </c>
+      <c r="D198" t="s">
+        <v>249</v>
+      </c>
+      <c r="F198" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>126</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>677</v>
+      </c>
+      <c r="D199" t="s">
+        <v>239</v>
+      </c>
+      <c r="F199" s="62" t="s">
+        <v>678</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>126</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>526</v>
+      </c>
+      <c r="D200" t="s">
+        <v>250</v>
+      </c>
+      <c r="F200" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>681</v>
+      </c>
+      <c r="F201" s="35" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>126</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>683</v>
+      </c>
+      <c r="D202" t="s">
+        <v>258</v>
+      </c>
+      <c r="F202" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>126</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>685</v>
+      </c>
+      <c r="D203" t="s">
+        <v>239</v>
+      </c>
+      <c r="F203" s="35" t="s">
+        <v>686</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>689</v>
+      </c>
+      <c r="F204" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>126</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>691</v>
+      </c>
+      <c r="F205" s="35" t="s">
+        <v>692</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>569</v>
+      </c>
+      <c r="F206" s="35" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>126</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>528</v>
+      </c>
+      <c r="D207" t="s">
+        <v>322</v>
+      </c>
+      <c r="F207" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>126</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>529</v>
+      </c>
+      <c r="D208" t="s">
+        <v>249</v>
+      </c>
+      <c r="F208" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>126</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>530</v>
+      </c>
+      <c r="D209" t="s">
+        <v>249</v>
+      </c>
+      <c r="F209" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>126</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>697</v>
+      </c>
+      <c r="D210" t="s">
+        <v>239</v>
+      </c>
+      <c r="F210" s="53" t="s">
+        <v>698</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>126</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>700</v>
+      </c>
+      <c r="D211" t="s">
+        <v>239</v>
+      </c>
+      <c r="F211" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>572</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F212" s="53" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>570</v>
+      </c>
+      <c r="F213" s="53" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>126</v>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214" t="s">
+        <v>534</v>
+      </c>
+      <c r="D214" t="s">
+        <v>582</v>
+      </c>
+      <c r="F214" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>126</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215" t="s">
+        <v>704</v>
+      </c>
+      <c r="D215" t="s">
+        <v>239</v>
+      </c>
+      <c r="F215" s="61" t="s">
+        <v>708</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>126</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>705</v>
+      </c>
+      <c r="D216" t="s">
+        <v>239</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>126</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>706</v>
+      </c>
+      <c r="D217" t="s">
+        <v>239</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>126</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>707</v>
+      </c>
+      <c r="D218" t="s">
+        <v>239</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>573</v>
+      </c>
+      <c r="F219" s="61" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>126</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
+        <v>536</v>
+      </c>
+      <c r="D220" t="s">
+        <v>249</v>
+      </c>
+      <c r="F220" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>574</v>
+      </c>
+      <c r="F221" s="51" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>126</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>538</v>
+      </c>
+      <c r="D222" t="s">
+        <v>249</v>
+      </c>
+      <c r="F222" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>575</v>
+      </c>
+      <c r="F223" s="54" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>126</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>540</v>
+      </c>
+      <c r="D224" t="s">
+        <v>322</v>
+      </c>
+      <c r="F224" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>126</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s">
+        <v>541</v>
+      </c>
+      <c r="D225" t="s">
+        <v>249</v>
+      </c>
+      <c r="F225" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>126</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>542</v>
+      </c>
+      <c r="D226" t="s">
+        <v>249</v>
+      </c>
+      <c r="F226" s="53" t="s">
+        <v>543</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>126</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>721</v>
+      </c>
+      <c r="D227" t="s">
+        <v>239</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>126</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>722</v>
+      </c>
+      <c r="D228" t="s">
+        <v>239</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>576</v>
+      </c>
+      <c r="F229" s="49" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>126</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>546</v>
+      </c>
+      <c r="D230" t="s">
+        <v>250</v>
+      </c>
+      <c r="F230" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>547</v>
+      </c>
+      <c r="D231" t="s">
+        <v>249</v>
+      </c>
+      <c r="F231" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>577</v>
+      </c>
+      <c r="F232" s="49" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>126</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>550</v>
+      </c>
+      <c r="D233" t="s">
+        <v>249</v>
+      </c>
+      <c r="F233" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>126</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>552</v>
+      </c>
+      <c r="D234" t="s">
+        <v>249</v>
+      </c>
+      <c r="F234" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>126</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>731</v>
+      </c>
+      <c r="D235" t="s">
+        <v>239</v>
+      </c>
+      <c r="F235" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>126</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>732</v>
+      </c>
+      <c r="D236" t="s">
+        <v>239</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>579</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F237" s="49" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>578</v>
+      </c>
+      <c r="F238" s="49" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>126</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>554</v>
+      </c>
+      <c r="D239" t="s">
+        <v>322</v>
+      </c>
+      <c r="F239" s="48" t="s">
+        <v>553</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="288" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>126</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>556</v>
+      </c>
+      <c r="D240" t="s">
+        <v>322</v>
+      </c>
+      <c r="F240" s="55" t="s">
+        <v>555</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>126</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>557</v>
+      </c>
+      <c r="D241" t="s">
+        <v>582</v>
+      </c>
+      <c r="F241" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>126</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>558</v>
+      </c>
+      <c r="D242" t="s">
+        <v>582</v>
+      </c>
+      <c r="F242" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>126</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>741</v>
+      </c>
+      <c r="D243" t="s">
+        <v>239</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>126</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>744</v>
+      </c>
+      <c r="D244" t="s">
+        <v>239</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>126</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>747</v>
+      </c>
+      <c r="D245" t="s">
+        <v>239</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>126</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>748</v>
+      </c>
+      <c r="D246" t="s">
+        <v>239</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="288" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247" t="s">
+        <v>749</v>
+      </c>
+      <c r="D247" t="s">
+        <v>239</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>580</v>
+      </c>
+      <c r="F248" s="61" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>126</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>562</v>
+      </c>
+      <c r="D249" t="s">
+        <v>249</v>
+      </c>
+      <c r="F249" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>126</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>757</v>
+      </c>
+      <c r="D250" t="s">
+        <v>239</v>
+      </c>
+      <c r="F250" s="51" t="s">
+        <v>758</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>760</v>
+      </c>
+      <c r="F251" s="51"/>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" ht="380" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>126</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>761</v>
+      </c>
+      <c r="D252" t="s">
+        <v>239</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>581</v>
+      </c>
+      <c r="F253" s="51" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>126</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>564</v>
+      </c>
+      <c r="D254" t="s">
+        <v>249</v>
+      </c>
+      <c r="F254" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G148" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G254" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tools/excel/ccb/cyfun2025.xlsx
+++ b/tools/excel/ccb/cyfun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6CFAE9-77B8-6B45-B34A-D78A629E9870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD36B3-611A-DA48-AE1D-313BA62BA1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="-28180" windowWidth="51200" windowHeight="26920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="scores_content" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">requirements_content!$A$1:$G$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">requirements_content!$A$1:$G$289</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="861">
   <si>
     <t>GV.OC-01.1</t>
   </si>
@@ -4626,6 +4626,523 @@
     Redundant components (e.g. RAID arrays, dual network interfaces, backup power) should be deployed to reduce downtime from hardware failures. These should complement, not replace, capacity planning.
 · Review and Adjust Regularly
     Capacity plans should be reviewed periodically and updated based on changes in business strategy, technology, or external risk factors.</t>
+  </si>
+  <si>
+    <t>Mechanisms are implemented to achieve resilience requirements in normal and adverse situations</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all connections with external systems are secured through verified security controls and governed by documented agreements. This reduces the risk of unauthorised access, data leakage, and supply chain compromise.
+To achieve this goal, the organisation should:
+· Control and Document All External Interactions
+    All interactions between internal systems and external parties (e.g. vendors, partners, cloud services) should be identified, controlled, and documented to ensure traceability and accountability.
+· Verify Security Controls of External Parties
+    Before establishing any connection, the external party’s security posture should be verified through third-party assessments, audits, certifications (e.g. CyFun®), or technical documentation such as M154. These documents should describe security architecture, access controls, encryption, and monitoring.
+· Establish Documented Agreements
+    Formal agreements (e.g. contracts, SLAs, DPAs) should define security requirements, roles and responsibilities, data exchange protocols, incident response procedures, and termination conditions.
+· Specify Access Control Requirements
+    Agreements should include technical restrictions such as IP whitelisting, role-based access control, data handling rules, and encryption requirements for data in transit and at rest.
+· Monitor and Review External Connections
+    All external connections should be continuously monitored for anomalies or policy violations. Agreements and technical documentation (e.g. M154) should be reviewed periodically and updated as needed. Any changes in the external system’s security posture should trigger a reassessment.
+· Ensure OT-Specific Considerations
+    In OT environments, external access should be routed through secure gateways or jump servers. Shared access (e.g. for vendor-managed PLCs) should be logged, time-limited, and protected by strong authentication.
+· Align with ENISA Guidance
+    These practices align with ENISA’s Technical Implementation Guidance on Cybersecurity Risk Management Measures, which recommends verifying third-party security, formalising responsibilities through contracts, and continuously monitoring external dependencies.</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DETECT</t>
+  </si>
+  <si>
+    <t>DE.CM</t>
+  </si>
+  <si>
+    <t>DE.CM-01</t>
+  </si>
+  <si>
+    <t>DE.CM-01.1</t>
+  </si>
+  <si>
+    <t>Continuous Monitoring</t>
+  </si>
+  <si>
+    <t>Assets are monitored to find anomalies, indicators of compromise, and other potentially adverse events.</t>
+  </si>
+  <si>
+    <t>Networks and network services are monitored to find potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-01.2</t>
+  </si>
+  <si>
+    <t>DE.CM-01.3</t>
+  </si>
+  <si>
+    <t>The physical environment is monitored to find potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-02</t>
+  </si>
+  <si>
+    <t>The physical environment shall be monitored to find potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-02.1</t>
+  </si>
+  <si>
+    <t>Personnel activity and technology usage are monitored to find potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-03</t>
+  </si>
+  <si>
+    <t>End point and network protection tools to monitor end-user behaviour for dangerous activity shall be implemented.</t>
+  </si>
+  <si>
+    <t>DE.CM-03-1</t>
+  </si>
+  <si>
+    <t>DE.CM-03-2</t>
+  </si>
+  <si>
+    <t>End point and network protection tools that monitor end-user behaviour for dangerous activity shall be managed.</t>
+  </si>
+  <si>
+    <t>External service provider activities and services are monitored to find potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-06</t>
+  </si>
+  <si>
+    <t>External service provider activities and services shall be secured and monitored to find potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-06.1</t>
+  </si>
+  <si>
+    <t>DE.CM-06.2</t>
+  </si>
+  <si>
+    <t>External service providers' conformance with personnel security policies and procedures and contract security requirements shall be monitored relative to their cybersecurity risks.</t>
+  </si>
+  <si>
+    <t>Computing hardware and software, runtime environments, and their data are monitored to find potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-09</t>
+  </si>
+  <si>
+    <t>The organisation shall monitor computing hardware, software, runtime environments, and their data to detect potentially adverse events.</t>
+  </si>
+  <si>
+    <t>DE.CM-09.1</t>
+  </si>
+  <si>
+    <t>Adverse Event Analysis</t>
+  </si>
+  <si>
+    <t>Anomalies, indicators of compromise, and other potentially adverse events are analysed to characterize the events and detect cybersecurity incidents.</t>
+  </si>
+  <si>
+    <t>DE.AE</t>
+  </si>
+  <si>
+    <t>Potentially adverse events are analysed to better understand associated activities.</t>
+  </si>
+  <si>
+    <t>DE.AE-02</t>
+  </si>
+  <si>
+    <t>Cybersecurity and information security events must be reviewed and analysed to identify potential attack targets and methods, in accordance with applicable laws, regulations, standards, and policies.</t>
+  </si>
+  <si>
+    <t>DE.AE-02.1</t>
+  </si>
+  <si>
+    <t>Information is correlated from multiple sources.</t>
+  </si>
+  <si>
+    <t>DE.AE-03</t>
+  </si>
+  <si>
+    <t>The logging functionality of protection and detection tools shall be enabled. Logs shall be backed up and retained for a predefined period, and regularly reviewed to identify unusual or potentially harmful activity.</t>
+  </si>
+  <si>
+    <t>DE.AE-03.1</t>
+  </si>
+  <si>
+    <t>DE.AE-03.2</t>
+  </si>
+  <si>
+    <t>The organisation shall ensure that event data from critical systems is collected and correlated using information from multiple relevant sources.</t>
+  </si>
+  <si>
+    <t>DE.AE-06</t>
+  </si>
+  <si>
+    <t>DE.AE-06.1</t>
+  </si>
+  <si>
+    <t>Information about adverse events must be promptly delivered to authorised personnel and systems to enable timely detection, investigation, and response.</t>
+  </si>
+  <si>
+    <t>Incidents are declared when adverse events meet the defined incident criteria.</t>
+  </si>
+  <si>
+    <t>DE.AE-08</t>
+  </si>
+  <si>
+    <t>Incidents shall be reported when adverse events meet defined and documented incident criteria.</t>
+  </si>
+  <si>
+    <t>DE.AE-08.1</t>
+  </si>
+  <si>
+    <t>DE.AE-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The estimated impact and scope of adverse events are understood  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information on adverse events is provided to authorised staff and tools  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firewalls shall be installed and operated at the network boundaries, including endpoint firewalls.	</t>
+  </si>
+  <si>
+    <t>Anti-virus, -spyware, and other -malware programs shall be installed and updated.</t>
+  </si>
+  <si>
+    <t>The organisation shall monitor and identify unauthorised use of its business-critical systems through the detection of unauthorised local connections, network connections and remote connections.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to enhance visibility and detection of threats at the device level, particularly those that may bypass traditional network perimeter defences.
+This control focuses on the use of host-based firewalls to detect threats that may bypass the network perimeter, by monitoring and controlling traffic to and from individual devices (focus: visibility and detection). In contrast, control PR.IR-01.1 addresses network-based firewalls, which are designed to prevent unauthorised access by managing traffic entering or leaving the network (focus: control and prevention).
+To achieve this goal, the following should be considered:
+· Define Endpoints Broadly: Include desktops, laptops, servers, smartphones, and where feasible, OT (Operational Technology) components like PLCs and HMIs, as well as IoT devices.
+· Deploy Host-Based Firewalls: Ensure firewalls are installed, active, and properly configured on all endpoint devices. These firewalls help detect and block suspicious activity directly on the device, even when it is connected to secure networks or VPNs.
+· Segment Network Assets: Group systems based on their criticality or function (e.g. put public-facing services like email, web, and VPN servers in a DMZ).
+· Use Predefined Firewall Rules: Establish rules to filter both inbound and outbound traffic, thereby helping to detect anomalies or malicious behaviour.
+· Limit Internet Gateways: Reduce the number of interconnection points to the internet to minimise exposure and simplify monitoring.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all organisational devices (IT and OT assets) are protected against malicious software, by deploying and regularly updating anti-malware tools.
+To achieve this goal, consider the following:
+· Scope of Protection
+    · IT Devices: Install anti-malware software on all user and system devices, including desktops, laptops, servers, smartphones, and tablets.
+    · OT Devices: Extend protection to OT assets such as PLCs, HMIs, SCADA servers, and engineering workstations, where technically feasible.
+· Update and Scanning Practices
+    · IT: Configure anti-malware tools to update in real-time or at least daily, followed by automated or scheduled scans.
+    · OT: Carefully plan updates and scans to avoid operational disruption. Use maintenance windows and test updates before deployment.
+· Tailored Solutions for OT
+    · Use lightweight or OT-specific anti-malware tools that are compatible with real-time systems.
+    · For legacy or resource-constrained OT devices, consider:
+        · Application whitelisting
+        · Network-based malware detection
+        · Use specialised tools that quietly monitor industrial systems to spot unusual or suspicious activity, without interfering with how the systems operate (passive monitoring).
+· Remote Work and BYOD
+    Apply the same protection standards to:
+    · Home computers used for teleworking
+    · Personal devices (BYOD) used for professional tasks
+    · Use endpoint protection platforms to enforce policies across all devices.
+· Centralised Management and Monitoring
+    · Use Centralised tools to manage anti-malware configurations, updates, and alerts across both IT and OT environments.
+    · Integrate malware alerts into the organisation’s broader security monitoring and incident response processes.
+· Continuous Improvement
+    · Regularly review and test anti-malware effectiveness.
+    · Update policies and tools based on emerging threats and lessons learned from incidents.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation can detect and respond to unauthorised access or misuse of its business-critical systems. This includes identifying suspicious local, network, or remote connections that could indicate a security breach or misuse of sensitive systems.
+To achieve this goal, consider the following:
+· Monitoring of network communications should happen at the external boundary of the organisation's business critical systems and at key internal boundaries within those systems.
+· Facilities should be monitored for unauthorised or rogue wireless networks that could allow attackers to bypass normal controls.
+· Critical network services such as Domain Name System (DNS – which translates website names to IP addresses), Border Gateway Protocol (BGP – which helps route internet traffic), and other network services should be monitored for signs of tampering or misuse.
+· When hosting applications that are accessible from the internet, a Web Application Firewall (WAF) should be considered to protect against attacks. If the application is not web-based, it should be protected using other appropriate methods, such as an Identity Provider (IdP) to control access.</t>
+  </si>
+  <si>
+    <t>DE.CM-01.4</t>
+  </si>
+  <si>
+    <t>The organisation shall continuously monitor its network to spot signs of cyber threats or unusual activity, using clearly defined rules for what counts as a potential security incident.</t>
+  </si>
+  <si>
+    <t>The aim of this control is to ensure that the organisation continuously monitors its network and systems to detect signs of cyber threats or unusual activity. This is done using clearly defined rules that help identify what qualifies as a potential security incident.
+To achieve this, consider the following:
+· This control builds on DE.AE-08.1, which requires that incidents have to be reported based on predefined criteria.
+· The organisation should decide which types of cybersecurity events and warning signs need to be monitored, and define what information must be recorded in audit logs.
+· Automated tools should be used to detect suspicious activity, such as unexpected network traffic, failed login attempts, or incorrect system settings.
+· Monitoring should be flexible and increase during high-risk periods, such as when threat alerts are received, during geopolitical tensions, or after internal issues.
+· Monitoring should include not only digital systems but also physical spaces, staff behaviour, and interactions with service providers, where relevant.
+· Network activity should be continuously analysed to detect changes that might indicate weakened security, following zero-trust principles.
+· Alerts should be triggered automatically when certain thresholds are met, and known false alarms should be filtered out to avoid overwhelming staff.</t>
+  </si>
+  <si>
+    <t>The purpose of this control is to ensure that the physical spaces where critical systems and data are located are monitored for signs of suspicious or harmful activity. This helps detect potential threats such as unauthorised access, tampering, or other unusual events in the physical environment.
+To achieve this purpose, consider the following:
+· Logs from physical access systems (such as badge readers) should be reviewed to detect unusual patterns, like someone trying to enter at odd hours or repeated failed attempts to access a restricted area.
+· Records of visitor access (such as sign-in sheets or digital check-ins) should be regularly reviewed to ensure that only authorised individuals have entered secure areas.
+· Physical security equipment (such as locks, door latches, hinge pins, and alarms) should be checked for signs of tampering or damage that could indicate an attempted breach.</t>
+  </si>
+  <si>
+    <t>DE.CM-02.2</t>
+  </si>
+  <si>
+    <t>Physical access to the organisation's critical systems and devices, in addition to physical access monitoring to the facility, shall be supplemented by physical intrusion alarms, surveillance equipment, and independent monitoring teams.</t>
+  </si>
+  <si>
+    <t>The purpose of this control is to strengthen the protection of critical systems and devices by supplementing basic physical access monitoring with active intrusion detection, surveillance technologies, and independent monitoring capabilities. This helps ensure timely detection and response to physical security threats.
+To achieve this purpose, consider the following:
+· Intrusion detection systems should be deployed to identify unauthorised physical entry attempts. These systems may include motion sensors, door/window contact sensors, and glass break detectors, which trigger alerts when unusual activity is detected.
+· Surveillance technologies such as CCTV cameras, video recording systems, and access control systems should be used to continuously monitor and record activity in sensitive areas. These systems help verify incidents and support investigations.
+· Visitor tracking should be enhanced by logging all entries, including contractors and temporary personnel, using digital systems or manual logs.
+· Independent monitoring teams, typically external security professionals, should be engaged to oversee surveillance systems and respond to incidents. These teams bring specialised expertise and operate separately from internal staff, making it important to apply third-party cybersecurity requirements to their operations.
+· Surveillance and intrusion detection should be integrated with broader security operations, allowing alerts to be correlated with other physical and digital indicators of compromise.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation can detect and respond to risky or suspicious behaviour by users on both devices and networks. This helps identify threats such as malware infections, misuse of systems, or attempts to bypass security controls — whether caused by external attackers or insiders.
+To achieve this goal, the following should be considered:
+· Organisations should consider using a combination of modern security tools that work together to provide a full picture of user and system activity:
+· Intrusion Detection and Prevention Systems (IDPS): These tools monitor network traffic and can block or alert on suspicious activity, such as hacking attempts or exploitation of vulnerabilities.
+· Web Application Firewalls (WAFs) and API Gateways: These help protect online applications and services by filtering harmful traffic and preventing unauthorised access.
+· In addition, a layered approach using advanced detection and response tools can provide real-time visibility and faster response:
+· Endpoint Detection and Response (EDR): Monitors activity on individual devices (like laptops or servers) to detect threats such as malware or unauthorised access.
+· Network Detection and Response (NDR): Analyses network traffic to identify unusual patterns, such as lateral movement or hidden attacks.
+· Identity Threat Detection and Response (ITDR): Focuses on detecting misuse of user accounts, such as stolen credentials or insider threats.
+· User and Entity Behaviour Analytics (UEBA): Uses machine learning to understand normal behaviour and detect anomalies that may indicate a threat.
+· These tools are part of a modern, layered security strategy and are often referenced in industry best practices and frameworks such as the Security Operations Centre (SOC) Visibility Triad introduced by Gartner.</t>
+  </si>
+  <si>
+    <t>This control builds on DE.CM-03.1 by shifting the focus from implementation to ongoing management of monitoring tools. The goal of this control is to ensure that tools used to monitor user behaviour and detect harmful activity on devices and networks are properly maintained and actively managed. This supports the continued effectiveness of the tools as threats evolve, and ensures that the alerts they produce are accurate, relevant, and helpful for identifying real security risks.
+To achieve this goal, consider the following:
+· Tools that monitor devices such as laptops, mobile phones, and servers should be regularly checked to confirm they are working properly, updated with the latest threat information, and able to detect new types of attacks.
+· A central system should be used to collect and analyse logs from different sources. These logs should be complete, up to date, and useful for identifying suspicious activity.
+· Logs related to system access, such as login attempts or access outside normal hours, should be reviewed regularly. Alerts should be set up to notify security teams of unusual patterns.
+· Tools that analyse user behaviour should be fine-tuned over time. Security teams should review alerts, adjust detection rules to reduce false alarms, and improve accuracy.
+· Deception tools, such as fake systems or files designed to attract attackers, should be monitored closely. Alerts from these tools are often early signs of a real attack and should be treated as high priority.
+· Security teams should regularly assess how well all monitoring tools are performing, update detection rules, and ensure the tools are integrated with incident response processes.
+· Roles and responsibilities for monitoring and responding to alerts should be clearly defined. Staff should be trained to use the tools effectively and respond appropriately to incidents.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that activities performed by external service providers, whether remote or onsite, are securely managed and continuously monitored. This helps detect any unusual or harmful actions that could affect the organisation’s systems, data, or services.
+The achieve this goal, the following should be considered:
+· External providers may include contractors, cloud service vendors, IT support teams, software developers, and other third parties involved in system maintenance, development, or security.
+· Monitoring should focus on:
+· Access and login activity, including how and when external users connect to systems.
+· Data transfers and network traffic, to detect unusual or unauthorised movement of information.
+· System changes, such as software updates or configuration adjustments made by external parties.
+· All remote and onsite activities by external providers should be logged and reviewed to identify unauthorised actions or risky behaviour.
+· Cloud services and internet providers should be monitored for unexpected behaviour or performance issues that could indicate a security problem.
+· A centralised logging system should be used to collect and analyse data from all external services.
+· Any security incidents involving external providers — such as malware infections, phishing attempts, or unauthorised access — should be detected early, reported quickly, and addressed effectively.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that external service providers follow the organisation’s personnel security policies and contract requirements, especially when they have access to sensitive systems or data. This helps reduce the risk of security incidents caused by third-party staff and ensures that providers are held to the same standards as internal personnel.
+To achieve this goal, consider the following:
+· External providers should have clearly defined security responsibilities, which are documented in contracts or service-level agreements.
+· Contracts should include requirements such as:
+    · Background checks for provider personnel
+    · Signing of confidentiality agreements
+    · Adherence to acceptable use policies
+· Compliance with these requirements should be monitored regularly, including checks for completed security training and signed agreements.
+· Providers should be required to notify the organisation immediately when staff with system access are transferred or leave their role, so access rights can be revoked without delay.
+· Periodic audits should be conducted to confirm that providers are following security policies. These may include:
+    · Reviewing access logs and permissions
+    · Verifying onboarding and offboarding procedures
+    · Ensuring only authorised individuals have access to critical systems
+· Any issues or non-compliance should be documented, reported, and addressed through corrective actions and follow-up reviews.</t>
+  </si>
+  <si>
+    <t>This control aims to ensure that organisations continuously monitor their computing systems and data to detect potentially harmful events early. This helps maintain visibility, support timely responses, and reduce the risk of security incidents.
+To achieve the goal of this control, the organisation should consider the following:
+· Turn on system logging on computers and servers to record important events.
+· Use built-in antivirus or endpoint protection to detect threats and generate alerts.
+· Regularly review logs and alerts to spot unusual activity or errors.
+· Store logs in a shared folder or simple log viewer to make them easier to access and review.
+· Set a routine (e.g. weekly or monthly) to check logs and update monitoring tools.
+· Assign someone responsible for monitoring, even if it is a part-time role.</t>
+  </si>
+  <si>
+    <t>DE.CM-09.2</t>
+  </si>
+  <si>
+    <t>DE.CM-09.3</t>
+  </si>
+  <si>
+    <t>DE.CM-09.4</t>
+  </si>
+  <si>
+    <t>The organisation shall establish a system to accurately distinguish between legitimate alerts and false positives, ensuring effective detection and removal of malicious code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation's incident response plan shall include measures to detect unauthorised tampering with the hardware of critical systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall implement hardware integrity checks to detect unauthorised tampering of critical system hardware. Controls shall be proportionate to the organisation’s risk profile and operational capacity.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that critical hardware components are protected against unauthorised tampering. By implementing integrity checks that match the organisation’s risk level and operational capacity, it becomes possible to detect physical or firmware-level changes that could compromise security.
+Consider the following elements to achieve this goal:
+· Define What Needs Protection
+    Identify which systems are most critical, such as servers handling sensitive data, industrial control systems (ICS/SCADA), or cryptographic devices, and prioritise them based on business impact, legal requirements, and exposure to threats.
+· Choose the Right Level of Protection
+    Select controls based on how critical the system is and what the organisation can support:
+    · Basic controls: Locked server rooms, tamper-evident seals, secure boot, and regular hardware audits.
+    · Intermediate controls: Alerts when hardware is opened, use of Trusted Platform Modules (TPMs), and firmware validation tools.
+    · Advanced controls: Remote validation of hardware state, tamper-resistant cryptographic hardware (HSMs), and monitoring for hardware-level anomalies using security tools.
+· Connect to Security Operations
+    Feed alerts from hardware integrity tools into central monitoring systems (like a SIEM or SOC) for real-time visibility. Define how to respond if tampering is suspected.
+· Assign Clear Responsibilities
+    Designate roles for designing, implementing, and responding to hardware integrity issues. Use role profiles (e.g. from ENISA ECSF) to guide responsibilities:
+    · Security architects design the controls.
+    · System administrators implement and monitor them.
+    · Incident responders investigate alerts.
+· Document and Review
+    Include hardware integrity checks in security policies, risk assessments, and audit logs. Review their effectiveness at least once a year or after major changes or incidents.
+· Train Staff and Raise Awareness
+    Train relevant personnel to recognise signs of tampering, use integrity tools correctly, and follow reporting procedures.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation’s incident response plan includes steps to detect and respond to unauthorised tampering of critical hardware. This helps the organisation react quickly and effectively if someone tries to physically or digitally compromise important systems. This control can be implemented in a practical and scalable manner.
+By considering the below measures, also small organisations can effectively include hardware tampering detection in their incident response capabilities, without requiring extensive resources:
+· Incident Response Plan
+    The incident response plan should include clear instructions for what steps to take if hardware tampering is suspected.
+· Regular Inspections
+    Have IT and OT staff or designated personnel regularly inspect critical hardware for signs of tampering, such as broken seals, loose cables, or unexpected changes.
+· Monitoring Tools
+    Simple tools can be used to send alerts when something unusual happens to a device, such as the case being opened, a new USB device being connected, or the system restarting unexpectedly. Many of these tools are designed to be affordable and easy to use, especially for small organisations.
+· Training and Awareness
+    Train employees to recognise signs of hardware tampering and report any suspicious activity. Awareness is key to early detection.
+· Vendor Support
+    Use tools or services offered by hardware vendors to help detect tampering, often included with support contracts.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation can accurately identify real threats while avoiding unnecessary alerts caused by false positives. This helps improve the effectiveness of detecting and removing malicious code, while reducing wasted time and resources responding to harmless activity.
+To help detect and remove malicious code effectively while avoiding false alarms, the following practices should be considered:
+· Automatic Updates
+    Malicious code protection tools should be configured to update automatically where possible, or manually according to a defined schedule, in line with organisational policies and operational constraints.
+· Secure Development Practices
+    Software used in IT and OT systems should follow secure development practices, including code reviews and vulnerability checks, to reduce the risk of introducing malicious code.
+· Layered Protection
+    Both signature-based protection (which detects known threats) and behaviour-based protection (which looks for unusual or suspicious activity) should be used in places where networks connect to the internet, where staff access control systems, and where files or data are shared between systems.
+· Scanning for Threats
+    Protection tools should be set to perform regular scans and, where feasible, real-time checks of files and data transfers, especially those coming from external sources or removable media.
+· Blocking and Quarantine
+    Detected malicious code should be blocked and isolated to prevent it from affecting other systems. In OT environments, this should be done in a way that does not disrupt critical operations.
+· Alerts and Notifications
+    Alerts should be sent to designated personnel when malicious code is detected, with clear procedures for responding in both IT and OT contexts.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that cybersecurity and information security events are reviewed and analysed to detect attack targets and methods. This enables organisations to respond effectively to threats while maintaining compliance with legal, regulatory, and policy requirements.
+To achieve this goal, consider the following:
+· Organisations should follow relevant federal and regional laws, industry regulations, standards, and internal policies when reviewing security events.
+· Log analysis tools should be used to generate reports and identify suspicious activity.
+· System and application logs should be regularly reviewed to detect signs of security threats, such as repeated failed login attempts or unusual data transfers.
+· Logs should be analysed for patterns that indicate attempted or ongoing attacks.
+· Threat intelligence should be used to stay informed about emerging threats and attack techniques, and security measures should be adjusted accordingly.
+· Regular audits and assessments should be conducted to evaluate the organisation’s security posture.
+· The results of these audits should be used to improve monitoring and analysis.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation uses automation, where practical, to support the efficient and consistent review and analysis of detected cybersecurity events. This helps reduce the risk of human error, speeds up threat detection and response, and allows limited security resources (especially in smaller organisations) to focus on higher-value tasks like investigating complex incidents or improving defences.
+To achieve this goal, the following should be considered:
+· Use Built-in Capabilities
+    Enable and configure logging and alerting features in existing platforms (e.g. Microsoft 365, Google Workspace, firewalls) to automatically detect suspicious activity.
+· Deploy Lightweight Detection Tools
+    Use affordable endpoint detection and response (EDR) solutions that offer automated alerts and basic analysis, such as detecting malware or unusual login behaviour.
+· Consider Managed Detection Services
+    For organisations with limited internal resources, a Managed Detection and Response (MDR) service can provide outsourced monitoring, threat detection, and incident response.
+· Automate High-Impact Areas
+    Focus automation on common threat indicators, such as:
+    · Multiple failed login attempts
+    · Unusual access to sensitive files
+    · Unexpected outbound traffic
+· Integrate Threat Intelligence
+    Use free or low-cost threat intelligence feeds to enhance detection tools with known indicators of compromise and attacker behaviours.
+· Maintain Manual Review Practices
+    Schedule regular manual reviews of logs and alerts to identify threats that automated tools may miss, especially those involving new or subtle attack techniques.</t>
+  </si>
+  <si>
+    <t>DE.AE-02.2</t>
+  </si>
+  <si>
+    <t>The organisation shall implement automated mechanisms where feasible to review and analyse detected events.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to make sure security tools have logging turned on, logs are kept for a set time, and regularly checked to spot unusual or harmful activity. This helps to detect threats early and take action. Examples of such tools include firewalls, antivirus software, endpoint detection, and intrusion detection systems.
+To achieve this goal, the following should be considered:
+· Logs should be stored securely and retained according to a defined retention schedule, based on applicable legal, regulatory, or operational needs.
+· Event detection tools and solutions should be configured to generate automated alerts for suspicious or harmful activity.
+· A documented procedure should be in place for regularly reviewing logs and dashboards to support timely detection and response.
+· Log reviews should include checks for patterns such as repeated malware infections, abnormal network traffic, or excessive access to non-business-related websites.
+· If such patterns are identified, follow-up actions should be defined, such as strengthening specific security controls, updating detection rules, or conducting targeted awareness training.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to enable the organisation to detect complex or distributed threats by combining and analysing event data from different systems and sources. Correlating this data helps identify patterns that may not be visible when systems are monitored in isolation.
+The achieve this goal, the following should be considered:
+· Relevant sources of event data can include system logs, audit logs, network monitoring tools, physical access records, and reports from users or administrators.
+· Log data should be sent continuously, ideally in real-time or near real-time, to a centralised system for storage and analysis. This improves the ability to detect patterns and respond quickly to potential issues.
+· Centralising logs on a small number of dedicated servers or platforms, such as a SIEM, lightweight log management tools, cloud-based logging services, or managed detection services (often part of Managed Detection and Response, or MDR), can support efficient analysis and correlation of events across systems.
+· Cyber threat intelligence can be used to enhance event correlation by providing context about known threats, attack methods, and indicators of compromise.
+· Threat intelligence should be securely integrated into detection tools and processes to support more accurate and timely identification of threats.</t>
+  </si>
+  <si>
+    <t>DE.AE-03.3</t>
+  </si>
+  <si>
+    <t>The organisation shall combine event analysis with information from vulnerability scans, system performance data, monitoring of critical systems, and facility monitoring, where feasible.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to strengthen the organisation’s ability to detect complex or hidden threats by combining event analysis with other relevant data sources.
+This broader view supports more accurate and timely identification of suspicious activity, and the following should be considered to achieve the goal of this control:
+· Tools that collect and link data from different systems (such as SIEM, XDR, or SOAR) should be used to support this integration.
+· Security issues reported by suppliers or trusted sources should be collected quickly and reviewed for possible risks.
+· Data from different monitoring systems should be brought together to make it easier to detect patterns or problems.
+· The setup should allow fast detection and response when something unusual is found.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation understands how detected events could cause harm, and uses this understanding to guide risk-based decisions and responses.
+To achieve the goal of this control, the following should be considered:
+· Tools that help estimate the scope and impact of events should be used to support this assessment.
+· The assessment should consider how problems in one part of a system could affect other connected parts.
+· Negative impacts can include financial loss, service disruption, damage to equipment, or harm to people.
+· Detected events can include cyber incidents, system failures, or natural disasters.
+· The severity and likelihood of these impacts should be evaluated and compared with existing risk assessments.
+· This comparison should help prioritise actions, allocate resources, and improve response planning.</t>
+  </si>
+  <si>
+    <t>DE.AE-04.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall assess the negative impacts of detected events on its operations, assets, and individuals, and shall link these impacts to the results of its risk assessments.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that information about adverse events is delivered promptly to the right people and systems, so that appropriate action can be taken without delay. This supports faster detection, investigation, and response to potential threats or disruptions.
+To achieve the goal of this control, consider the following:
+· Types of Adverse Events: Include indicators such as unusual account activity, unauthorised access, system configuration changes, physical security breaches, or malware alerts.
+· Detection and Alerting: Use cybersecurity tools to detect such events and automatically alert authorised personnel (e.g. SOC analysts, incident responders).
+· Integration with Ticketing Systems: Alerts should be integrated with the organisation’s ticketing system.
+    Tickets should be:
+    · Automatically generated for predefined alert types.
+    · Manually created when technical staff identify suspicious activity.
+· Access to Logs and Analysis: Authorised staff must have continuous access to log data and analysis results to support investigations.
+· Maturity and Effectiveness Assessment: Evaluate the control’s implementation by checking:
+    · Documentation of procedures for alert generation, review, and escalation. This documentation should be regularly reviewed and updated.
+    · Use of automation for standard alerts, with manual processes as a backup.
+    · Access controls for alerts and logs, with periodic reviews of permissions (Access to alerts and logs should be limited to authorised personnel).
+    · Monitoring and reporting should for example track the number of alerts, response times, and whether procedures are followed.
+    · Training should be provided regularly to staff responsible for handling alerts, ensuring they understand how to interpret and act on them.</t>
+  </si>
+  <si>
+    <t>This control ensures that adverse events are identified and reported when they meet clearly defined and documented incident criteria. It emphasises the importance of having consistent thresholds and guidelines in place to determine when an event qualifies as an incident, supporting timely awareness and appropriate escalation or response.
+To achieve this goal, the following should be considered:
+· Incident criteria (rules for what qualifies as an incident) should be clearly defined, documented, and regularly reviewed.
+· These criteria should help determine when an adverse event becomes an incident that must be reported.
+· The criteria should be based on known patterns of normal and abnormal activity, including lessons learned from past incidents.
+· Known false positives should be considered when setting the criteria, to avoid unnecessary reporting.
+· When an event meets the defined criteria, it should be treated as an incident and reported according to the organisation’s procedures.
+· Where appropriate and feasible, systems should be configured to support this process by generating alerts when incident criteria are met. This can help detect incidents more quickly, especially in larger or more complex environments.</t>
   </si>
 </sst>
 </file>
@@ -4852,7 +5369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4945,6 +5462,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5020,6 +5540,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5030,6 +5553,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5517,11 +6053,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="173" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7700,7 +8236,7 @@
       <c r="D126" t="s">
         <v>256</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F126" s="35" t="s">
         <v>407</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -7858,7 +8394,7 @@
       <c r="D136" t="s">
         <v>249</v>
       </c>
-      <c r="F136" s="36" t="s">
+      <c r="F136" s="37" t="s">
         <v>428</v>
       </c>
       <c r="G136" s="2" t="s">
@@ -7878,7 +8414,7 @@
       <c r="D137" t="s">
         <v>249</v>
       </c>
-      <c r="F137" s="35" t="s">
+      <c r="F137" s="36" t="s">
         <v>430</v>
       </c>
       <c r="G137" s="2" t="s">
@@ -7898,7 +8434,7 @@
       <c r="D138" t="s">
         <v>259</v>
       </c>
-      <c r="F138" s="35" t="s">
+      <c r="F138" s="36" t="s">
         <v>432</v>
       </c>
       <c r="G138" s="2" t="s">
@@ -7918,7 +8454,7 @@
       <c r="D139" t="s">
         <v>249</v>
       </c>
-      <c r="F139" s="35" t="s">
+      <c r="F139" s="36" t="s">
         <v>434</v>
       </c>
       <c r="G139" s="2" t="s">
@@ -7938,7 +8474,7 @@
       <c r="D140" t="s">
         <v>249</v>
       </c>
-      <c r="F140" s="35" t="s">
+      <c r="F140" s="36" t="s">
         <v>436</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -7958,7 +8494,7 @@
       <c r="D141" t="s">
         <v>249</v>
       </c>
-      <c r="F141" s="35" t="s">
+      <c r="F141" s="36" t="s">
         <v>439</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -8032,7 +8568,7 @@
       <c r="C145" t="s">
         <v>442</v>
       </c>
-      <c r="F145" s="35" t="s">
+      <c r="F145" s="36" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8049,7 +8585,7 @@
       <c r="D146" t="s">
         <v>259</v>
       </c>
-      <c r="F146" s="35" t="s">
+      <c r="F146" s="36" t="s">
         <v>440</v>
       </c>
       <c r="G146" s="2" t="s">
@@ -8239,7 +8775,7 @@
       <c r="D157" t="s">
         <v>249</v>
       </c>
-      <c r="F157" s="37" t="s">
+      <c r="F157" s="38" t="s">
         <v>481</v>
       </c>
       <c r="G157" s="2" t="s">
@@ -8259,7 +8795,7 @@
       <c r="D158" t="s">
         <v>239</v>
       </c>
-      <c r="F158" s="38" t="s">
+      <c r="F158" s="39" t="s">
         <v>624</v>
       </c>
       <c r="G158" s="2" t="s">
@@ -8273,7 +8809,7 @@
       <c r="C159" t="s">
         <v>584</v>
       </c>
-      <c r="F159" s="38" t="s">
+      <c r="F159" s="39" t="s">
         <v>597</v>
       </c>
     </row>
@@ -8290,7 +8826,7 @@
       <c r="D160" t="s">
         <v>250</v>
       </c>
-      <c r="F160" s="38" t="s">
+      <c r="F160" s="39" t="s">
         <v>483</v>
       </c>
       <c r="G160" s="2" t="s">
@@ -8310,7 +8846,7 @@
       <c r="D161" t="s">
         <v>322</v>
       </c>
-      <c r="F161" s="39" t="s">
+      <c r="F161" s="40" t="s">
         <v>487</v>
       </c>
       <c r="G161" s="2" t="s">
@@ -8330,7 +8866,7 @@
       <c r="D162" t="s">
         <v>582</v>
       </c>
-      <c r="F162" s="40" t="s">
+      <c r="F162" s="41" t="s">
         <v>488</v>
       </c>
       <c r="G162" s="2" t="s">
@@ -8350,14 +8886,14 @@
       <c r="D163" t="s">
         <v>239</v>
       </c>
-      <c r="F163" s="61" t="s">
+      <c r="F163" s="63" t="s">
         <v>631</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="288" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>126</v>
       </c>
@@ -8370,25 +8906,27 @@
       <c r="D164" t="s">
         <v>239</v>
       </c>
-      <c r="F164" s="61" t="s">
+      <c r="F164" s="63" t="s">
         <v>632</v>
       </c>
-      <c r="G164" s="2"/>
+      <c r="G164" s="2" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165" t="s">
         <v>635</v>
       </c>
-      <c r="F165" s="61" t="s">
+      <c r="F165" s="63" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="288" x14ac:dyDescent="0.2">
       <c r="B166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C166" t="s">
         <v>636</v>
@@ -8396,7 +8934,7 @@
       <c r="D166" t="s">
         <v>239</v>
       </c>
-      <c r="F166" s="61" t="s">
+      <c r="F166" s="63" t="s">
         <v>634</v>
       </c>
       <c r="G166" s="2" t="s">
@@ -8410,7 +8948,7 @@
       <c r="C167" t="s">
         <v>583</v>
       </c>
-      <c r="F167" s="61" t="s">
+      <c r="F167" s="63" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8427,7 +8965,7 @@
       <c r="D168" t="s">
         <v>322</v>
       </c>
-      <c r="F168" s="41" t="s">
+      <c r="F168" s="42" t="s">
         <v>489</v>
       </c>
       <c r="G168" s="2" t="s">
@@ -8447,7 +8985,7 @@
       <c r="D169" t="s">
         <v>322</v>
       </c>
-      <c r="F169" s="39" t="s">
+      <c r="F169" s="40" t="s">
         <v>491</v>
       </c>
       <c r="G169" s="2" t="s">
@@ -8467,7 +9005,7 @@
       <c r="D170" t="s">
         <v>322</v>
       </c>
-      <c r="F170" s="42" t="s">
+      <c r="F170" s="43" t="s">
         <v>498</v>
       </c>
       <c r="G170" s="2" t="s">
@@ -8487,7 +9025,7 @@
       <c r="D171" t="s">
         <v>322</v>
       </c>
-      <c r="F171" s="40" t="s">
+      <c r="F171" s="41" t="s">
         <v>499</v>
       </c>
       <c r="G171" s="2" t="s">
@@ -8507,7 +9045,7 @@
       <c r="D172" t="s">
         <v>249</v>
       </c>
-      <c r="F172" s="36" t="s">
+      <c r="F172" s="37" t="s">
         <v>500</v>
       </c>
       <c r="G172" s="2" t="s">
@@ -8547,7 +9085,7 @@
       <c r="D174" t="s">
         <v>249</v>
       </c>
-      <c r="F174" s="43" t="s">
+      <c r="F174" s="44" t="s">
         <v>502</v>
       </c>
       <c r="G174" s="2" t="s">
@@ -8567,7 +9105,7 @@
       <c r="D175" t="s">
         <v>239</v>
       </c>
-      <c r="F175" s="59" t="s">
+      <c r="F175" s="61" t="s">
         <v>646</v>
       </c>
       <c r="G175" s="2" t="s">
@@ -8587,7 +9125,7 @@
       <c r="D176" t="s">
         <v>239</v>
       </c>
-      <c r="F176" s="59" t="s">
+      <c r="F176" s="61" t="s">
         <v>649</v>
       </c>
       <c r="G176" s="2" t="s">
@@ -8601,7 +9139,7 @@
       <c r="C177" t="s">
         <v>585</v>
       </c>
-      <c r="F177" s="59" t="s">
+      <c r="F177" s="61" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8638,7 +9176,7 @@
       <c r="D179" t="s">
         <v>249</v>
       </c>
-      <c r="F179" s="44" t="s">
+      <c r="F179" s="45" t="s">
         <v>506</v>
       </c>
       <c r="G179" s="2" t="s">
@@ -8658,7 +9196,7 @@
       <c r="D180" t="s">
         <v>239</v>
       </c>
-      <c r="F180" s="60" t="s">
+      <c r="F180" s="62" t="s">
         <v>655</v>
       </c>
       <c r="G180" s="2" t="s">
@@ -8678,7 +9216,7 @@
       <c r="D181" t="s">
         <v>239</v>
       </c>
-      <c r="F181" s="60" t="s">
+      <c r="F181" s="62" t="s">
         <v>657</v>
       </c>
       <c r="G181" s="2" t="s">
@@ -8695,7 +9233,7 @@
       <c r="E182" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F182" s="60" t="s">
+      <c r="F182" s="62" t="s">
         <v>592</v>
       </c>
     </row>
@@ -8706,7 +9244,7 @@
       <c r="C183" t="s">
         <v>566</v>
       </c>
-      <c r="F183" s="60" t="s">
+      <c r="F183" s="62" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8723,7 +9261,7 @@
       <c r="D184" t="s">
         <v>250</v>
       </c>
-      <c r="F184" s="45" t="s">
+      <c r="F184" s="46" t="s">
         <v>507</v>
       </c>
       <c r="G184" s="2" t="s">
@@ -8743,7 +9281,7 @@
       <c r="D185" t="s">
         <v>249</v>
       </c>
-      <c r="F185" s="57" t="s">
+      <c r="F185" s="58" t="s">
         <v>512</v>
       </c>
       <c r="G185" s="2" t="s">
@@ -8763,7 +9301,7 @@
       <c r="D186" t="s">
         <v>249</v>
       </c>
-      <c r="F186" s="56" t="s">
+      <c r="F186" s="57" t="s">
         <v>511</v>
       </c>
       <c r="G186" s="2" t="s">
@@ -8871,7 +9409,7 @@
       <c r="E192" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F192" s="35" t="s">
+      <c r="F192" s="36" t="s">
         <v>591</v>
       </c>
     </row>
@@ -8882,7 +9420,7 @@
       <c r="C193" t="s">
         <v>568</v>
       </c>
-      <c r="F193" s="35" t="s">
+      <c r="F193" s="36" t="s">
         <v>602</v>
       </c>
     </row>
@@ -8899,7 +9437,7 @@
       <c r="D194" t="s">
         <v>249</v>
       </c>
-      <c r="F194" s="46" t="s">
+      <c r="F194" s="47" t="s">
         <v>519</v>
       </c>
       <c r="G194" s="2" t="s">
@@ -8999,7 +9537,7 @@
       <c r="D199" t="s">
         <v>239</v>
       </c>
-      <c r="F199" s="62" t="s">
+      <c r="F199" s="64" t="s">
         <v>678</v>
       </c>
       <c r="G199" s="2" t="s">
@@ -9019,7 +9557,7 @@
       <c r="D200" t="s">
         <v>250</v>
       </c>
-      <c r="F200" s="47" t="s">
+      <c r="F200" s="48" t="s">
         <v>525</v>
       </c>
       <c r="G200" s="2" t="s">
@@ -9028,12 +9566,12 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
         <v>681</v>
       </c>
-      <c r="F201" s="35" t="s">
+      <c r="F201" s="36" t="s">
         <v>682</v>
       </c>
     </row>
@@ -9050,7 +9588,7 @@
       <c r="D202" t="s">
         <v>258</v>
       </c>
-      <c r="F202" s="35" t="s">
+      <c r="F202" s="36" t="s">
         <v>684</v>
       </c>
       <c r="G202" s="2" t="s">
@@ -9070,7 +9608,7 @@
       <c r="D203" t="s">
         <v>239</v>
       </c>
-      <c r="F203" s="35" t="s">
+      <c r="F203" s="36" t="s">
         <v>686</v>
       </c>
       <c r="G203" s="2" t="s">
@@ -9084,7 +9622,7 @@
       <c r="C204" t="s">
         <v>689</v>
       </c>
-      <c r="F204" s="35" t="s">
+      <c r="F204" s="36" t="s">
         <v>690</v>
       </c>
       <c r="G204" s="2"/>
@@ -9099,7 +9637,10 @@
       <c r="C205" t="s">
         <v>691</v>
       </c>
-      <c r="F205" s="35" t="s">
+      <c r="D205" t="s">
+        <v>239</v>
+      </c>
+      <c r="F205" s="36" t="s">
         <v>692</v>
       </c>
       <c r="G205" s="2" t="s">
@@ -9113,7 +9654,7 @@
       <c r="C206" t="s">
         <v>569</v>
       </c>
-      <c r="F206" s="35" t="s">
+      <c r="F206" s="36" t="s">
         <v>603</v>
       </c>
     </row>
@@ -9130,7 +9671,7 @@
       <c r="D207" t="s">
         <v>322</v>
       </c>
-      <c r="F207" s="48" t="s">
+      <c r="F207" s="49" t="s">
         <v>527</v>
       </c>
       <c r="G207" s="2" t="s">
@@ -9150,7 +9691,7 @@
       <c r="D208" t="s">
         <v>249</v>
       </c>
-      <c r="F208" s="49" t="s">
+      <c r="F208" s="50" t="s">
         <v>531</v>
       </c>
       <c r="G208" s="2" t="s">
@@ -9170,7 +9711,7 @@
       <c r="D209" t="s">
         <v>249</v>
       </c>
-      <c r="F209" s="50" t="s">
+      <c r="F209" s="51" t="s">
         <v>532</v>
       </c>
       <c r="G209" s="2" t="s">
@@ -9190,7 +9731,7 @@
       <c r="D210" t="s">
         <v>239</v>
       </c>
-      <c r="F210" s="53" t="s">
+      <c r="F210" s="54" t="s">
         <v>698</v>
       </c>
       <c r="G210" s="2" t="s">
@@ -9210,7 +9751,7 @@
       <c r="D211" t="s">
         <v>239</v>
       </c>
-      <c r="F211" s="53" t="s">
+      <c r="F211" s="54" t="s">
         <v>701</v>
       </c>
       <c r="G211" s="2" t="s">
@@ -9227,7 +9768,7 @@
       <c r="E212" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="F212" s="53" t="s">
+      <c r="F212" s="54" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9238,7 +9779,7 @@
       <c r="C213" t="s">
         <v>570</v>
       </c>
-      <c r="F213" s="53" t="s">
+      <c r="F213" s="54" t="s">
         <v>604</v>
       </c>
     </row>
@@ -9275,7 +9816,7 @@
       <c r="D215" t="s">
         <v>239</v>
       </c>
-      <c r="F215" s="61" t="s">
+      <c r="F215" s="63" t="s">
         <v>708</v>
       </c>
       <c r="G215" s="2" t="s">
@@ -9349,7 +9890,7 @@
       <c r="C219" t="s">
         <v>573</v>
       </c>
-      <c r="F219" s="61" t="s">
+      <c r="F219" s="63" t="s">
         <v>605</v>
       </c>
     </row>
@@ -9366,7 +9907,7 @@
       <c r="D220" t="s">
         <v>249</v>
       </c>
-      <c r="F220" s="51" t="s">
+      <c r="F220" s="52" t="s">
         <v>535</v>
       </c>
       <c r="G220" s="2" t="s">
@@ -9380,7 +9921,7 @@
       <c r="C221" t="s">
         <v>574</v>
       </c>
-      <c r="F221" s="51" t="s">
+      <c r="F221" s="52" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9397,7 +9938,7 @@
       <c r="D222" t="s">
         <v>249</v>
       </c>
-      <c r="F222" s="51" t="s">
+      <c r="F222" s="52" t="s">
         <v>537</v>
       </c>
       <c r="G222" s="2" t="s">
@@ -9411,7 +9952,7 @@
       <c r="C223" t="s">
         <v>575</v>
       </c>
-      <c r="F223" s="54" t="s">
+      <c r="F223" s="55" t="s">
         <v>607</v>
       </c>
     </row>
@@ -9428,7 +9969,7 @@
       <c r="D224" t="s">
         <v>322</v>
       </c>
-      <c r="F224" s="58" t="s">
+      <c r="F224" s="59" t="s">
         <v>539</v>
       </c>
       <c r="G224" s="2" t="s">
@@ -9448,7 +9989,7 @@
       <c r="D225" t="s">
         <v>249</v>
       </c>
-      <c r="F225" s="52" t="s">
+      <c r="F225" s="53" t="s">
         <v>544</v>
       </c>
       <c r="G225" s="2" t="s">
@@ -9468,7 +10009,7 @@
       <c r="D226" t="s">
         <v>249</v>
       </c>
-      <c r="F226" s="53" t="s">
+      <c r="F226" s="54" t="s">
         <v>543</v>
       </c>
       <c r="G226" s="2" t="s">
@@ -9522,7 +10063,7 @@
       <c r="C229" t="s">
         <v>576</v>
       </c>
-      <c r="F229" s="49" t="s">
+      <c r="F229" s="50" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9539,7 +10080,7 @@
       <c r="D230" t="s">
         <v>250</v>
       </c>
-      <c r="F230" s="54" t="s">
+      <c r="F230" s="55" t="s">
         <v>545</v>
       </c>
       <c r="G230" s="2" t="s">
@@ -9559,7 +10100,7 @@
       <c r="D231" t="s">
         <v>249</v>
       </c>
-      <c r="F231" s="50" t="s">
+      <c r="F231" s="51" t="s">
         <v>548</v>
       </c>
       <c r="G231" s="2" t="s">
@@ -9573,7 +10114,7 @@
       <c r="C232" t="s">
         <v>577</v>
       </c>
-      <c r="F232" s="49" t="s">
+      <c r="F232" s="50" t="s">
         <v>609</v>
       </c>
     </row>
@@ -9590,7 +10131,7 @@
       <c r="D233" t="s">
         <v>249</v>
       </c>
-      <c r="F233" s="54" t="s">
+      <c r="F233" s="55" t="s">
         <v>549</v>
       </c>
       <c r="G233" s="2" t="s">
@@ -9610,7 +10151,7 @@
       <c r="D234" t="s">
         <v>249</v>
       </c>
-      <c r="F234" s="50" t="s">
+      <c r="F234" s="51" t="s">
         <v>551</v>
       </c>
       <c r="G234" s="2" t="s">
@@ -9630,7 +10171,7 @@
       <c r="D235" t="s">
         <v>239</v>
       </c>
-      <c r="F235" s="49" t="s">
+      <c r="F235" s="50" t="s">
         <v>733</v>
       </c>
       <c r="G235" s="2" t="s">
@@ -9667,7 +10208,7 @@
       <c r="E237" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="F237" s="49" t="s">
+      <c r="F237" s="50" t="s">
         <v>587</v>
       </c>
     </row>
@@ -9678,7 +10219,7 @@
       <c r="C238" t="s">
         <v>578</v>
       </c>
-      <c r="F238" s="49" t="s">
+      <c r="F238" s="50" t="s">
         <v>610</v>
       </c>
     </row>
@@ -9695,7 +10236,7 @@
       <c r="D239" t="s">
         <v>322</v>
       </c>
-      <c r="F239" s="48" t="s">
+      <c r="F239" s="49" t="s">
         <v>553</v>
       </c>
       <c r="G239" s="2" t="s">
@@ -9715,7 +10256,7 @@
       <c r="D240" t="s">
         <v>322</v>
       </c>
-      <c r="F240" s="55" t="s">
+      <c r="F240" s="56" t="s">
         <v>555</v>
       </c>
       <c r="G240" s="2" t="s">
@@ -9735,7 +10276,7 @@
       <c r="D241" t="s">
         <v>582</v>
       </c>
-      <c r="F241" s="39" t="s">
+      <c r="F241" s="40" t="s">
         <v>559</v>
       </c>
       <c r="G241" s="2" t="s">
@@ -9755,7 +10296,7 @@
       <c r="D242" t="s">
         <v>582</v>
       </c>
-      <c r="F242" s="40" t="s">
+      <c r="F242" s="41" t="s">
         <v>560</v>
       </c>
       <c r="G242" s="2" t="s">
@@ -9869,7 +10410,7 @@
       <c r="C248" t="s">
         <v>580</v>
       </c>
-      <c r="F248" s="61" t="s">
+      <c r="F248" s="63" t="s">
         <v>611</v>
       </c>
     </row>
@@ -9886,7 +10427,7 @@
       <c r="D249" t="s">
         <v>249</v>
       </c>
-      <c r="F249" s="51" t="s">
+      <c r="F249" s="52" t="s">
         <v>561</v>
       </c>
       <c r="G249" s="2" t="s">
@@ -9906,21 +10447,23 @@
       <c r="D250" t="s">
         <v>239</v>
       </c>
-      <c r="F250" s="51" t="s">
+      <c r="F250" s="52" t="s">
         <v>758</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B251">
         <v>3</v>
       </c>
       <c r="C251" t="s">
         <v>760</v>
       </c>
-      <c r="F251" s="51"/>
+      <c r="F251" s="52" t="s">
+        <v>765</v>
+      </c>
       <c r="G251" s="2"/>
     </row>
     <row r="252" spans="1:7" ht="380" x14ac:dyDescent="0.2">
@@ -9950,7 +10493,7 @@
       <c r="C253" t="s">
         <v>581</v>
       </c>
-      <c r="F253" s="51" t="s">
+      <c r="F253" s="52" t="s">
         <v>612</v>
       </c>
     </row>
@@ -9967,15 +10510,607 @@
       <c r="D254" t="s">
         <v>249</v>
       </c>
-      <c r="F254" s="51" t="s">
+      <c r="F254" s="52" t="s">
         <v>563</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>764</v>
       </c>
     </row>
+    <row r="255" spans="1:7" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B255" s="11">
+        <v>1</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="F255" s="13"/>
+      <c r="G255" s="14"/>
+    </row>
+    <row r="256" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="C256" t="s">
+        <v>769</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" s="34" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>126</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>771</v>
+      </c>
+      <c r="D258" t="s">
+        <v>250</v>
+      </c>
+      <c r="F258" s="39" t="s">
+        <v>820</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>126</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>775</v>
+      </c>
+      <c r="D259" t="s">
+        <v>322</v>
+      </c>
+      <c r="F259" s="65" t="s">
+        <v>821</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>126</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>776</v>
+      </c>
+      <c r="D260" t="s">
+        <v>582</v>
+      </c>
+      <c r="F260" s="60" t="s">
+        <v>822</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>126</v>
+      </c>
+      <c r="B261">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>826</v>
+      </c>
+      <c r="D261" t="s">
+        <v>239</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>778</v>
+      </c>
+      <c r="F262" s="33" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>126</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>780</v>
+      </c>
+      <c r="D263" t="s">
+        <v>249</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>126</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>830</v>
+      </c>
+      <c r="D264" t="s">
+        <v>239</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>782</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>126</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>784</v>
+      </c>
+      <c r="D266" t="s">
+        <v>250</v>
+      </c>
+      <c r="F266" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>126</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>785</v>
+      </c>
+      <c r="D267" t="s">
+        <v>249</v>
+      </c>
+      <c r="F267" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>788</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>126</v>
+      </c>
+      <c r="B269" s="68">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>790</v>
+      </c>
+      <c r="D269" t="s">
+        <v>249</v>
+      </c>
+      <c r="F269" s="37" t="s">
+        <v>789</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="256" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>126</v>
+      </c>
+      <c r="B270" s="68">
+        <v>4</v>
+      </c>
+      <c r="C270" t="s">
+        <v>791</v>
+      </c>
+      <c r="D270" t="s">
+        <v>249</v>
+      </c>
+      <c r="F270" s="67" t="s">
+        <v>792</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
+        <v>794</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>126</v>
+      </c>
+      <c r="B272">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>796</v>
+      </c>
+      <c r="D272" t="s">
+        <v>249</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>126</v>
+      </c>
+      <c r="B273">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>838</v>
+      </c>
+      <c r="D273" t="s">
+        <v>239</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>126</v>
+      </c>
+      <c r="B274">
+        <v>4</v>
+      </c>
+      <c r="C274" t="s">
+        <v>839</v>
+      </c>
+      <c r="D274" t="s">
+        <v>239</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="256" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>126</v>
+      </c>
+      <c r="B275">
+        <v>4</v>
+      </c>
+      <c r="C275" t="s">
+        <v>840</v>
+      </c>
+      <c r="D275" t="s">
+        <v>239</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>799</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>801</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>126</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>803</v>
+      </c>
+      <c r="D278" t="s">
+        <v>249</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>126</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>849</v>
+      </c>
+      <c r="D279" t="s">
+        <v>239</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>805</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>126</v>
+      </c>
+      <c r="B281">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>807</v>
+      </c>
+      <c r="D281" t="s">
+        <v>322</v>
+      </c>
+      <c r="F281" s="59" t="s">
+        <v>806</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>126</v>
+      </c>
+      <c r="B282">
+        <v>4</v>
+      </c>
+      <c r="C282" t="s">
+        <v>808</v>
+      </c>
+      <c r="D282" t="s">
+        <v>249</v>
+      </c>
+      <c r="F282" s="67" t="s">
+        <v>809</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>126</v>
+      </c>
+      <c r="B283">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>853</v>
+      </c>
+      <c r="D283" t="s">
+        <v>239</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>817</v>
+      </c>
+      <c r="F284" s="69" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>126</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>857</v>
+      </c>
+      <c r="D285" t="s">
+        <v>256</v>
+      </c>
+      <c r="F285" s="69" t="s">
+        <v>858</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>810</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="256" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>126</v>
+      </c>
+      <c r="B287">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>811</v>
+      </c>
+      <c r="D287" t="s">
+        <v>249</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>814</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>126</v>
+      </c>
+      <c r="B289">
+        <v>4</v>
+      </c>
+      <c r="C289" t="s">
+        <v>816</v>
+      </c>
+      <c r="D289" t="s">
+        <v>249</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G254" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G289" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tools/excel/ccb/cyfun2025.xlsx
+++ b/tools/excel/ccb/cyfun2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD36B3-611A-DA48-AE1D-313BA62BA1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C77A99-4EB4-584B-A9DE-FE29AA3BC953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="-28180" windowWidth="51200" windowHeight="26920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="scores_content" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">requirements_content!$A$1:$G$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">requirements_content!$A$1:$G$335</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="981">
   <si>
     <t>GV.OC-01.1</t>
   </si>
@@ -5143,6 +5143,582 @@
 · Known false positives should be considered when setting the criteria, to avoid unnecessary reporting.
 · When an event meets the defined criteria, it should be treated as an incident and reported according to the organisation’s procedures.
 · Where appropriate and feasible, systems should be configured to support this process by generating alerts when incident criteria are met. This can help detect incidents more quickly, especially in larger or more complex environments.</t>
+  </si>
+  <si>
+    <t>RESPOND</t>
+  </si>
+  <si>
+    <t>Responses to detected cybersecurity incidents are managed.</t>
+  </si>
+  <si>
+    <t>Incident Management</t>
+  </si>
+  <si>
+    <t>RS.MA</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>The incident response plan is executed in coordination with relevant third parties once an incident is declared.</t>
+  </si>
+  <si>
+    <t>RS.MA-01</t>
+  </si>
+  <si>
+    <t>An incident response plan, including defined roles, responsibilities, and authorities, shall be executed during or after a cybersecurity event affecting the organisation's critical systems.</t>
+  </si>
+  <si>
+    <t>RS.MA-01.1</t>
+  </si>
+  <si>
+    <t>RS.MA-01.2</t>
+  </si>
+  <si>
+    <t>The organisation shall coordinate information/cybersecurity incident response actions with all predefined stakeholders.</t>
+  </si>
+  <si>
+    <t>Incident reports are triaged and validated.</t>
+  </si>
+  <si>
+    <t>RS.MA-02</t>
+  </si>
+  <si>
+    <t>Information/cybersecurity incident reports shall be triaged and validated in accordance with the organisation’s incident response procedures.</t>
+  </si>
+  <si>
+    <t>RS.MA-02.1</t>
+  </si>
+  <si>
+    <t>Incidents are categorised and prioritised.</t>
+  </si>
+  <si>
+    <t>RS.MA-03</t>
+  </si>
+  <si>
+    <t>RS.MA-03.1</t>
+  </si>
+  <si>
+    <t>The criteria for initiating incident recovery are applied.</t>
+  </si>
+  <si>
+    <t>RS.MA-05</t>
+  </si>
+  <si>
+    <t>Clear criteria shall be defined and applied to determine when incident recovery processes need to be initiated.</t>
+  </si>
+  <si>
+    <t>RS.MA-05.1</t>
+  </si>
+  <si>
+    <t>Response activities are coordinated with internal and external stakeholders as required by laws, regulations, or policies.</t>
+  </si>
+  <si>
+    <t>Incident Response Reporting and Communication</t>
+  </si>
+  <si>
+    <t>RS.CO</t>
+  </si>
+  <si>
+    <t>Internal and external stakeholders are notified of incidents.</t>
+  </si>
+  <si>
+    <t>RS.CO-02</t>
+  </si>
+  <si>
+    <t>Information about cybersecurity incidents shall be communicated to employees in a way that is clear and easy to understand.</t>
+  </si>
+  <si>
+    <t>RS.CO-02.1</t>
+  </si>
+  <si>
+    <t>RS.CO-02.2</t>
+  </si>
+  <si>
+    <t>Cybersecurity incidents shall be shared with relevant external stakeholders within the timeframes defined in the Incident Response Plan, including reporting significant incidents to authorities as required by law.</t>
+  </si>
+  <si>
+    <t>Activities are performed to prevent expansion of an event and mitigate its effects.</t>
+  </si>
+  <si>
+    <t>Incident Mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RS.MI</t>
+  </si>
+  <si>
+    <t>Incidents are contained.</t>
+  </si>
+  <si>
+    <t>RS.MI-01</t>
+  </si>
+  <si>
+    <t>Cybersecurity incidents shall be contained and eliminated. Any decision to accept and retain certain cybersecurity risks shall be formally documented.</t>
+  </si>
+  <si>
+    <t>RS.MI-01.1</t>
+  </si>
+  <si>
+    <t>RS.MI-01.2</t>
+  </si>
+  <si>
+    <t>The organisation shall detect unauthorised access or data leakage and take appropriate mitigation actions, including monitoring of critical systems at external boundaries and key internal points.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that a well-defined incident response plan is executed during or after a cybersecurity event affecting the organisation’s critical systems, enabling timely detection, containment, communication, and recovery.
+To support this goal, the organisation should:
+· Develop a Documented Response Plan
+    The plan should include predefined instructions and procedures to detect cybersecurity incidents, respond effectively, and support the recovery of critical systems.
+· Include Detection Capabilities
+    Detection technologies should be in place to automatically report confirmed incidents and trigger response actions.
+· Define Roles, Responsibilities, and Authorities
+    The plan should clearly identify:
+    · Who is involved in the response
+    · Contact details for key personnel
+    · Who has the authority to initiate recovery
+    · Who is responsible for external communication (e.g. regulators, partners, media)
+· Review and Update the Plan Regularly
+    The plan should be reviewed and updated to reflect changes in the threat landscape, organisational structure, or lessons learned from past incidents.
+· Test the Plan Through Exercises
+    Simulations and tabletop exercises should be conducted to validate the plan’s effectiveness and identify areas for improvement.
+· Include OT Environments
+    The plan should address incident response in OT systems, including coordination with safety protocols, isolation of affected industrial assets, and restoration of operational processes.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all relevant internal and external stakeholders work together effectively during a cybersecurity or information incident.
+To achieve this goal:
+· Incident response actions should be coordinated with predefined stakeholders, including business leaders, IT and OT system owners, cybersecurity teams, vendors, HR, legal, physical security, operations, and procurement.
+· Coordination should follow the organisation’s documented incident response plans.
+· A lead person should be assigned to each incident to manage the response and ensure clear communication.
+· If needed, additional plans, such as business continuity or disaster recovery, should be activated to support the response.
+· Information should be shared with the right people at the right time, following established communication procedures.
+· Different types of incidents should be recognised and handled accordingly:
+    · Information incidents (e.g. accidental data exposure)
+    · Cybersecurity incidents (e.g. malware, hacking)
+    · OT incidents (e.g. disruptions to industrial control systems)
+· OT incidents should involve specialised OT personnel and may require different response procedures to protect safety and operations.</t>
+  </si>
+  <si>
+    <t>RS.MA-02.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automated tools shall be used to support the investigation and impact assessment of validated cybersecurity incidents.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all reported incidents are systematically reviewed and assessed before any further action is taken.
+This control is a foundational step in the incident response process and the following should be considered:
+· Filter out irrelevant or false reports
+    Not every report received is a real incident. This control ensures that only legitimate, cybersecurity-relevant incidents are acted upon.
+· Ensure timely and appropriate response
+    By triaging and validating reports early, organisations can prioritise real threats and avoid wasting resources on non-issues.
+· Support consistent decision-making
+    Applying structured triage and validation criteria helps ensure that incident response is consistent, repeatable, and aligned with organisational policies.
+· Enable effective escalation and categorisation
+    Validation is a prerequisite for categorising and escalating incidents (as required in RS.MA-03.1). Without it, the response process could be misdirected or delayed.
+· Improve situational awareness
+    Early validation helps build a clearer picture of the threat landscape and supports better coordination across teams.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that organisations are equipped with the technical capabilities to efficiently and accurately handle cybersecurity incidents once they have been validated.
+To implement this control, the following should be considered:
+· Automated tools should help collect, analyse, and correlate incident data to support timely and accurate investigation.
+· These tools should assist in identifying the scope, severity, and potential impact of incidents that have been validated through triage. A validated incident is one that has been confirmed to be cybersecurity-related (not a false alarm or unrelated technical issue, meets predefined severity criteria (such as indicators of compromise, threat intelligence, or known attack patterns), and requires response actions (meaning it meets the threshold for further investigation, categorisation, and escalation).
+· The following types of tools can be considered to support these activities:
+· Security Information and Event Management (SIEM) systems for centralised log collection and analysis.
+· Extended Detection and Response (XDR) platforms for integrated threat detection across endpoints, networks, and servers.
+· Security Orchestration, Automation and Response (SOAR) platforms to automate workflows and coordinate response actions.
+· Threat Intelligence Platforms to enrich incident data with external threat context.
+· Network Intrusion Detection Systems (NIDS) to monitor and alert on suspicious network activity.
+· Computer Incident Response Centres (CIRCs) for centralised coordination and expert analysis.
+· Automated mechanisms should be integrated with the incident response process to ensure that validated incidents are investigated efficiently and prioritised appropriately, in line with the organisation’s incident response plan.</t>
+  </si>
+  <si>
+    <t>Information/cybersecurity incidents shall be categorised, prioritised and escalated as specified in the incident response plan.</t>
+  </si>
+  <si>
+    <t>This control is an evolution of RS.MA-02.1 and is to ensure that once an incident is validated, it is systematically classified and managed based on its nature, urgency, and potential impact, so that the organisation can respond efficiently, consistently, and appropriately.
+Therefore the following should be considered:
+· Incidents should be reviewed and classified based on their type (e.g. data breach, ransomware, DDoS, account compromise) and the validated magnitude of their impact.
+· The estimation and validation of an incident’s magnitude — further developed in RS.AN-08.1 (Essential), should inform how incidents are categorised and prioritised.
+· Indicators such as scope, severity, and time sensitivity should guide prioritisation decisions.
+· Software Bills of Materials (SBOM) can support impact assessment by identifying affected components and dependencies.
+· Criteria for categorisation, prioritisation, and escalation should be documented in the incident response plan and applied consistently.
+· Incident response strategies should balance the need for rapid recovery with the potential benefits of observing attacker behaviour or conducting deeper investigation.
+· Escalation procedures should be coordinated with designated internal and external stakeholders to ensure timely and appropriate response.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that organisations have a clear, consistent, and risk-informed decision-making process for determining when to begin recovery actions following a cybersecurity incident.
+Therefore the following should be considered:
+· Criteria for initiating incident recovery should be based on the known or assumed characteristics of the incident, such as its severity, scope, and potential impact on operations, data, or systems.
+· The decision to begin recovery should also consider the potential disruption that recovery activities may cause to ongoing operations.
+· Recovery Point Objectives (RPO) and Recovery Time Objectives (RTO) should be included in the criteria to ensure that recovery actions align with business continuity requirements and acceptable downtime or data loss thresholds.</t>
+  </si>
+  <si>
+    <t>RS.AN</t>
+  </si>
+  <si>
+    <t>Incident Analysis</t>
+  </si>
+  <si>
+    <t>Investigations are conducted to ensure effective response and support forensics and recovery activities</t>
+  </si>
+  <si>
+    <t>Analysis is performed to establish what has taken place during an incident and the root cause of the incident</t>
+  </si>
+  <si>
+    <t>RS.AN-03</t>
+  </si>
+  <si>
+    <t>Each incident shall be analysed to determine what occurred and to identify its
+root cause.</t>
+  </si>
+  <si>
+    <t>RS.AN-03.1</t>
+  </si>
+  <si>
+    <t>The goal of this control is to understand the full scope of a cybersecurity incident and identify its root cause, enabling effective response and prevention of similar future events.
+To achieve this goal, the organisation should consider the following:
+· The sequence of events during the incident should be reconstructed, identifying which systems, assets, and resources were involved.
+· Vulnerabilities, threats, and threat actors linked to the incident should be identified, whether directly or indirectly involved.
+· Forensic analysis should be used when necessary to examine collected data and determine the root cause.
+· The analysis should focus on identifying underlying, systemic causes, not just immediate triggers.
+· Cyber deception technologies should be reviewed for additional insights into attacker behaviour.</t>
+  </si>
+  <si>
+    <t>RS.AN-06</t>
+  </si>
+  <si>
+    <t>Actions performed during an investigation are recorded, and the records’ integrity and provenance are preserved</t>
+  </si>
+  <si>
+    <t>RS.AN-06.1</t>
+  </si>
+  <si>
+    <t>Actions performed during an investigation shall be recorded, and the records' integrity and provenance shall be preserved.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all actions taken during an incident investigation are properly recorded, and that the integrity and origin of those records are protected.
+To achieve this goal, the organisation should:
+· Require all personnel involved in incident response (e.g., responders, system administrators, engineers) to log their actions in a way that prevents tampering or deletion.
+· Assign responsibility to the incident lead for documenting the full investigation, including timelines, decisions, and sources of information.
+· Ensure that all records are stored securely and remain traceable to their original source.</t>
+  </si>
+  <si>
+    <t>RS.AN-07</t>
+  </si>
+  <si>
+    <t>Incident data and metadata are collected, and their integrity and provenance are preserved</t>
+  </si>
+  <si>
+    <t>Incident data and metadata should be collected and protected to ensure their accuracy, authenticity, and traceability.</t>
+  </si>
+  <si>
+    <t>RS.AN-07.1</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all relevant information about a cybersecurity incident is accurately captured, securely stored, and reliably traceable, so it can be used effectively for response, investigation, and legal or compliance purposes.
+Therefore the following should be considered:
+· Incident data and metadata (such as the source of the data and the time it was collected) should be gathered and stored in a way that protects them from tampering or loss.
+· The integrity and origin of this information should be preserved using methods such as:
+    · Chain of custody documentation to track how the data is handled from collection to analysis.
+    · Digital signatures and encryption to prevent unauthorised access and confirm authenticity.
+    · Audit logs to record who accessed or changed the data and when.
+· Collecting and protecting this information should support:
+    · Timely response by helping to understand when and how the incident occurred.
+    · Investigation and analysis by providing reliable details about the incident’s cause, scope, and impact.
+    · Legal and compliance needs by ensuring the data can be used as evidence if required.</t>
+  </si>
+  <si>
+    <t>An incident's magnitude is estimated and validated</t>
+  </si>
+  <si>
+    <t>RS.AN-08</t>
+  </si>
+  <si>
+    <t>An incident’s magnitude shall be estimated and validated.</t>
+  </si>
+  <si>
+    <t>RS.AN-08.1</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that organisations have a clear understanding of the full scope and impact of a cybersecurity incident, so that response actions can be appropriately scaled, prioritised, and coordinated.
+Therefore the following should be considered:
+· The scope and impact of an incident should be assessed by examining not only the initially affected system but also other systems or devices that may be compromised.
+· Indicators of Compromise (IoCs), such as unusual network activity, unauthorised access attempts, or unexpected software changes, should be identified to understand how far the incident has spread.
+· Signs of persistence, including backdoors or malware that allow continued access, should be investigated to determine whether the attacker remains active in the environment.
+· Automated tools should be used to scan for IoCs and persistence mechanisms across potentially affected assets to support timely and thorough analysis.
+· The validated magnitude of the incident should inform how the incident is categorised, prioritised, and escalated, as described in RS.MA-03.1 (Important), ensuring that response actions are aligned with the actual risk and business impact.</t>
+  </si>
+  <si>
+    <t>he goal of this control is to ensure that all employees are informed about cybersecurity incidents in a timely and understandable manner, so they can respond appropriately and help reduce risks.
+To achieve this:
+· An Incident Response Plan (IRP) should be in place. This plan outlines how the organisation will respond to cybersecurity incidents, including who is responsible for what and how to escalate different types of threats.
+· The IRP should include a communication protocol that explains how to share accurate and relevant information with employees quickly and efficiently during an incident.
+· The plan should define the communication channels to be used, such as email, internal messaging platforms, phone calls, or a dedicated incident portal.
+· Templates for incident messages should be prepared in advance. These templates should include key details like the type of incident, how serious it is, which systems are affected, and what actions employees should take.
+· Messages should be written in clear, simple language that avoids technical terms, so all employees can understand what is happening and what is expected of them.
+· Senior management should receive high-level summaries that explain the impact of the incident, the risks involved, and the steps being taken to resolve it.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that all relevant external parties are informed about cybersecurity incidents in a timely, secure, and appropriate manner, helping to maintain trust and meet legal and contractual obligations.
+To achieve this:
+· Information should be shared securely and in line with the organisation’s Incident Response Plan and any information-sharing agreements.
+· Relevant stakeholders may include designated internal roles, affected customers, suppliers, third-party service providers, and business partners.
+· Customers and partners should be notified if they are affected by an incident, with clear instructions on any actions they need to take.
+· Communication with external parties should follow any contractual requirements or agreements in place.
+· Crisis communication should be coordinated with critical suppliers to ensure consistent messaging.
+· When sharing information about attackers’ tactics or techniques, any sensitive or identifying data should be removed.
+· The Human Resources department should be informed if the incident involves malicious activity by an insider.
+· Senior leadership should receive regular updates on the status of major incidents.
+· National authorities, such as the CSIRT, law enforcement, or regulators, should be notified based on the criteria defined in the IRP and with approval from senior management.
+· All reporting should comply with relevant national and EU legislation, such as the EU Implementing Regulation.
+· Public updates about incidents are addressed under a separate control (RC.CO-04.1).</t>
+  </si>
+  <si>
+    <t>The goal of this control is to stop cybersecurity incidents from spreading, remove their cause, and ensure that any accepted risks are clearly recorded and approved.
+To achieve this:
+· A formal risk acceptance process should be in place for cybersecurity risks that are considered low-impact and do not threaten critical business systems. These risks should be reviewed and approved by the responsible person or team, based on the organisation's risk tolerance.
+· Cybersecurity tools, such as antivirus software or built-in security features in operating systems and network devices, should be allowed to automatically take action to contain or remove threats when appropriate.
+· Incident response teams should be able to manually choose and carry out actions to stop and remove incidents when needed.
+· Trusted third parties, such as internet service providers or managed security service providers, should be allowed to help with containment and elimination actions if this is part of the organisation’s response plan.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to detect unauthorised access and data leakage in a timely manner and to take appropriate mitigation actions. This should help protect the confidentiality, integrity, availability, and safety of data, whether it is stored, being transmitted, or actively used, across both Information Technology (IT) and Operational Technology (OT) environments.
+To achieve this goal, the organisation should:
+· Monitor Critical Systems
+    Monitoring should be implemented at external network boundaries and key internal points to detect anomalies or unauthorised access attempts.
+· Protect Data in All States
+    Data should be protected using encryption, digital signatures, and cryptographic hashes to ensure confidentiality and integrity during storage, transmission, and use.
+· Control Outgoing Communications
+    Outbound communications containing sensitive data should be automatically blocked or encrypted based on data classification.
+· Restrict Use of Personal Services
+    Access to personal communication platforms (e.g. personal email, file-sharing services) from organisational systems should be restricted to reduce the risk of data leakage.
+· Prevent Data Reuse in Non-Production Environments
+    Sensitive production data should not be reused in development or testing environments unless properly anonymised or masked.
+· Clear Temporary Data
+    Sensitive data should be cleared from memory or temporary storage once it is no longer needed.
+· Audit Identity and Access Management
+    Systems such as Microsoft Active Directory should be regularly audited, with a focus on privileged accounts and access control consistency.
+· Ensure OT-Specific Feasibility
+    In OT environments, detection and mitigation measures should be adapted to avoid disrupting safety or operational continuity. Passive monitoring and interface-level logging may be used where direct integration is not feasible.
+· Align with ENISA Guidance
+    These practices align with ENISA’s Threat Landscape Reports and Information Leakage Guidance, which provide recommendations for detecting and mitigating data breaches and unauthorised access.</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>RECOVER</t>
+  </si>
+  <si>
+    <t>RC.RP</t>
+  </si>
+  <si>
+    <t>RC.RP-01</t>
+  </si>
+  <si>
+    <t>RC.RP-01.1</t>
+  </si>
+  <si>
+    <t>Incident Recovery Plan Execution</t>
+  </si>
+  <si>
+    <t>Restoration activities are performed to ensure operational availability of systems and services affected by cybersecurity incidents.</t>
+  </si>
+  <si>
+    <t>The recovery portion of the incident response plan is executed once initiated from the incident response process.</t>
+  </si>
+  <si>
+    <t>A recovery process for disasters and information/cybersecurity incidents shall be developed and executed.</t>
+  </si>
+  <si>
+    <t>The integrity of restored assets is verified, systems and services are restored, and normal operating status is confirmed.</t>
+  </si>
+  <si>
+    <t>RC.RP-05</t>
+  </si>
+  <si>
+    <t>The integrity of restored systems and assets shall be verified before they are returned to service. Systems and services shall be fully restored, and normal operations shall be confirmed.</t>
+  </si>
+  <si>
+    <t>RC.RP-05.1</t>
+  </si>
+  <si>
+    <t>The end of incident recovery is declared based on criteria, and incident-related documentation is completed.</t>
+  </si>
+  <si>
+    <t>RC.RP-06</t>
+  </si>
+  <si>
+    <t>The end of incident recovery shall be formally declared based on predefined criteria, and all incident-related documentation shall be completed and reviewed.</t>
+  </si>
+  <si>
+    <t>RC.RP-06.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restoration activities are coordinated with internal and external parties. </t>
+  </si>
+  <si>
+    <t>Incident Recovery Communication</t>
+  </si>
+  <si>
+    <t>RC.CO</t>
+  </si>
+  <si>
+    <t>Recovery activities and progress in restoring operational capabilities are communicated to designated internal and external stakeholders.</t>
+  </si>
+  <si>
+    <t>RC.CO-03</t>
+  </si>
+  <si>
+    <t>Recovery activities and progress in restoring operational capabilities shall be communicated to designated internal and external stakeholders in accordance with established communication procedures.</t>
+  </si>
+  <si>
+    <t>RC.CO-03.1</t>
+  </si>
+  <si>
+    <t>Public updates on incident recovery are shared using approved methods and messaging.</t>
+  </si>
+  <si>
+    <t>RC.CO-04</t>
+  </si>
+  <si>
+    <t>Public updates on incident recovery shall be shared using approved communication methods and messaging, in accordance with established procedures.</t>
+  </si>
+  <si>
+    <t>RC.CO-04.1</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure the organisation can respond quickly and effectively to disasters, information security incidents, and cybersecurity events by developing and executing a structured recovery process that protects people, systems, and data.
+To support this goal, the organisation should:
+· Develop a Recovery Process
+    A documented process should guide immediate actions in the event of a fire, medical emergency, theft, natural disaster, or information/cybersecurity incident.
+· Define Roles and Responsibilities
+    The recovery process should specify who is authorised to initiate recovery procedures and who will communicate with external stakeholders.
+· Protect Information and Systems
+    The process should include steps for securing information and systems, such as shutting down or locking devices, switching to backup sites, or securing physical documents.
+· Establish Contact Procedures
+    A list of internal and external contacts should be maintained and included in the recovery plan for quick access during an incident.
+· Ensure Awareness and Readiness
+    Individuals with recovery responsibilities should be familiar with the recovery plan and understand the authorisations required to carry out each step.
+· Integrate with the Incident Response Plan
+    The recovery process should be part of or aligned with the broader Incident Response Plan (IRP) to ensure consistency and coordination.
+· Include OT Environments
+    Recovery planning should address OT systems, including procedures for restoring industrial operations, securing control systems, and coordinating with safety protocols.
+· Plan for Future Enhancements
+    This control serves as a foundation for more advanced recovery planning, as further developed in control RC.RP-06.1.</t>
+  </si>
+  <si>
+    <t>Recovery actions are selected, scoped, prioritised, and performed</t>
+  </si>
+  <si>
+    <t>RC.RP-02</t>
+  </si>
+  <si>
+    <t>RC.RP-02.1</t>
+  </si>
+  <si>
+    <t>The organisation's essential functions and services shall be continued with little or no loss of operational continuity, and continuity shall be maintained until full system recovery.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to minimise disruption to critical operations during incidents and ensure they remain functional until systems are fully restored.
+To achieve this goal, the organisation should:
+· Plan for Continuity
+    · A business continuity plan should be maintained to identify essential functions and define procedures for uninterrupted operation during incidents.
+    · An incident response plan should be included, detailing steps for containment, damage assessment, and staged recovery.
+· Sustain Operations Until Recovery
+    · Continuity measures should support essential functions until full restoration is achieved.
+    · Temporary workarounds, redundant systems, or manual procedures should be used where necessary to maintain operations.
+· Prioritise Recovery
+    · Business impact analysis and system categorisation should be used to define recovery priorities.
+    · Systems should be categorised based on the impact of losing availability, integrity, or confidentiality, with special attention to safety-critical OT environments.
+· Ensure Data Resilience
+    · Robust backup solutions should be implemented to enable fast and reliable data restoration.
+    · Backups should be secured and tested regularly.
+· Monitor and Respond
+    · Systems should be continuously monitored to detect disruptions early.
+    · Quick response actions should be taken to minimise operational impact.
+· Test and Improve
+    · Recovery procedures should be tested regularly to ensure effectiveness.
+    · Recovery actions should be documented and reviewed to improve readiness over time.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that systems and services are not only restored after an incident, but also verified to be safe, uncompromised, and fully functional before being returned to normal operations.
+To achieve this goal the following should be considered:
+· Restored systems should be checked for signs of compromise, such as malware or unauthorised access, before being brought back online.
+· The root cause of the incident should be identified and addressed to prevent recurrence.
+· All recovery actions should be reviewed to ensure they were completed correctly and that no security gaps remain.
+· A final check should confirm that the system is safe, complete, and ready for normal use.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the incident recovery process is formally and responsibly concluded, and that comprehensive documentation is completed to support accountability, learning, and future preparedness.
+To achieve this goal the following should be considered:
+· An After-Action Report should be prepared that includes:
+    · A summary of the incident and its impact.
+    · The steps taken to respond and recover.
+    · Lessons learned and recommendations for improvement.
+· Before declaring the recovery phase complete, the following criteria should be met:
+    · All affected systems and services are fully operational.
+    · No known threats or vulnerabilities remain in the environment.
+    · Data has been restored and verified for integrity.
+    · Necessary security patches or updates have been applied.
+    · Monitoring is in place to detect any recurring or related issues.
+    · The After-Action Report is finalised and reviewed by relevant stakeholders.
+    · All stakeholders are informed that the incident has been resolved.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that recovery efforts and the progress of restoring operational capabilities are clearly and consistently communicated to all relevant internal and external stakeholders. This supports transparency, coordination, and informed decision-making during the recovery phase of an incident.
+To achieve this goal the following should be considered:
+· Recovery updates, including progress on restoring systems and services, should be shared securely and consistently with internal and external stakeholders, in line with the organisation’s response plans and information-sharing agreements.
+· Senior leadership should receive regular updates on the status of recovery efforts, especially during major incidents.
+· Communication protocols defined in contracts with suppliers and partners should be followed to ensure timely and accurate information exchange.
+· Crisis communication with critical suppliers should be coordinated to support aligned recovery actions.
+· If no actual incidents have occurred, tabletop exercises should be conducted to test and validate recovery communication procedures and stakeholder coordination.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that public communication during the recovery phase of an incident is accurate, timely, and delivered through approved channels, in order to maintain trust, manage reputational risk, and meet legal or regulatory obligations.
+To achieve this goal the following should be considered:
+· Approved methods for public communication, such as press releases, official websites, or designated spokespersons, should be defined in advance and used consistently.
+· Contact information for relevant parties (e.g. internal staff, third-party vendors, law enforcement, cyber insurance providers, government agencies) should be established and maintained.
+· Contact lists should be reviewed and verified regularly (e.g. annually) to ensure accuracy.
+· Primary and secondary communication mechanisms (e.g. phone calls, emails, letters) should be identified, considering that some methods may be unavailable during an incident.
+· Communication protocols and mechanisms should be reviewed periodically or when significant organisational changes occur.
+· If no actual incidents have occurred, tabletop exercises or simulations should be conducted to test public communication procedures and ensure readiness.</t>
+  </si>
+  <si>
+    <t>RC.CO-04.2</t>
+  </si>
+  <si>
+    <t>RC.CO-04.3</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that public communication during cybersecurity or information security incident recovery is professionally managed, accurate, and aligned with the organisation’s confidentiality and integrity standards. By assigning a dedicated Public Relations Officer (PRO), the organisation ensures that public messaging is handled by a trained individual who can maintain trust, protect the organisation’s reputation, and comply with legal and regulatory requirements.
+To achieve this goal, the following should be considered:
+· Assign a Public Relations Officer (PRO): Designate a qualified individual to handle public communications during incident recovery. The job description of the PRO may include the following:
+    · Developing Communication Strategies
+    · Writing and Distributing Press Releases
+    · Building and maintaining relationships with journalists and media outlets to ensure positive coverage (media relations).
+    · Handling communication during crises to maintain the organisation’s reputation (crisis management).
+    · Keeping track of media coverage and conducting media analysis to gauge public perception (monitoring media coverage).
+· Develop Communication Protocols: Establish clear protocols for the PRO to follow when sharing public updates, ensuring all information maintains confidentiality, integrity, and accuracy.
+· Training and Preparedness: Provide the PRO with training on incident communication strategies and ensure they are prepared to act swiftly during an incident.
+· Regular Reviews: Periodically review and update communication protocols to adapt to new challenges and ensure effectiveness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organisation shall assign a Public Relations Officer (PRO) to manage public communications during information/cybersecurity incident recovery, ensuring that public updates are shared while maintaining the confidentiality, integrity, and accuracy of the information.</t>
+  </si>
+  <si>
+    <t>The organisation shall implement a crisis communication strategy to mitigate negative impacts during a crisis and help restore its reputation afterward.</t>
+  </si>
+  <si>
+    <t>The goal of this control is to ensure that the organisation is prepared to manage communications effectively during and after a crisis, in order to minimise reputational damage, maintain stakeholder trust, and support recovery efforts.
+To achieve this goal, the following should be considered:
+· Develop the Strategy: Create a comprehensive crisis communication plan that outlines procedures for managing communications during and after a crisis to employees, customers, partners, regulators, and the media. Ensure that all communications comply with legal requirements and industry regulations.
+· Assign Roles and Responsibilities: Designate a crisis communication team, including a spokesperson, to handle public and internal communications. The participation of PR professionals, legal advisers and senior management should be considered.
+· Establish Communication Channels: Identify and set up reliable channels for disseminating information, such as social media, press releases, and internal communications platforms. Media coverage and social media should be continuously monitored for misinformation or negative sentiment. Inaccuracies should be responded to and corrected immediately.
+· Training and Drills: Conduct regular training sessions and crisis simulations to ensure the team is prepared to respond effectively.
+· Monitor and Adapt: Continuously monitor the situation and adapt the communication strategy as needed to address evolving circumstances.
+· Post-Crisis Review: After the crisis, review the communication efforts to identify lessons learned and improve future responses.</t>
   </si>
 </sst>
 </file>
@@ -5247,7 +5823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -5365,11 +5941,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFF75E74"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5566,6 +6157,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6053,11 +6650,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6066,7 +6663,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="59.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="232.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8925,6 +9522,9 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="288" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>126</v>
+      </c>
       <c r="B166">
         <v>4</v>
       </c>
@@ -10212,7 +10812,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B238">
         <v>3</v>
       </c>
@@ -11109,8 +11709,748 @@
         <v>860</v>
       </c>
     </row>
+    <row r="290" spans="1:7" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B290" s="11">
+        <v>1</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="F290" s="13"/>
+      <c r="G290" s="14"/>
+    </row>
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291" t="s">
+        <v>864</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="F291" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>867</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>126</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>869</v>
+      </c>
+      <c r="D293" t="s">
+        <v>250</v>
+      </c>
+      <c r="F293" s="39" t="s">
+        <v>868</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>126</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294" t="s">
+        <v>870</v>
+      </c>
+      <c r="D294" t="s">
+        <v>249</v>
+      </c>
+      <c r="F294" s="66" t="s">
+        <v>871</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>873</v>
+      </c>
+      <c r="F295" s="18" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>126</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>875</v>
+      </c>
+      <c r="D296" t="s">
+        <v>249</v>
+      </c>
+      <c r="F296" s="47" t="s">
+        <v>874</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>126</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297" t="s">
+        <v>903</v>
+      </c>
+      <c r="D297" t="s">
+        <v>239</v>
+      </c>
+      <c r="F297" s="39" t="s">
+        <v>904</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>877</v>
+      </c>
+      <c r="F298" s="39" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>126</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="C299" t="s">
+        <v>878</v>
+      </c>
+      <c r="D299" t="s">
+        <v>249</v>
+      </c>
+      <c r="F299" s="38" t="s">
+        <v>907</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>880</v>
+      </c>
+      <c r="F300" s="38" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>126</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301" t="s">
+        <v>882</v>
+      </c>
+      <c r="D301" t="s">
+        <v>249</v>
+      </c>
+      <c r="F301" s="38" t="s">
+        <v>881</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>910</v>
+      </c>
+      <c r="E302" s="71" t="s">
+        <v>911</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="G302" s="2"/>
+    </row>
+    <row r="303" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>914</v>
+      </c>
+      <c r="E303" s="71"/>
+      <c r="F303" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="G303" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>126</v>
+      </c>
+      <c r="B304">
+        <v>4</v>
+      </c>
+      <c r="C304" t="s">
+        <v>916</v>
+      </c>
+      <c r="D304" t="s">
+        <v>239</v>
+      </c>
+      <c r="E304" s="71"/>
+      <c r="F304" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>918</v>
+      </c>
+      <c r="E305" s="71"/>
+      <c r="F305" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G305" s="2"/>
+    </row>
+    <row r="306" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>126</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+      <c r="C306" t="s">
+        <v>920</v>
+      </c>
+      <c r="D306" t="s">
+        <v>239</v>
+      </c>
+      <c r="E306" s="71"/>
+      <c r="F306" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>923</v>
+      </c>
+      <c r="E307" s="71"/>
+      <c r="F307" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G307" s="2"/>
+    </row>
+    <row r="308" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>126</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+      <c r="C308" t="s">
+        <v>926</v>
+      </c>
+      <c r="D308" t="s">
+        <v>239</v>
+      </c>
+      <c r="E308" s="71"/>
+      <c r="F308" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>929</v>
+      </c>
+      <c r="E309" s="71"/>
+      <c r="F309" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="G309" s="2"/>
+    </row>
+    <row r="310" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>126</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+      <c r="C310" t="s">
+        <v>931</v>
+      </c>
+      <c r="D310" t="s">
+        <v>239</v>
+      </c>
+      <c r="E310" s="71"/>
+      <c r="F310" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311" t="s">
+        <v>885</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312" t="s">
+        <v>887</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>126</v>
+      </c>
+      <c r="B313">
+        <v>4</v>
+      </c>
+      <c r="C313" t="s">
+        <v>889</v>
+      </c>
+      <c r="D313" t="s">
+        <v>250</v>
+      </c>
+      <c r="F313" s="39" t="s">
+        <v>888</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>126</v>
+      </c>
+      <c r="B314">
+        <v>4</v>
+      </c>
+      <c r="C314" t="s">
+        <v>890</v>
+      </c>
+      <c r="D314" t="s">
+        <v>582</v>
+      </c>
+      <c r="F314" s="70" t="s">
+        <v>891</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315" t="s">
+        <v>894</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316" t="s">
+        <v>896</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>126</v>
+      </c>
+      <c r="B317">
+        <v>4</v>
+      </c>
+      <c r="C317" t="s">
+        <v>898</v>
+      </c>
+      <c r="D317" t="s">
+        <v>249</v>
+      </c>
+      <c r="F317" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="350" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>126</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>899</v>
+      </c>
+      <c r="D318" t="s">
+        <v>582</v>
+      </c>
+      <c r="F318" s="70" t="s">
+        <v>900</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B319" s="11">
+        <v>1</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E319" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="F319" s="13"/>
+      <c r="G319" s="14"/>
+    </row>
+    <row r="320" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320" t="s">
+        <v>939</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>940</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="304" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>126</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+      <c r="C322" t="s">
+        <v>941</v>
+      </c>
+      <c r="D322" t="s">
+        <v>250</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
+        <v>967</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G323" s="2"/>
+    </row>
+    <row r="324" spans="1:7" ht="335" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>126</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>968</v>
+      </c>
+      <c r="D324" t="s">
+        <v>239</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325" t="s">
+        <v>947</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>126</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+      <c r="C326" t="s">
+        <v>949</v>
+      </c>
+      <c r="D326" t="s">
+        <v>249</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327" t="s">
+        <v>951</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>126</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>953</v>
+      </c>
+      <c r="D328" t="s">
+        <v>249</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329" t="s">
+        <v>956</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330" t="s">
+        <v>958</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>126</v>
+      </c>
+      <c r="B331">
+        <v>4</v>
+      </c>
+      <c r="C331" t="s">
+        <v>960</v>
+      </c>
+      <c r="D331" t="s">
+        <v>259</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332" t="s">
+        <v>962</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>126</v>
+      </c>
+      <c r="B333">
+        <v>4</v>
+      </c>
+      <c r="C333" t="s">
+        <v>964</v>
+      </c>
+      <c r="D333" t="s">
+        <v>249</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="G333" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>126</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+      <c r="C334" t="s">
+        <v>975</v>
+      </c>
+      <c r="D334" t="s">
+        <v>239</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>126</v>
+      </c>
+      <c r="B335">
+        <v>4</v>
+      </c>
+      <c r="C335" t="s">
+        <v>976</v>
+      </c>
+      <c r="D335" t="s">
+        <v>239</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G289" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G335" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tools/excel/ccb/cyfun2025.xlsx
+++ b/tools/excel/ccb/cyfun2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/ccb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/excel/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C77A99-4EB4-584B-A9DE-FE29AA3BC953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9AE6B8-4C7B-2044-8556-59D83B060D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-28180" windowWidth="51200" windowHeight="26920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25680" yWindow="-28020" windowWidth="25360" windowHeight="27860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="986">
   <si>
     <t>GV.OC-01.1</t>
   </si>
@@ -5719,6 +5719,21 @@
 · Training and Drills: Conduct regular training sessions and crisis simulations to ensure the team is prepared to respond effectively.
 · Monitor and Adapt: Continuously monitor the situation and adapt the communication strategy as needed to address evolving circumstances.
 · Post-Crisis Review: After the crisis, review the communication efforts to identify lessons learned and improve future responses.</t>
+  </si>
+  <si>
+    <t>min_score</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>max_score</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>scores_definition</t>
   </si>
 </sst>
 </file>
@@ -5960,7 +5975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5971,7 +5986,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5990,10 +6005,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6053,10 +6068,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6140,9 +6152,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6156,13 +6165,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6471,8 +6480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5483155-6829-0140-8BF0-A0EAE8AC9D6F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6502,7 +6511,7 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,10 +6584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BAF61A-04DC-E843-B98B-FBB8A932C760}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="254" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6643,6 +6652,30 @@
         <v>213</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>981</v>
+      </c>
+      <c r="B8" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>983</v>
+      </c>
+      <c r="B9" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>985</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6652,7 +6685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+    <sheetView zoomScale="173" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
@@ -8833,7 +8866,7 @@
       <c r="D126" t="s">
         <v>256</v>
       </c>
-      <c r="F126" s="35" t="s">
+      <c r="F126" s="34" t="s">
         <v>407</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -8991,7 +9024,7 @@
       <c r="D136" t="s">
         <v>249</v>
       </c>
-      <c r="F136" s="37" t="s">
+      <c r="F136" s="36" t="s">
         <v>428</v>
       </c>
       <c r="G136" s="2" t="s">
@@ -9011,7 +9044,7 @@
       <c r="D137" t="s">
         <v>249</v>
       </c>
-      <c r="F137" s="36" t="s">
+      <c r="F137" s="35" t="s">
         <v>430</v>
       </c>
       <c r="G137" s="2" t="s">
@@ -9031,7 +9064,7 @@
       <c r="D138" t="s">
         <v>259</v>
       </c>
-      <c r="F138" s="36" t="s">
+      <c r="F138" s="35" t="s">
         <v>432</v>
       </c>
       <c r="G138" s="2" t="s">
@@ -9051,7 +9084,7 @@
       <c r="D139" t="s">
         <v>249</v>
       </c>
-      <c r="F139" s="36" t="s">
+      <c r="F139" s="35" t="s">
         <v>434</v>
       </c>
       <c r="G139" s="2" t="s">
@@ -9071,7 +9104,7 @@
       <c r="D140" t="s">
         <v>249</v>
       </c>
-      <c r="F140" s="36" t="s">
+      <c r="F140" s="35" t="s">
         <v>436</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -9091,7 +9124,7 @@
       <c r="D141" t="s">
         <v>249</v>
       </c>
-      <c r="F141" s="36" t="s">
+      <c r="F141" s="35" t="s">
         <v>439</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -9165,7 +9198,7 @@
       <c r="C145" t="s">
         <v>442</v>
       </c>
-      <c r="F145" s="36" t="s">
+      <c r="F145" s="35" t="s">
         <v>462</v>
       </c>
     </row>
@@ -9182,7 +9215,7 @@
       <c r="D146" t="s">
         <v>259</v>
       </c>
-      <c r="F146" s="36" t="s">
+      <c r="F146" s="35" t="s">
         <v>440</v>
       </c>
       <c r="G146" s="2" t="s">
@@ -9372,7 +9405,7 @@
       <c r="D157" t="s">
         <v>249</v>
       </c>
-      <c r="F157" s="38" t="s">
+      <c r="F157" s="37" t="s">
         <v>481</v>
       </c>
       <c r="G157" s="2" t="s">
@@ -9392,7 +9425,7 @@
       <c r="D158" t="s">
         <v>239</v>
       </c>
-      <c r="F158" s="39" t="s">
+      <c r="F158" s="38" t="s">
         <v>624</v>
       </c>
       <c r="G158" s="2" t="s">
@@ -9406,7 +9439,7 @@
       <c r="C159" t="s">
         <v>584</v>
       </c>
-      <c r="F159" s="39" t="s">
+      <c r="F159" s="38" t="s">
         <v>597</v>
       </c>
     </row>
@@ -9423,7 +9456,7 @@
       <c r="D160" t="s">
         <v>250</v>
       </c>
-      <c r="F160" s="39" t="s">
+      <c r="F160" s="38" t="s">
         <v>483</v>
       </c>
       <c r="G160" s="2" t="s">
@@ -9443,7 +9476,7 @@
       <c r="D161" t="s">
         <v>322</v>
       </c>
-      <c r="F161" s="40" t="s">
+      <c r="F161" s="39" t="s">
         <v>487</v>
       </c>
       <c r="G161" s="2" t="s">
@@ -9463,7 +9496,7 @@
       <c r="D162" t="s">
         <v>582</v>
       </c>
-      <c r="F162" s="41" t="s">
+      <c r="F162" s="40" t="s">
         <v>488</v>
       </c>
       <c r="G162" s="2" t="s">
@@ -9483,7 +9516,7 @@
       <c r="D163" t="s">
         <v>239</v>
       </c>
-      <c r="F163" s="63" t="s">
+      <c r="F163" s="35" t="s">
         <v>631</v>
       </c>
       <c r="G163" s="2" t="s">
@@ -9503,7 +9536,7 @@
       <c r="D164" t="s">
         <v>239</v>
       </c>
-      <c r="F164" s="63" t="s">
+      <c r="F164" s="35" t="s">
         <v>632</v>
       </c>
       <c r="G164" s="2" t="s">
@@ -9517,7 +9550,7 @@
       <c r="C165" t="s">
         <v>635</v>
       </c>
-      <c r="F165" s="63" t="s">
+      <c r="F165" s="35" t="s">
         <v>634</v>
       </c>
     </row>
@@ -9534,7 +9567,7 @@
       <c r="D166" t="s">
         <v>239</v>
       </c>
-      <c r="F166" s="63" t="s">
+      <c r="F166" s="35" t="s">
         <v>634</v>
       </c>
       <c r="G166" s="2" t="s">
@@ -9548,7 +9581,7 @@
       <c r="C167" t="s">
         <v>583</v>
       </c>
-      <c r="F167" s="63" t="s">
+      <c r="F167" s="35" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9565,7 +9598,7 @@
       <c r="D168" t="s">
         <v>322</v>
       </c>
-      <c r="F168" s="42" t="s">
+      <c r="F168" s="41" t="s">
         <v>489</v>
       </c>
       <c r="G168" s="2" t="s">
@@ -9585,7 +9618,7 @@
       <c r="D169" t="s">
         <v>322</v>
       </c>
-      <c r="F169" s="40" t="s">
+      <c r="F169" s="39" t="s">
         <v>491</v>
       </c>
       <c r="G169" s="2" t="s">
@@ -9605,7 +9638,7 @@
       <c r="D170" t="s">
         <v>322</v>
       </c>
-      <c r="F170" s="43" t="s">
+      <c r="F170" s="42" t="s">
         <v>498</v>
       </c>
       <c r="G170" s="2" t="s">
@@ -9625,7 +9658,7 @@
       <c r="D171" t="s">
         <v>322</v>
       </c>
-      <c r="F171" s="41" t="s">
+      <c r="F171" s="40" t="s">
         <v>499</v>
       </c>
       <c r="G171" s="2" t="s">
@@ -9645,7 +9678,7 @@
       <c r="D172" t="s">
         <v>249</v>
       </c>
-      <c r="F172" s="37" t="s">
+      <c r="F172" s="36" t="s">
         <v>500</v>
       </c>
       <c r="G172" s="2" t="s">
@@ -9685,7 +9718,7 @@
       <c r="D174" t="s">
         <v>249</v>
       </c>
-      <c r="F174" s="44" t="s">
+      <c r="F174" s="43" t="s">
         <v>502</v>
       </c>
       <c r="G174" s="2" t="s">
@@ -9705,7 +9738,7 @@
       <c r="D175" t="s">
         <v>239</v>
       </c>
-      <c r="F175" s="61" t="s">
+      <c r="F175" s="60" t="s">
         <v>646</v>
       </c>
       <c r="G175" s="2" t="s">
@@ -9725,7 +9758,7 @@
       <c r="D176" t="s">
         <v>239</v>
       </c>
-      <c r="F176" s="61" t="s">
+      <c r="F176" s="60" t="s">
         <v>649</v>
       </c>
       <c r="G176" s="2" t="s">
@@ -9739,7 +9772,7 @@
       <c r="C177" t="s">
         <v>585</v>
       </c>
-      <c r="F177" s="61" t="s">
+      <c r="F177" s="60" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9776,7 +9809,7 @@
       <c r="D179" t="s">
         <v>249</v>
       </c>
-      <c r="F179" s="45" t="s">
+      <c r="F179" s="44" t="s">
         <v>506</v>
       </c>
       <c r="G179" s="2" t="s">
@@ -9796,7 +9829,7 @@
       <c r="D180" t="s">
         <v>239</v>
       </c>
-      <c r="F180" s="62" t="s">
+      <c r="F180" s="61" t="s">
         <v>655</v>
       </c>
       <c r="G180" s="2" t="s">
@@ -9816,7 +9849,7 @@
       <c r="D181" t="s">
         <v>239</v>
       </c>
-      <c r="F181" s="62" t="s">
+      <c r="F181" s="61" t="s">
         <v>657</v>
       </c>
       <c r="G181" s="2" t="s">
@@ -9833,7 +9866,7 @@
       <c r="E182" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F182" s="62" t="s">
+      <c r="F182" s="61" t="s">
         <v>592</v>
       </c>
     </row>
@@ -9844,7 +9877,7 @@
       <c r="C183" t="s">
         <v>566</v>
       </c>
-      <c r="F183" s="62" t="s">
+      <c r="F183" s="61" t="s">
         <v>600</v>
       </c>
     </row>
@@ -9861,7 +9894,7 @@
       <c r="D184" t="s">
         <v>250</v>
       </c>
-      <c r="F184" s="46" t="s">
+      <c r="F184" s="45" t="s">
         <v>507</v>
       </c>
       <c r="G184" s="2" t="s">
@@ -9881,7 +9914,7 @@
       <c r="D185" t="s">
         <v>249</v>
       </c>
-      <c r="F185" s="58" t="s">
+      <c r="F185" s="57" t="s">
         <v>512</v>
       </c>
       <c r="G185" s="2" t="s">
@@ -9901,7 +9934,7 @@
       <c r="D186" t="s">
         <v>249</v>
       </c>
-      <c r="F186" s="57" t="s">
+      <c r="F186" s="56" t="s">
         <v>511</v>
       </c>
       <c r="G186" s="2" t="s">
@@ -10009,7 +10042,7 @@
       <c r="E192" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F192" s="36" t="s">
+      <c r="F192" s="35" t="s">
         <v>591</v>
       </c>
     </row>
@@ -10020,7 +10053,7 @@
       <c r="C193" t="s">
         <v>568</v>
       </c>
-      <c r="F193" s="36" t="s">
+      <c r="F193" s="35" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10037,7 +10070,7 @@
       <c r="D194" t="s">
         <v>249</v>
       </c>
-      <c r="F194" s="47" t="s">
+      <c r="F194" s="46" t="s">
         <v>519</v>
       </c>
       <c r="G194" s="2" t="s">
@@ -10137,7 +10170,7 @@
       <c r="D199" t="s">
         <v>239</v>
       </c>
-      <c r="F199" s="64" t="s">
+      <c r="F199" s="62" t="s">
         <v>678</v>
       </c>
       <c r="G199" s="2" t="s">
@@ -10157,7 +10190,7 @@
       <c r="D200" t="s">
         <v>250</v>
       </c>
-      <c r="F200" s="48" t="s">
+      <c r="F200" s="47" t="s">
         <v>525</v>
       </c>
       <c r="G200" s="2" t="s">
@@ -10171,7 +10204,7 @@
       <c r="C201" t="s">
         <v>681</v>
       </c>
-      <c r="F201" s="36" t="s">
+      <c r="F201" s="35" t="s">
         <v>682</v>
       </c>
     </row>
@@ -10188,7 +10221,7 @@
       <c r="D202" t="s">
         <v>258</v>
       </c>
-      <c r="F202" s="36" t="s">
+      <c r="F202" s="35" t="s">
         <v>684</v>
       </c>
       <c r="G202" s="2" t="s">
@@ -10208,7 +10241,7 @@
       <c r="D203" t="s">
         <v>239</v>
       </c>
-      <c r="F203" s="36" t="s">
+      <c r="F203" s="35" t="s">
         <v>686</v>
       </c>
       <c r="G203" s="2" t="s">
@@ -10222,7 +10255,7 @@
       <c r="C204" t="s">
         <v>689</v>
       </c>
-      <c r="F204" s="36" t="s">
+      <c r="F204" s="35" t="s">
         <v>690</v>
       </c>
       <c r="G204" s="2"/>
@@ -10240,7 +10273,7 @@
       <c r="D205" t="s">
         <v>239</v>
       </c>
-      <c r="F205" s="36" t="s">
+      <c r="F205" s="35" t="s">
         <v>692</v>
       </c>
       <c r="G205" s="2" t="s">
@@ -10254,7 +10287,7 @@
       <c r="C206" t="s">
         <v>569</v>
       </c>
-      <c r="F206" s="36" t="s">
+      <c r="F206" s="35" t="s">
         <v>603</v>
       </c>
     </row>
@@ -10271,7 +10304,7 @@
       <c r="D207" t="s">
         <v>322</v>
       </c>
-      <c r="F207" s="49" t="s">
+      <c r="F207" s="48" t="s">
         <v>527</v>
       </c>
       <c r="G207" s="2" t="s">
@@ -10291,7 +10324,7 @@
       <c r="D208" t="s">
         <v>249</v>
       </c>
-      <c r="F208" s="50" t="s">
+      <c r="F208" s="49" t="s">
         <v>531</v>
       </c>
       <c r="G208" s="2" t="s">
@@ -10311,7 +10344,7 @@
       <c r="D209" t="s">
         <v>249</v>
       </c>
-      <c r="F209" s="51" t="s">
+      <c r="F209" s="50" t="s">
         <v>532</v>
       </c>
       <c r="G209" s="2" t="s">
@@ -10331,7 +10364,7 @@
       <c r="D210" t="s">
         <v>239</v>
       </c>
-      <c r="F210" s="54" t="s">
+      <c r="F210" s="53" t="s">
         <v>698</v>
       </c>
       <c r="G210" s="2" t="s">
@@ -10351,7 +10384,7 @@
       <c r="D211" t="s">
         <v>239</v>
       </c>
-      <c r="F211" s="54" t="s">
+      <c r="F211" s="53" t="s">
         <v>701</v>
       </c>
       <c r="G211" s="2" t="s">
@@ -10368,7 +10401,7 @@
       <c r="E212" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="F212" s="54" t="s">
+      <c r="F212" s="53" t="s">
         <v>594</v>
       </c>
     </row>
@@ -10379,7 +10412,7 @@
       <c r="C213" t="s">
         <v>570</v>
       </c>
-      <c r="F213" s="54" t="s">
+      <c r="F213" s="53" t="s">
         <v>604</v>
       </c>
     </row>
@@ -10416,7 +10449,7 @@
       <c r="D215" t="s">
         <v>239</v>
       </c>
-      <c r="F215" s="63" t="s">
+      <c r="F215" s="35" t="s">
         <v>708</v>
       </c>
       <c r="G215" s="2" t="s">
@@ -10490,7 +10523,7 @@
       <c r="C219" t="s">
         <v>573</v>
       </c>
-      <c r="F219" s="63" t="s">
+      <c r="F219" s="35" t="s">
         <v>605</v>
       </c>
     </row>
@@ -10507,7 +10540,7 @@
       <c r="D220" t="s">
         <v>249</v>
       </c>
-      <c r="F220" s="52" t="s">
+      <c r="F220" s="51" t="s">
         <v>535</v>
       </c>
       <c r="G220" s="2" t="s">
@@ -10521,7 +10554,7 @@
       <c r="C221" t="s">
         <v>574</v>
       </c>
-      <c r="F221" s="52" t="s">
+      <c r="F221" s="51" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10538,7 +10571,7 @@
       <c r="D222" t="s">
         <v>249</v>
       </c>
-      <c r="F222" s="52" t="s">
+      <c r="F222" s="51" t="s">
         <v>537</v>
       </c>
       <c r="G222" s="2" t="s">
@@ -10552,7 +10585,7 @@
       <c r="C223" t="s">
         <v>575</v>
       </c>
-      <c r="F223" s="55" t="s">
+      <c r="F223" s="54" t="s">
         <v>607</v>
       </c>
     </row>
@@ -10569,7 +10602,7 @@
       <c r="D224" t="s">
         <v>322</v>
       </c>
-      <c r="F224" s="59" t="s">
+      <c r="F224" s="58" t="s">
         <v>539</v>
       </c>
       <c r="G224" s="2" t="s">
@@ -10589,7 +10622,7 @@
       <c r="D225" t="s">
         <v>249</v>
       </c>
-      <c r="F225" s="53" t="s">
+      <c r="F225" s="52" t="s">
         <v>544</v>
       </c>
       <c r="G225" s="2" t="s">
@@ -10609,7 +10642,7 @@
       <c r="D226" t="s">
         <v>249</v>
       </c>
-      <c r="F226" s="54" t="s">
+      <c r="F226" s="53" t="s">
         <v>543</v>
       </c>
       <c r="G226" s="2" t="s">
@@ -10663,7 +10696,7 @@
       <c r="C229" t="s">
         <v>576</v>
       </c>
-      <c r="F229" s="50" t="s">
+      <c r="F229" s="49" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10680,7 +10713,7 @@
       <c r="D230" t="s">
         <v>250</v>
       </c>
-      <c r="F230" s="55" t="s">
+      <c r="F230" s="54" t="s">
         <v>545</v>
       </c>
       <c r="G230" s="2" t="s">
@@ -10700,7 +10733,7 @@
       <c r="D231" t="s">
         <v>249</v>
       </c>
-      <c r="F231" s="51" t="s">
+      <c r="F231" s="50" t="s">
         <v>548</v>
       </c>
       <c r="G231" s="2" t="s">
@@ -10714,7 +10747,7 @@
       <c r="C232" t="s">
         <v>577</v>
       </c>
-      <c r="F232" s="50" t="s">
+      <c r="F232" s="49" t="s">
         <v>609</v>
       </c>
     </row>
@@ -10731,7 +10764,7 @@
       <c r="D233" t="s">
         <v>249</v>
       </c>
-      <c r="F233" s="55" t="s">
+      <c r="F233" s="54" t="s">
         <v>549</v>
       </c>
       <c r="G233" s="2" t="s">
@@ -10751,7 +10784,7 @@
       <c r="D234" t="s">
         <v>249</v>
       </c>
-      <c r="F234" s="51" t="s">
+      <c r="F234" s="50" t="s">
         <v>551</v>
       </c>
       <c r="G234" s="2" t="s">
@@ -10771,7 +10804,7 @@
       <c r="D235" t="s">
         <v>239</v>
       </c>
-      <c r="F235" s="50" t="s">
+      <c r="F235" s="49" t="s">
         <v>733</v>
       </c>
       <c r="G235" s="2" t="s">
@@ -10808,7 +10841,7 @@
       <c r="E237" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="F237" s="50" t="s">
+      <c r="F237" s="49" t="s">
         <v>587</v>
       </c>
     </row>
@@ -10819,7 +10852,7 @@
       <c r="C238" t="s">
         <v>578</v>
       </c>
-      <c r="F238" s="50" t="s">
+      <c r="F238" s="49" t="s">
         <v>610</v>
       </c>
     </row>
@@ -10836,7 +10869,7 @@
       <c r="D239" t="s">
         <v>322</v>
       </c>
-      <c r="F239" s="49" t="s">
+      <c r="F239" s="48" t="s">
         <v>553</v>
       </c>
       <c r="G239" s="2" t="s">
@@ -10856,7 +10889,7 @@
       <c r="D240" t="s">
         <v>322</v>
       </c>
-      <c r="F240" s="56" t="s">
+      <c r="F240" s="55" t="s">
         <v>555</v>
       </c>
       <c r="G240" s="2" t="s">
@@ -10876,7 +10909,7 @@
       <c r="D241" t="s">
         <v>582</v>
       </c>
-      <c r="F241" s="40" t="s">
+      <c r="F241" s="39" t="s">
         <v>559</v>
       </c>
       <c r="G241" s="2" t="s">
@@ -10896,7 +10929,7 @@
       <c r="D242" t="s">
         <v>582</v>
       </c>
-      <c r="F242" s="41" t="s">
+      <c r="F242" s="40" t="s">
         <v>560</v>
       </c>
       <c r="G242" s="2" t="s">
@@ -11010,7 +11043,7 @@
       <c r="C248" t="s">
         <v>580</v>
       </c>
-      <c r="F248" s="63" t="s">
+      <c r="F248" s="35" t="s">
         <v>611</v>
       </c>
     </row>
@@ -11027,7 +11060,7 @@
       <c r="D249" t="s">
         <v>249</v>
       </c>
-      <c r="F249" s="52" t="s">
+      <c r="F249" s="51" t="s">
         <v>561</v>
       </c>
       <c r="G249" s="2" t="s">
@@ -11047,7 +11080,7 @@
       <c r="D250" t="s">
         <v>239</v>
       </c>
-      <c r="F250" s="52" t="s">
+      <c r="F250" s="51" t="s">
         <v>758</v>
       </c>
       <c r="G250" s="2" t="s">
@@ -11061,7 +11094,7 @@
       <c r="C251" t="s">
         <v>760</v>
       </c>
-      <c r="F251" s="52" t="s">
+      <c r="F251" s="51" t="s">
         <v>765</v>
       </c>
       <c r="G251" s="2"/>
@@ -11093,7 +11126,7 @@
       <c r="C253" t="s">
         <v>581</v>
       </c>
-      <c r="F253" s="52" t="s">
+      <c r="F253" s="51" t="s">
         <v>612</v>
       </c>
     </row>
@@ -11110,7 +11143,7 @@
       <c r="D254" t="s">
         <v>249</v>
       </c>
-      <c r="F254" s="52" t="s">
+      <c r="F254" s="51" t="s">
         <v>563</v>
       </c>
       <c r="G254" s="2" t="s">
@@ -11152,7 +11185,7 @@
         <v>770</v>
       </c>
       <c r="E257" s="2"/>
-      <c r="F257" s="34" t="s">
+      <c r="F257" s="2" t="s">
         <v>774</v>
       </c>
     </row>
@@ -11169,7 +11202,7 @@
       <c r="D258" t="s">
         <v>250</v>
       </c>
-      <c r="F258" s="39" t="s">
+      <c r="F258" s="38" t="s">
         <v>820</v>
       </c>
       <c r="G258" s="2" t="s">
@@ -11189,7 +11222,7 @@
       <c r="D259" t="s">
         <v>322</v>
       </c>
-      <c r="F259" s="65" t="s">
+      <c r="F259" s="63" t="s">
         <v>821</v>
       </c>
       <c r="G259" s="2" t="s">
@@ -11209,7 +11242,7 @@
       <c r="D260" t="s">
         <v>582</v>
       </c>
-      <c r="F260" s="60" t="s">
+      <c r="F260" s="59" t="s">
         <v>822</v>
       </c>
       <c r="G260" s="2" t="s">
@@ -11311,7 +11344,7 @@
       <c r="D266" t="s">
         <v>250</v>
       </c>
-      <c r="F266" s="39" t="s">
+      <c r="F266" s="38" t="s">
         <v>783</v>
       </c>
       <c r="G266" s="2" t="s">
@@ -11331,7 +11364,7 @@
       <c r="D267" t="s">
         <v>249</v>
       </c>
-      <c r="F267" s="66" t="s">
+      <c r="F267" s="64" t="s">
         <v>786</v>
       </c>
       <c r="G267" s="2" t="s">
@@ -11353,7 +11386,7 @@
       <c r="A269" t="s">
         <v>126</v>
       </c>
-      <c r="B269" s="68">
+      <c r="B269" s="66">
         <v>4</v>
       </c>
       <c r="C269" t="s">
@@ -11362,7 +11395,7 @@
       <c r="D269" t="s">
         <v>249</v>
       </c>
-      <c r="F269" s="37" t="s">
+      <c r="F269" s="36" t="s">
         <v>789</v>
       </c>
       <c r="G269" s="2" t="s">
@@ -11373,7 +11406,7 @@
       <c r="A270" t="s">
         <v>126</v>
       </c>
-      <c r="B270" s="68">
+      <c r="B270" s="66">
         <v>4</v>
       </c>
       <c r="C270" t="s">
@@ -11382,7 +11415,7 @@
       <c r="D270" t="s">
         <v>249</v>
       </c>
-      <c r="F270" s="67" t="s">
+      <c r="F270" s="65" t="s">
         <v>792</v>
       </c>
       <c r="G270" s="2" t="s">
@@ -11569,7 +11602,7 @@
       <c r="D281" t="s">
         <v>322</v>
       </c>
-      <c r="F281" s="59" t="s">
+      <c r="F281" s="58" t="s">
         <v>806</v>
       </c>
       <c r="G281" s="2" t="s">
@@ -11589,7 +11622,7 @@
       <c r="D282" t="s">
         <v>249</v>
       </c>
-      <c r="F282" s="67" t="s">
+      <c r="F282" s="65" t="s">
         <v>809</v>
       </c>
       <c r="G282" s="2" t="s">
@@ -11623,7 +11656,7 @@
       <c r="C284" t="s">
         <v>817</v>
       </c>
-      <c r="F284" s="69" t="s">
+      <c r="F284" s="67" t="s">
         <v>818</v>
       </c>
     </row>
@@ -11640,7 +11673,7 @@
       <c r="D285" t="s">
         <v>256</v>
       </c>
-      <c r="F285" s="69" t="s">
+      <c r="F285" s="67" t="s">
         <v>858</v>
       </c>
       <c r="G285" s="2" t="s">
@@ -11760,7 +11793,7 @@
       <c r="D293" t="s">
         <v>250</v>
       </c>
-      <c r="F293" s="39" t="s">
+      <c r="F293" s="38" t="s">
         <v>868</v>
       </c>
       <c r="G293" s="2" t="s">
@@ -11780,7 +11813,7 @@
       <c r="D294" t="s">
         <v>249</v>
       </c>
-      <c r="F294" s="66" t="s">
+      <c r="F294" s="64" t="s">
         <v>871</v>
       </c>
       <c r="G294" s="2" t="s">
@@ -11811,7 +11844,7 @@
       <c r="D296" t="s">
         <v>249</v>
       </c>
-      <c r="F296" s="47" t="s">
+      <c r="F296" s="46" t="s">
         <v>874</v>
       </c>
       <c r="G296" s="2" t="s">
@@ -11831,7 +11864,7 @@
       <c r="D297" t="s">
         <v>239</v>
       </c>
-      <c r="F297" s="39" t="s">
+      <c r="F297" s="38" t="s">
         <v>904</v>
       </c>
       <c r="G297" s="2" t="s">
@@ -11845,7 +11878,7 @@
       <c r="C298" t="s">
         <v>877</v>
       </c>
-      <c r="F298" s="39" t="s">
+      <c r="F298" s="38" t="s">
         <v>876</v>
       </c>
     </row>
@@ -11862,7 +11895,7 @@
       <c r="D299" t="s">
         <v>249</v>
       </c>
-      <c r="F299" s="38" t="s">
+      <c r="F299" s="37" t="s">
         <v>907</v>
       </c>
       <c r="G299" s="2" t="s">
@@ -11876,7 +11909,7 @@
       <c r="C300" t="s">
         <v>880</v>
       </c>
-      <c r="F300" s="38" t="s">
+      <c r="F300" s="37" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11893,7 +11926,7 @@
       <c r="D301" t="s">
         <v>249</v>
       </c>
-      <c r="F301" s="38" t="s">
+      <c r="F301" s="37" t="s">
         <v>881</v>
       </c>
       <c r="G301" s="2" t="s">
@@ -11907,7 +11940,7 @@
       <c r="C302" t="s">
         <v>910</v>
       </c>
-      <c r="E302" s="71" t="s">
+      <c r="E302" s="69" t="s">
         <v>911</v>
       </c>
       <c r="F302" s="2" t="s">
@@ -11922,7 +11955,7 @@
       <c r="C303" t="s">
         <v>914</v>
       </c>
-      <c r="E303" s="71"/>
+      <c r="E303" s="69"/>
       <c r="F303" s="2" t="s">
         <v>913</v>
       </c>
@@ -11941,7 +11974,7 @@
       <c r="D304" t="s">
         <v>239</v>
       </c>
-      <c r="E304" s="71"/>
+      <c r="E304" s="69"/>
       <c r="F304" s="2" t="s">
         <v>915</v>
       </c>
@@ -11956,7 +11989,7 @@
       <c r="C305" t="s">
         <v>918</v>
       </c>
-      <c r="E305" s="71"/>
+      <c r="E305" s="69"/>
       <c r="F305" s="2" t="s">
         <v>919</v>
       </c>
@@ -11975,7 +12008,7 @@
       <c r="D306" t="s">
         <v>239</v>
       </c>
-      <c r="E306" s="71"/>
+      <c r="E306" s="69"/>
       <c r="F306" s="2" t="s">
         <v>921</v>
       </c>
@@ -11990,7 +12023,7 @@
       <c r="C307" t="s">
         <v>923</v>
       </c>
-      <c r="E307" s="71"/>
+      <c r="E307" s="69"/>
       <c r="F307" s="2" t="s">
         <v>924</v>
       </c>
@@ -12009,7 +12042,7 @@
       <c r="D308" t="s">
         <v>239</v>
       </c>
-      <c r="E308" s="71"/>
+      <c r="E308" s="69"/>
       <c r="F308" s="2" t="s">
         <v>925</v>
       </c>
@@ -12024,7 +12057,7 @@
       <c r="C309" t="s">
         <v>929</v>
       </c>
-      <c r="E309" s="71"/>
+      <c r="E309" s="69"/>
       <c r="F309" s="2" t="s">
         <v>928</v>
       </c>
@@ -12043,7 +12076,7 @@
       <c r="D310" t="s">
         <v>239</v>
       </c>
-      <c r="E310" s="71"/>
+      <c r="E310" s="69"/>
       <c r="F310" s="2" t="s">
         <v>930</v>
       </c>
@@ -12089,7 +12122,7 @@
       <c r="D313" t="s">
         <v>250</v>
       </c>
-      <c r="F313" s="39" t="s">
+      <c r="F313" s="38" t="s">
         <v>888</v>
       </c>
       <c r="G313" s="2" t="s">
@@ -12109,7 +12142,7 @@
       <c r="D314" t="s">
         <v>582</v>
       </c>
-      <c r="F314" s="70" t="s">
+      <c r="F314" s="68" t="s">
         <v>891</v>
       </c>
       <c r="G314" s="2" t="s">
@@ -12154,7 +12187,7 @@
       <c r="D317" t="s">
         <v>249</v>
       </c>
-      <c r="F317" s="36" t="s">
+      <c r="F317" s="35" t="s">
         <v>897</v>
       </c>
       <c r="G317" s="2" t="s">
@@ -12174,7 +12207,7 @@
       <c r="D318" t="s">
         <v>582</v>
       </c>
-      <c r="F318" s="70" t="s">
+      <c r="F318" s="68" t="s">
         <v>900</v>
       </c>
       <c r="G318" s="2" t="s">
@@ -12631,7 +12664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242BF215-323D-D147-A6AA-4FC77FB34358}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="168" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>

--- a/tools/excel/ccb/cyfun2025.xlsx
+++ b/tools/excel/ccb/cyfun2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/excel/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9AE6B8-4C7B-2044-8556-59D83B060D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2082215A-E737-ED4D-BDFB-B1B64F818934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25680" yWindow="-28020" windowWidth="25360" windowHeight="27860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="-28020" windowWidth="50880" windowHeight="27860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="2" r:id="rId1"/>
@@ -6480,7 +6480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5483155-6829-0140-8BF0-A0EAE8AC9D6F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6511,7 +6511,7 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6685,9 +6685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G335"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9022,7 +9022,7 @@
         <v>429</v>
       </c>
       <c r="D136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F136" s="36" t="s">
         <v>428</v>

--- a/tools/excel/ccb/cyfun2025.xlsx
+++ b/tools/excel/ccb/cyfun2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\excel\ccb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92701A7-0B0A-45B4-BC90-812690DF1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486397B-4046-9C46-836C-A21859F42ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20540" tabRatio="906" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="1445">
   <si>
     <t>ref_id</t>
   </si>
@@ -7030,9 +7030,6 @@
     <t>prefix_value</t>
   </si>
   <si>
-    <t>urn_id</t>
-  </si>
-  <si>
     <t>GV.RR-03.1</t>
   </si>
   <si>
@@ -7079,6 +7076,12 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>node_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.AM-08.10  </t>
   </si>
 </sst>
 </file>
@@ -7187,7 +7190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7221,6 +7224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7348,7 +7357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7472,7 +7481,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8294,7 +8304,7 @@
     <tableColumn id="1" xr3:uid="{F5700BB8-4D26-4624-ABA2-1FBCED2E845C}" name="assessable" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{EAEB500F-F851-4EB4-A24B-BB67222237FF}" name="depth" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{DB10735E-FF64-4DA1-A1D1-599226A79EF1}" name="ref_id" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{181CCD1B-FB95-4EEE-858E-ABA24AAAA692}" name="urn_id" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{181CCD1B-FB95-4EEE-858E-ABA24AAAA692}" name="node_id" dataDxfId="35"/>
     <tableColumn id="4" xr3:uid="{C8F43E50-C2E4-4DD3-B6D2-05B4C2433BA3}" name="implementation_groups" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{B504004D-A9ED-45CF-A4DB-FF70DF40281F}" name="name" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{5E9204FE-77DA-45AA-9C73-6EFA41AB3E45}" name="description" dataDxfId="32"/>
@@ -8306,10 +8316,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0889D091-5AE2-47F4-AB77-50E308174FB3}" name="Tableau1" displayName="Tableau1" ref="A1:D219" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:D219" xr:uid="{0889D091-5AE2-47F4-AB77-50E308174FB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0889D091-5AE2-47F4-AB77-50E308174FB3}" name="Tableau1" displayName="Tableau1" ref="B1:E219" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="B1:E219" xr:uid="{0889D091-5AE2-47F4-AB77-50E308174FB3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{45BDC72D-7806-48E6-A901-174E30E9A6D9}" name="ref_id" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{45BDC72D-7806-48E6-A901-174E30E9A6D9}" name="node_id" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{5F991A7E-3A3A-4F8F-BA16-0FB773718303}" name="name" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{1B40AF55-CB32-423A-8939-8209008E1D42}" name="description" dataDxfId="23"/>
     <tableColumn id="4" xr3:uid="{2D9AE9ED-AD57-4F23-A433-87D933D4DE0C}" name="annotation" dataDxfId="22"/>
@@ -8643,17 +8653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="197.88671875" customWidth="1"/>
+    <col min="2" max="2" width="197.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>875</v>
       </c>
@@ -8661,7 +8671,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>877</v>
       </c>
@@ -8669,15 +8679,15 @@
         <v>878</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>879</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>880</v>
       </c>
@@ -8685,7 +8695,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
@@ -8693,7 +8703,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>1</v>
       </c>
@@ -8701,7 +8711,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
@@ -8709,7 +8719,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>885</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>887</v>
       </c>
@@ -8725,7 +8735,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>889</v>
       </c>
@@ -8747,9 +8757,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>875</v>
       </c>
@@ -8770,12 +8780,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1425</v>
       </c>
@@ -8783,7 +8793,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>898</v>
       </c>
@@ -8807,13 +8817,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="190.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="190.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>875</v>
       </c>
@@ -8821,7 +8831,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>892</v>
       </c>
@@ -8829,7 +8839,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>877</v>
       </c>
@@ -8837,7 +8847,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
@@ -8845,7 +8855,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
@@ -8853,7 +8863,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
@@ -8861,7 +8871,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>895</v>
       </c>
@@ -8869,7 +8879,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>897</v>
       </c>
@@ -8877,7 +8887,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>899</v>
       </c>
@@ -8885,7 +8895,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>901</v>
       </c>
@@ -8902,24 +8912,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="58.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="232.109375" customWidth="1"/>
+    <col min="7" max="7" width="58.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="232.1640625" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>903</v>
       </c>
@@ -8930,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>1427</v>
+        <v>1443</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>905</v>
@@ -8948,7 +8958,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="41">
         <v>1</v>
@@ -8965,7 +8975,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="11">
         <v>2</v>
@@ -8984,7 +8994,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="11">
         <v>3</v>
@@ -9001,7 +9011,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>914</v>
       </c>
@@ -9026,7 +9036,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="11">
         <v>3</v>
@@ -9043,7 +9053,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>914</v>
       </c>
@@ -9068,7 +9078,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="11">
         <v>3</v>
@@ -9085,7 +9095,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>914</v>
       </c>
@@ -9110,7 +9120,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>914</v>
       </c>
@@ -9135,7 +9145,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="11">
         <v>3</v>
@@ -9152,7 +9162,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>914</v>
       </c>
@@ -9177,7 +9187,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>914</v>
       </c>
@@ -9202,7 +9212,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>914</v>
       </c>
@@ -9227,7 +9237,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>914</v>
       </c>
@@ -9252,7 +9262,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="11">
         <v>3</v>
@@ -9269,7 +9279,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>914</v>
       </c>
@@ -9294,7 +9304,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="11">
         <v>2</v>
@@ -9313,7 +9323,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="11">
         <v>3</v>
@@ -9330,7 +9340,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>914</v>
       </c>
@@ -9355,7 +9365,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="11">
         <v>3</v>
@@ -9372,7 +9382,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>914</v>
       </c>
@@ -9397,7 +9407,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="11">
         <v>3</v>
@@ -9414,7 +9424,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="408" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>914</v>
       </c>
@@ -9439,7 +9449,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>914</v>
       </c>
@@ -9464,7 +9474,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26" s="11">
         <v>3</v>
@@ -9481,7 +9491,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>914</v>
       </c>
@@ -9506,7 +9516,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="11">
         <v>3</v>
@@ -9523,7 +9533,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>914</v>
       </c>
@@ -9548,7 +9558,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="11">
         <v>2</v>
@@ -9567,7 +9577,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="11">
         <v>3</v>
@@ -9584,7 +9594,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>914</v>
       </c>
@@ -9609,7 +9619,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="48">
         <v>3</v>
@@ -9626,7 +9636,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="49"/>
     </row>
-    <row r="34" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>914</v>
       </c>
@@ -9651,7 +9661,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>914</v>
       </c>
@@ -9676,7 +9686,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="11">
         <v>3</v>
@@ -9693,7 +9703,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>914</v>
       </c>
@@ -9701,10 +9711,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>915</v>
@@ -9720,7 +9730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>914</v>
       </c>
@@ -9728,10 +9738,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>928</v>
@@ -9747,7 +9757,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
       <c r="B39" s="11">
         <v>3</v>
@@ -9764,7 +9774,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>914</v>
       </c>
@@ -9789,7 +9799,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>914</v>
       </c>
@@ -9814,7 +9824,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="B42" s="11">
         <v>2</v>
@@ -9833,7 +9843,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
       <c r="B43" s="11">
         <v>3</v>
@@ -9850,7 +9860,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>914</v>
       </c>
@@ -9875,7 +9885,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>914</v>
       </c>
@@ -9900,7 +9910,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
       <c r="B46" s="11">
         <v>2</v>
@@ -9919,7 +9929,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
       <c r="B47" s="11">
         <v>3</v>
@@ -9936,7 +9946,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>914</v>
       </c>
@@ -9961,7 +9971,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
       <c r="B49" s="11">
         <v>3</v>
@@ -9978,7 +9988,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>914</v>
       </c>
@@ -10003,7 +10013,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22"/>
       <c r="B51" s="11">
         <v>2</v>
@@ -10022,7 +10032,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22"/>
       <c r="B52" s="11">
         <v>3</v>
@@ -10039,7 +10049,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>914</v>
       </c>
@@ -10064,7 +10074,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22"/>
       <c r="B54" s="11">
         <v>3</v>
@@ -10081,7 +10091,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>914</v>
       </c>
@@ -10106,7 +10116,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22"/>
       <c r="B56" s="11">
         <v>3</v>
@@ -10123,7 +10133,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>914</v>
       </c>
@@ -10148,7 +10158,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="22"/>
       <c r="B58" s="11">
         <v>3</v>
@@ -10165,7 +10175,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>914</v>
       </c>
@@ -10190,7 +10200,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>914</v>
       </c>
@@ -10215,7 +10225,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>914</v>
       </c>
@@ -10240,7 +10250,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
       <c r="B62" s="11">
         <v>3</v>
@@ -10257,7 +10267,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>914</v>
       </c>
@@ -10282,7 +10292,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22"/>
       <c r="B64" s="11">
         <v>3</v>
@@ -10299,7 +10309,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>914</v>
       </c>
@@ -10324,7 +10334,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>914</v>
       </c>
@@ -10349,7 +10359,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>914</v>
       </c>
@@ -10374,7 +10384,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>914</v>
       </c>
@@ -10399,7 +10409,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22"/>
       <c r="B69" s="11">
         <v>3</v>
@@ -10416,7 +10426,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
         <v>914</v>
       </c>
@@ -10441,7 +10451,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="22"/>
       <c r="B71" s="11">
         <v>3</v>
@@ -10458,7 +10468,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
         <v>914</v>
       </c>
@@ -10483,7 +10493,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="11">
         <v>3</v>
@@ -10500,7 +10510,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
         <v>914</v>
       </c>
@@ -10525,7 +10535,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="40"/>
       <c r="B75" s="41">
         <v>1</v>
@@ -10542,7 +10552,7 @@
       <c r="H75" s="44"/>
       <c r="I75" s="45"/>
     </row>
-    <row r="76" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
       <c r="B76" s="11">
         <v>2</v>
@@ -10561,7 +10571,7 @@
       <c r="H76" s="11"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
       <c r="B77" s="11">
         <v>3</v>
@@ -10578,7 +10588,7 @@
       <c r="H77" s="11"/>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>914</v>
       </c>
@@ -10603,7 +10613,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
         <v>914</v>
       </c>
@@ -10628,7 +10638,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
         <v>914</v>
       </c>
@@ -10653,7 +10663,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>914</v>
       </c>
@@ -10678,7 +10688,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
       <c r="B82" s="11">
         <v>3</v>
@@ -10695,7 +10705,7 @@
       <c r="H82" s="11"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>914</v>
       </c>
@@ -10720,7 +10730,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>914</v>
       </c>
@@ -10745,7 +10755,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
         <v>914</v>
       </c>
@@ -10770,7 +10780,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>914</v>
       </c>
@@ -10795,7 +10805,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>914</v>
       </c>
@@ -10820,7 +10830,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
       <c r="B88" s="11">
         <v>3</v>
@@ -10837,7 +10847,7 @@
       <c r="H88" s="11"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>914</v>
       </c>
@@ -10845,10 +10855,10 @@
         <v>4</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>928</v>
@@ -10864,7 +10874,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
         <v>914</v>
       </c>
@@ -10872,10 +10882,10 @@
         <v>4</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>1006</v>
@@ -10891,7 +10901,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="22"/>
       <c r="B91" s="11">
         <v>3</v>
@@ -10908,7 +10918,7 @@
       <c r="H91" s="11"/>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>914</v>
       </c>
@@ -10933,7 +10943,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>914</v>
       </c>
@@ -10958,7 +10968,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="22"/>
       <c r="B94" s="11">
         <v>3</v>
@@ -10975,7 +10985,7 @@
       <c r="H94" s="11"/>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="1:9" ht="364.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>914</v>
       </c>
@@ -11000,7 +11010,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="22"/>
       <c r="B96" s="11">
         <v>3</v>
@@ -11017,7 +11027,7 @@
       <c r="H96" s="11"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>914</v>
       </c>
@@ -11042,7 +11052,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>914</v>
       </c>
@@ -11067,7 +11077,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="22"/>
       <c r="B99" s="11">
         <v>3</v>
@@ -11084,7 +11094,7 @@
       <c r="H99" s="11"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>914</v>
       </c>
@@ -11109,7 +11119,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
         <v>914</v>
       </c>
@@ -11134,7 +11144,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>914</v>
       </c>
@@ -11159,7 +11169,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="22" t="s">
         <v>914</v>
       </c>
@@ -11184,7 +11194,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22" t="s">
         <v>914</v>
       </c>
@@ -11209,7 +11219,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="22" t="s">
         <v>914</v>
       </c>
@@ -11234,7 +11244,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>914</v>
       </c>
@@ -11259,7 +11269,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="22" t="s">
         <v>914</v>
       </c>
@@ -11284,7 +11294,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="22" t="s">
         <v>914</v>
       </c>
@@ -11292,10 +11302,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>1006</v>
@@ -11308,10 +11318,10 @@
         <v>262</v>
       </c>
       <c r="I108" s="54" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
         <v>914</v>
       </c>
@@ -11336,7 +11346,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="22" t="s">
         <v>914</v>
       </c>
@@ -11361,7 +11371,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="22" t="s">
         <v>914</v>
       </c>
@@ -11386,7 +11396,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="22"/>
       <c r="B112" s="11">
         <v>2</v>
@@ -11405,7 +11415,7 @@
       <c r="H112" s="11"/>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="22"/>
       <c r="B113" s="11">
         <v>3</v>
@@ -11422,7 +11432,7 @@
       <c r="H113" s="11"/>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="22" t="s">
         <v>914</v>
       </c>
@@ -11447,7 +11457,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="22" t="s">
         <v>914</v>
       </c>
@@ -11472,7 +11482,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
         <v>914</v>
       </c>
@@ -11497,7 +11507,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>914</v>
       </c>
@@ -11522,7 +11532,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
         <v>914</v>
       </c>
@@ -11547,7 +11557,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="22" t="s">
         <v>914</v>
       </c>
@@ -11572,7 +11582,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="22"/>
       <c r="B120" s="11">
         <v>3</v>
@@ -11589,7 +11599,7 @@
       <c r="H120" s="11"/>
       <c r="I120" s="23"/>
     </row>
-    <row r="121" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="22" t="s">
         <v>914</v>
       </c>
@@ -11614,7 +11624,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
         <v>914</v>
       </c>
@@ -11639,7 +11649,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="22"/>
       <c r="B123" s="11">
         <v>3</v>
@@ -11656,7 +11666,7 @@
       <c r="H123" s="11"/>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
         <v>914</v>
       </c>
@@ -11681,7 +11691,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="22"/>
       <c r="B125" s="11">
         <v>3</v>
@@ -11698,7 +11708,7 @@
       <c r="H125" s="11"/>
       <c r="I125" s="23"/>
     </row>
-    <row r="126" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="22" t="s">
         <v>914</v>
       </c>
@@ -11723,7 +11733,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="22" t="s">
         <v>914</v>
       </c>
@@ -11748,7 +11758,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="22" t="s">
         <v>914</v>
       </c>
@@ -11773,7 +11783,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="22"/>
       <c r="B129" s="11">
         <v>3</v>
@@ -11790,7 +11800,7 @@
       <c r="H129" s="11"/>
       <c r="I129" s="23"/>
     </row>
-    <row r="130" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
         <v>914</v>
       </c>
@@ -11815,7 +11825,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="22"/>
       <c r="B131" s="11">
         <v>3</v>
@@ -11832,7 +11842,7 @@
       <c r="H131" s="11"/>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="22" t="s">
         <v>914</v>
       </c>
@@ -11857,7 +11867,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
         <v>914</v>
       </c>
@@ -11882,7 +11892,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="22"/>
       <c r="B134" s="11">
         <v>2</v>
@@ -11901,7 +11911,7 @@
       <c r="H134" s="11"/>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="22"/>
       <c r="B135" s="11">
         <v>3</v>
@@ -11918,7 +11928,7 @@
       <c r="H135" s="11"/>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
         <v>914</v>
       </c>
@@ -11943,7 +11953,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="22"/>
       <c r="B137" s="11">
         <v>3</v>
@@ -11960,7 +11970,7 @@
       <c r="H137" s="11"/>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
         <v>914</v>
       </c>
@@ -11985,7 +11995,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
         <v>914</v>
       </c>
@@ -12010,7 +12020,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
         <v>914</v>
       </c>
@@ -12035,7 +12045,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
         <v>914</v>
       </c>
@@ -12060,7 +12070,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
         <v>914</v>
       </c>
@@ -12085,7 +12095,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
         <v>914</v>
       </c>
@@ -12110,7 +12120,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
         <v>914</v>
       </c>
@@ -12135,7 +12145,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
         <v>914</v>
       </c>
@@ -12160,7 +12170,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
         <v>914</v>
       </c>
@@ -12185,7 +12195,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="22"/>
       <c r="B147" s="11">
         <v>3</v>
@@ -12202,7 +12212,7 @@
       <c r="H147" s="11"/>
       <c r="I147" s="23"/>
     </row>
-    <row r="148" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="22" t="s">
         <v>914</v>
       </c>
@@ -12227,7 +12237,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="22" t="s">
         <v>914</v>
       </c>
@@ -12252,7 +12262,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="40"/>
       <c r="B150" s="41">
         <v>1</v>
@@ -12269,7 +12279,7 @@
       <c r="H150" s="44"/>
       <c r="I150" s="45"/>
     </row>
-    <row r="151" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="22"/>
       <c r="B151" s="11">
         <v>2</v>
@@ -12288,7 +12298,7 @@
       <c r="H151" s="11"/>
       <c r="I151" s="23"/>
     </row>
-    <row r="152" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="22"/>
       <c r="B152" s="11">
         <v>3</v>
@@ -12305,7 +12315,7 @@
       <c r="H152" s="11"/>
       <c r="I152" s="23"/>
     </row>
-    <row r="153" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="22" t="s">
         <v>914</v>
       </c>
@@ -12330,7 +12340,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
         <v>914</v>
       </c>
@@ -12355,7 +12365,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="22" t="s">
         <v>914</v>
       </c>
@@ -12380,7 +12390,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="22" t="s">
         <v>914</v>
       </c>
@@ -12405,7 +12415,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="22" t="s">
         <v>914</v>
       </c>
@@ -12430,7 +12440,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="22"/>
       <c r="B158" s="11">
         <v>3</v>
@@ -12447,7 +12457,7 @@
       <c r="H158" s="13"/>
       <c r="I158" s="23"/>
     </row>
-    <row r="159" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="22" t="s">
         <v>914</v>
       </c>
@@ -12472,7 +12482,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="22" t="s">
         <v>914</v>
       </c>
@@ -12497,7 +12507,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="22"/>
       <c r="B161" s="11">
         <v>3</v>
@@ -12514,7 +12524,7 @@
       <c r="H161" s="11"/>
       <c r="I161" s="23"/>
     </row>
-    <row r="162" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="22" t="s">
         <v>914</v>
       </c>
@@ -12539,7 +12549,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="22" t="s">
         <v>914</v>
       </c>
@@ -12564,7 +12574,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="22" t="s">
         <v>914</v>
       </c>
@@ -12589,7 +12599,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="22" t="s">
         <v>914</v>
       </c>
@@ -12614,7 +12624,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="22" t="s">
         <v>914</v>
       </c>
@@ -12639,7 +12649,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="22"/>
       <c r="B167" s="11">
         <v>3</v>
@@ -12656,7 +12666,7 @@
       <c r="H167" s="11"/>
       <c r="I167" s="23"/>
     </row>
-    <row r="168" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="22" t="s">
         <v>914</v>
       </c>
@@ -12681,7 +12691,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="22"/>
       <c r="B169" s="11">
         <v>3</v>
@@ -12698,7 +12708,7 @@
       <c r="H169" s="11"/>
       <c r="I169" s="23"/>
     </row>
-    <row r="170" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="22" t="s">
         <v>914</v>
       </c>
@@ -12723,7 +12733,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="334.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="335" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="22" t="s">
         <v>914</v>
       </c>
@@ -12748,7 +12758,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="22" t="s">
         <v>914</v>
       </c>
@@ -12773,7 +12783,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="22" t="s">
         <v>914</v>
       </c>
@@ -12798,7 +12808,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="22" t="s">
         <v>914</v>
       </c>
@@ -12823,7 +12833,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="394.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="395" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="22" t="s">
         <v>914</v>
       </c>
@@ -12848,7 +12858,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="22" t="s">
         <v>914</v>
       </c>
@@ -12873,7 +12883,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="22" t="s">
         <v>914</v>
       </c>
@@ -12898,7 +12908,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="22" t="s">
         <v>914</v>
       </c>
@@ -12923,7 +12933,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="22"/>
       <c r="B179" s="11">
         <v>3</v>
@@ -12940,7 +12950,7 @@
       <c r="H179" s="11"/>
       <c r="I179" s="23"/>
     </row>
-    <row r="180" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="22" t="s">
         <v>914</v>
       </c>
@@ -12965,7 +12975,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="22" t="s">
         <v>914</v>
       </c>
@@ -12990,7 +13000,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="22" t="s">
         <v>914</v>
       </c>
@@ -13015,7 +13025,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="22" t="s">
         <v>914</v>
       </c>
@@ -13040,7 +13050,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="22"/>
       <c r="B184" s="11">
         <v>2</v>
@@ -13059,7 +13069,7 @@
       <c r="H184" s="11"/>
       <c r="I184" s="23"/>
     </row>
-    <row r="185" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="22"/>
       <c r="B185" s="11">
         <v>3</v>
@@ -13076,7 +13086,7 @@
       <c r="H185" s="11"/>
       <c r="I185" s="23"/>
     </row>
-    <row r="186" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="22" t="s">
         <v>914</v>
       </c>
@@ -13101,7 +13111,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="22" t="s">
         <v>914</v>
       </c>
@@ -13126,7 +13136,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="22" t="s">
         <v>914</v>
       </c>
@@ -13151,7 +13161,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="22" t="s">
         <v>914</v>
       </c>
@@ -13176,7 +13186,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="22"/>
       <c r="B190" s="11">
         <v>3</v>
@@ -13193,7 +13203,7 @@
       <c r="H190" s="11"/>
       <c r="I190" s="23"/>
     </row>
-    <row r="191" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="22" t="s">
         <v>914</v>
       </c>
@@ -13218,7 +13228,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="22" t="s">
         <v>914</v>
       </c>
@@ -13243,7 +13253,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>914</v>
       </c>
@@ -13268,7 +13278,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="22"/>
       <c r="B194" s="11">
         <v>2</v>
@@ -13287,7 +13297,7 @@
       <c r="H194" s="11"/>
       <c r="I194" s="23"/>
     </row>
-    <row r="195" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="22"/>
       <c r="B195" s="11">
         <v>3</v>
@@ -13304,7 +13314,7 @@
       <c r="H195" s="11"/>
       <c r="I195" s="23"/>
     </row>
-    <row r="196" spans="1:9" ht="334.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="335" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="22" t="s">
         <v>914</v>
       </c>
@@ -13329,7 +13339,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="22" t="s">
         <v>914</v>
       </c>
@@ -13354,7 +13364,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="22" t="s">
         <v>914</v>
       </c>
@@ -13379,7 +13389,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="334.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="335" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="22" t="s">
         <v>914</v>
       </c>
@@ -13404,7 +13414,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="22" t="s">
         <v>914</v>
       </c>
@@ -13429,7 +13439,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="22" t="s">
         <v>914</v>
       </c>
@@ -13454,7 +13464,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="22" t="s">
         <v>914</v>
       </c>
@@ -13479,7 +13489,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="22"/>
       <c r="B203" s="11">
         <v>3</v>
@@ -13496,7 +13506,7 @@
       <c r="H203" s="11"/>
       <c r="I203" s="23"/>
     </row>
-    <row r="204" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="22" t="s">
         <v>914</v>
       </c>
@@ -13521,7 +13531,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="22" t="s">
         <v>914</v>
       </c>
@@ -13546,7 +13556,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="22"/>
       <c r="B206" s="11">
         <v>3</v>
@@ -13563,7 +13573,7 @@
       <c r="H206" s="13"/>
       <c r="I206" s="23"/>
     </row>
-    <row r="207" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="22" t="s">
         <v>914</v>
       </c>
@@ -13588,7 +13598,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="22"/>
       <c r="B208" s="11">
         <v>3</v>
@@ -13605,7 +13615,7 @@
       <c r="H208" s="11"/>
       <c r="I208" s="23"/>
     </row>
-    <row r="209" spans="1:9" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="22" t="s">
         <v>914</v>
       </c>
@@ -13630,7 +13640,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="22" t="s">
         <v>914</v>
       </c>
@@ -13655,7 +13665,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="22" t="s">
         <v>914</v>
       </c>
@@ -13680,7 +13690,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="22" t="s">
         <v>914</v>
       </c>
@@ -13705,7 +13715,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="22" t="s">
         <v>914</v>
       </c>
@@ -13730,7 +13740,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="22"/>
       <c r="B214" s="11">
         <v>2</v>
@@ -13749,7 +13759,7 @@
       <c r="H214" s="11"/>
       <c r="I214" s="23"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="22"/>
       <c r="B215" s="11">
         <v>3</v>
@@ -13766,7 +13776,7 @@
       <c r="H215" s="11"/>
       <c r="I215" s="23"/>
     </row>
-    <row r="216" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="22" t="s">
         <v>914</v>
       </c>
@@ -13791,7 +13801,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="22" t="s">
         <v>914</v>
       </c>
@@ -13816,7 +13826,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="22" t="s">
         <v>914</v>
       </c>
@@ -13841,7 +13851,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="22" t="s">
         <v>914</v>
       </c>
@@ -13866,7 +13876,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="22" t="s">
         <v>914</v>
       </c>
@@ -13891,7 +13901,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="22"/>
       <c r="B221" s="11">
         <v>3</v>
@@ -13908,7 +13918,7 @@
       <c r="H221" s="11"/>
       <c r="I221" s="23"/>
     </row>
-    <row r="222" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="22" t="s">
         <v>914</v>
       </c>
@@ -13933,7 +13943,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="22"/>
       <c r="B223" s="11">
         <v>3</v>
@@ -13950,7 +13960,7 @@
       <c r="H223" s="11"/>
       <c r="I223" s="23"/>
     </row>
-    <row r="224" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="22" t="s">
         <v>914</v>
       </c>
@@ -13975,7 +13985,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="22"/>
       <c r="B225" s="11">
         <v>3</v>
@@ -13992,7 +14002,7 @@
       <c r="H225" s="11"/>
       <c r="I225" s="23"/>
     </row>
-    <row r="226" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="22" t="s">
         <v>914</v>
       </c>
@@ -14017,7 +14027,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="22" t="s">
         <v>914</v>
       </c>
@@ -14042,7 +14052,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="22" t="s">
         <v>914</v>
       </c>
@@ -14067,7 +14077,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="22" t="s">
         <v>914</v>
       </c>
@@ -14092,7 +14102,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="22" t="s">
         <v>914</v>
       </c>
@@ -14117,7 +14127,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="22"/>
       <c r="B231" s="11">
         <v>3</v>
@@ -14134,7 +14144,7 @@
       <c r="H231" s="11"/>
       <c r="I231" s="23"/>
     </row>
-    <row r="232" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="22" t="s">
         <v>914</v>
       </c>
@@ -14159,7 +14169,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="22" t="s">
         <v>914</v>
       </c>
@@ -14184,7 +14194,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="22"/>
       <c r="B234" s="11">
         <v>3</v>
@@ -14201,7 +14211,7 @@
       <c r="H234" s="11"/>
       <c r="I234" s="23"/>
     </row>
-    <row r="235" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="22" t="s">
         <v>914</v>
       </c>
@@ -14226,7 +14236,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="22" t="s">
         <v>914</v>
       </c>
@@ -14251,7 +14261,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="22" t="s">
         <v>914</v>
       </c>
@@ -14276,7 +14286,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="271.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="22" t="s">
         <v>914</v>
       </c>
@@ -14301,7 +14311,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="22"/>
       <c r="B239" s="11">
         <v>2</v>
@@ -14320,7 +14330,7 @@
       <c r="H239" s="11"/>
       <c r="I239" s="23"/>
     </row>
-    <row r="240" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="22"/>
       <c r="B240" s="11">
         <v>3</v>
@@ -14337,7 +14347,7 @@
       <c r="H240" s="11"/>
       <c r="I240" s="23"/>
     </row>
-    <row r="241" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="22" t="s">
         <v>914</v>
       </c>
@@ -14362,7 +14372,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="22" t="s">
         <v>914</v>
       </c>
@@ -14387,7 +14397,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="22" t="s">
         <v>914</v>
       </c>
@@ -14412,7 +14422,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="22" t="s">
         <v>914</v>
       </c>
@@ -14437,7 +14447,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="22" t="s">
         <v>914</v>
       </c>
@@ -14462,7 +14472,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="319.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="22" t="s">
         <v>914</v>
       </c>
@@ -14487,7 +14497,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="22" t="s">
         <v>914</v>
       </c>
@@ -14512,7 +14522,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="22" t="s">
         <v>914</v>
       </c>
@@ -14537,7 +14547,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="22" t="s">
         <v>914</v>
       </c>
@@ -14562,7 +14572,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="22"/>
       <c r="B250" s="11">
         <v>3</v>
@@ -14579,7 +14589,7 @@
       <c r="H250" s="11"/>
       <c r="I250" s="23"/>
     </row>
-    <row r="251" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="22" t="s">
         <v>914</v>
       </c>
@@ -14604,7 +14614,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="22" t="s">
         <v>914</v>
       </c>
@@ -14629,7 +14639,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="22"/>
       <c r="B253" s="11">
         <v>3</v>
@@ -14646,7 +14656,7 @@
       <c r="H253" s="13"/>
       <c r="I253" s="23"/>
     </row>
-    <row r="254" spans="1:9" ht="379.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="22" t="s">
         <v>914</v>
       </c>
@@ -14671,7 +14681,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="22"/>
       <c r="B255" s="11">
         <v>3</v>
@@ -14688,7 +14698,7 @@
       <c r="H255" s="11"/>
       <c r="I255" s="23"/>
     </row>
-    <row r="256" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="22" t="s">
         <v>914</v>
       </c>
@@ -14713,7 +14723,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="40"/>
       <c r="B257" s="41">
         <v>1</v>
@@ -14730,7 +14740,7 @@
       <c r="H257" s="44"/>
       <c r="I257" s="45"/>
     </row>
-    <row r="258" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="22"/>
       <c r="B258" s="11">
         <v>2</v>
@@ -14749,7 +14759,7 @@
       <c r="H258" s="11"/>
       <c r="I258" s="23"/>
     </row>
-    <row r="259" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="22"/>
       <c r="B259" s="11">
         <v>3</v>
@@ -14766,7 +14776,7 @@
       <c r="H259" s="11"/>
       <c r="I259" s="23"/>
     </row>
-    <row r="260" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="22" t="s">
         <v>914</v>
       </c>
@@ -14791,7 +14801,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="22" t="s">
         <v>914</v>
       </c>
@@ -14816,7 +14826,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="22" t="s">
         <v>914</v>
       </c>
@@ -14841,7 +14851,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="22" t="s">
         <v>914</v>
       </c>
@@ -14866,7 +14876,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="22"/>
       <c r="B264" s="11">
         <v>3</v>
@@ -14883,7 +14893,7 @@
       <c r="H264" s="11"/>
       <c r="I264" s="23"/>
     </row>
-    <row r="265" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="22" t="s">
         <v>914</v>
       </c>
@@ -14908,7 +14918,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="22" t="s">
         <v>914</v>
       </c>
@@ -14933,7 +14943,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="22"/>
       <c r="B267" s="11">
         <v>3</v>
@@ -14950,7 +14960,7 @@
       <c r="H267" s="11"/>
       <c r="I267" s="23"/>
     </row>
-    <row r="268" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="22" t="s">
         <v>914</v>
       </c>
@@ -14958,10 +14968,10 @@
         <v>4</v>
       </c>
       <c r="C268" s="53" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D268" s="52" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E268" s="11" t="s">
         <v>923</v>
@@ -14977,7 +14987,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="22" t="s">
         <v>914</v>
       </c>
@@ -14985,10 +14995,10 @@
         <v>4</v>
       </c>
       <c r="C269" s="53" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D269" s="52" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E269" s="11" t="s">
         <v>928</v>
@@ -15004,7 +15014,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="22"/>
       <c r="B270" s="11">
         <v>3</v>
@@ -15021,7 +15031,7 @@
       <c r="H270" s="11"/>
       <c r="I270" s="23"/>
     </row>
-    <row r="271" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="22" t="s">
         <v>914</v>
       </c>
@@ -15046,7 +15056,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="22" t="s">
         <v>914</v>
       </c>
@@ -15071,7 +15081,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="22"/>
       <c r="B273" s="11">
         <v>3</v>
@@ -15088,7 +15098,7 @@
       <c r="H273" s="11"/>
       <c r="I273" s="23"/>
     </row>
-    <row r="274" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="22" t="s">
         <v>914</v>
       </c>
@@ -15113,7 +15123,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="22" t="s">
         <v>914</v>
       </c>
@@ -15138,7 +15148,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="22" t="s">
         <v>914</v>
       </c>
@@ -15163,7 +15173,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="22" t="s">
         <v>914</v>
       </c>
@@ -15188,7 +15198,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="22"/>
       <c r="B278" s="11">
         <v>2</v>
@@ -15207,7 +15217,7 @@
       <c r="H278" s="11"/>
       <c r="I278" s="23"/>
     </row>
-    <row r="279" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="22"/>
       <c r="B279" s="11">
         <v>3</v>
@@ -15224,7 +15234,7 @@
       <c r="H279" s="11"/>
       <c r="I279" s="23"/>
     </row>
-    <row r="280" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="22" t="s">
         <v>914</v>
       </c>
@@ -15249,7 +15259,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="22" t="s">
         <v>914</v>
       </c>
@@ -15274,7 +15284,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="22"/>
       <c r="B282" s="11">
         <v>3</v>
@@ -15291,7 +15301,7 @@
       <c r="H282" s="11"/>
       <c r="I282" s="23"/>
     </row>
-    <row r="283" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="22" t="s">
         <v>914</v>
       </c>
@@ -15316,7 +15326,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="22" t="s">
         <v>914</v>
       </c>
@@ -15341,7 +15351,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="22" t="s">
         <v>914</v>
       </c>
@@ -15366,7 +15376,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="22"/>
       <c r="B286" s="11">
         <v>3</v>
@@ -15383,7 +15393,7 @@
       <c r="H286" s="11"/>
       <c r="I286" s="23"/>
     </row>
-    <row r="287" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="22" t="s">
         <v>914</v>
       </c>
@@ -15408,7 +15418,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="22"/>
       <c r="B288" s="11">
         <v>3</v>
@@ -15425,7 +15435,7 @@
       <c r="H288" s="11"/>
       <c r="I288" s="23"/>
     </row>
-    <row r="289" spans="1:9" ht="256.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="22" t="s">
         <v>914</v>
       </c>
@@ -15450,7 +15460,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="22"/>
       <c r="B290" s="11">
         <v>3</v>
@@ -15467,7 +15477,7 @@
       <c r="H290" s="11"/>
       <c r="I290" s="23"/>
     </row>
-    <row r="291" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="22" t="s">
         <v>914</v>
       </c>
@@ -15492,7 +15502,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="40"/>
       <c r="B292" s="41">
         <v>1</v>
@@ -15509,7 +15519,7 @@
       <c r="H292" s="44"/>
       <c r="I292" s="45"/>
     </row>
-    <row r="293" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="22"/>
       <c r="B293" s="11">
         <v>2</v>
@@ -15528,7 +15538,7 @@
       <c r="H293" s="11"/>
       <c r="I293" s="23"/>
     </row>
-    <row r="294" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="22"/>
       <c r="B294" s="11">
         <v>3</v>
@@ -15545,7 +15555,7 @@
       <c r="H294" s="11"/>
       <c r="I294" s="23"/>
     </row>
-    <row r="295" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="22" t="s">
         <v>914</v>
       </c>
@@ -15570,7 +15580,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="22" t="s">
         <v>914</v>
       </c>
@@ -15595,7 +15605,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="22"/>
       <c r="B297" s="11">
         <v>3</v>
@@ -15612,7 +15622,7 @@
       <c r="H297" s="11"/>
       <c r="I297" s="23"/>
     </row>
-    <row r="298" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="22" t="s">
         <v>914</v>
       </c>
@@ -15637,7 +15647,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="22" t="s">
         <v>914</v>
       </c>
@@ -15662,7 +15672,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="22"/>
       <c r="B300" s="11">
         <v>3</v>
@@ -15679,7 +15689,7 @@
       <c r="H300" s="11"/>
       <c r="I300" s="23"/>
     </row>
-    <row r="301" spans="1:9" ht="160.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="22" t="s">
         <v>914</v>
       </c>
@@ -15704,7 +15714,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="22"/>
       <c r="B302" s="11">
         <v>3</v>
@@ -15721,7 +15731,7 @@
       <c r="H302" s="11"/>
       <c r="I302" s="23"/>
     </row>
-    <row r="303" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="22" t="s">
         <v>914</v>
       </c>
@@ -15746,7 +15756,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="22"/>
       <c r="B304" s="11">
         <v>2</v>
@@ -15765,7 +15775,7 @@
       <c r="H304" s="13"/>
       <c r="I304" s="23"/>
     </row>
-    <row r="305" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="22"/>
       <c r="B305" s="11">
         <v>3</v>
@@ -15782,7 +15792,7 @@
       <c r="H305" s="13"/>
       <c r="I305" s="23"/>
     </row>
-    <row r="306" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="22" t="s">
         <v>914</v>
       </c>
@@ -15807,7 +15817,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="22"/>
       <c r="B307" s="11">
         <v>3</v>
@@ -15824,7 +15834,7 @@
       <c r="H307" s="13"/>
       <c r="I307" s="23"/>
     </row>
-    <row r="308" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="22" t="s">
         <v>914</v>
       </c>
@@ -15849,7 +15859,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="22"/>
       <c r="B309" s="11">
         <v>3</v>
@@ -15866,7 +15876,7 @@
       <c r="H309" s="13"/>
       <c r="I309" s="23"/>
     </row>
-    <row r="310" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="22" t="s">
         <v>914</v>
       </c>
@@ -15891,7 +15901,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="22"/>
       <c r="B311" s="11">
         <v>3</v>
@@ -15908,7 +15918,7 @@
       <c r="H311" s="13"/>
       <c r="I311" s="23"/>
     </row>
-    <row r="312" spans="1:9" ht="127.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="22" t="s">
         <v>914</v>
       </c>
@@ -15933,7 +15943,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="22"/>
       <c r="B313" s="11">
         <v>2</v>
@@ -15952,7 +15962,7 @@
       <c r="H313" s="11"/>
       <c r="I313" s="23"/>
     </row>
-    <row r="314" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="22"/>
       <c r="B314" s="11">
         <v>3</v>
@@ -15969,7 +15979,7 @@
       <c r="H314" s="11"/>
       <c r="I314" s="23"/>
     </row>
-    <row r="315" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="22" t="s">
         <v>914</v>
       </c>
@@ -15994,7 +16004,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="223.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="22" t="s">
         <v>914</v>
       </c>
@@ -16019,7 +16029,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="22"/>
       <c r="B317" s="11">
         <v>2</v>
@@ -16038,7 +16048,7 @@
       <c r="H317" s="11"/>
       <c r="I317" s="23"/>
     </row>
-    <row r="318" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="22"/>
       <c r="B318" s="11">
         <v>3</v>
@@ -16055,7 +16065,7 @@
       <c r="H318" s="11"/>
       <c r="I318" s="23"/>
     </row>
-    <row r="319" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="22" t="s">
         <v>914</v>
       </c>
@@ -16080,7 +16090,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="349.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="22" t="s">
         <v>914</v>
       </c>
@@ -16105,7 +16115,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="40"/>
       <c r="B321" s="41">
         <v>1</v>
@@ -16122,7 +16132,7 @@
       <c r="H321" s="44"/>
       <c r="I321" s="45"/>
     </row>
-    <row r="322" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="22"/>
       <c r="B322" s="11">
         <v>2</v>
@@ -16141,7 +16151,7 @@
       <c r="H322" s="11"/>
       <c r="I322" s="23"/>
     </row>
-    <row r="323" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="22"/>
       <c r="B323" s="11">
         <v>3</v>
@@ -16158,7 +16168,7 @@
       <c r="H323" s="11"/>
       <c r="I323" s="23"/>
     </row>
-    <row r="324" spans="1:9" ht="304.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="22" t="s">
         <v>914</v>
       </c>
@@ -16183,7 +16193,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="22"/>
       <c r="B325" s="11">
         <v>3</v>
@@ -16200,7 +16210,7 @@
       <c r="H325" s="13"/>
       <c r="I325" s="23"/>
     </row>
-    <row r="326" spans="1:9" ht="334.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="335" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="22" t="s">
         <v>914</v>
       </c>
@@ -16225,7 +16235,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="22"/>
       <c r="B327" s="11">
         <v>3</v>
@@ -16242,7 +16252,7 @@
       <c r="H327" s="11"/>
       <c r="I327" s="23"/>
     </row>
-    <row r="328" spans="1:9" ht="112.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="22" t="s">
         <v>914</v>
       </c>
@@ -16267,7 +16277,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="22"/>
       <c r="B329" s="11">
         <v>3</v>
@@ -16284,7 +16294,7 @@
       <c r="H329" s="11"/>
       <c r="I329" s="23"/>
     </row>
-    <row r="330" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="22" t="s">
         <v>914</v>
       </c>
@@ -16309,7 +16319,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="22"/>
       <c r="B331" s="11">
         <v>2</v>
@@ -16328,7 +16338,7 @@
       <c r="H331" s="11"/>
       <c r="I331" s="23"/>
     </row>
-    <row r="332" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="22"/>
       <c r="B332" s="11">
         <v>3</v>
@@ -16345,7 +16355,7 @@
       <c r="H332" s="11"/>
       <c r="I332" s="23"/>
     </row>
-    <row r="333" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="22" t="s">
         <v>914</v>
       </c>
@@ -16370,7 +16380,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="22"/>
       <c r="B334" s="11">
         <v>3</v>
@@ -16387,7 +16397,7 @@
       <c r="H334" s="11"/>
       <c r="I334" s="23"/>
     </row>
-    <row r="335" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="22" t="s">
         <v>914</v>
       </c>
@@ -16412,7 +16422,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="208.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="22" t="s">
         <v>914</v>
       </c>
@@ -16437,7 +16447,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="175.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
         <v>914</v>
       </c>
@@ -16480,12 +16490,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>875</v>
       </c>
@@ -16493,7 +16503,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>892</v>
       </c>
@@ -16508,3084 +16518,3391 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+    <sheetView zoomScale="184" zoomScaleNormal="119" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="159.44140625" customWidth="1"/>
+    <col min="1" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="159.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B21" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="E45" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="E49" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A51" s="55" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B51" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:5" ht="304" x14ac:dyDescent="0.2">
+      <c r="A52" s="55" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B52" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="D55" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="E55" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="D56" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="E56" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="D57" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="E57" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="D59" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="D60" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="E60" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="D61" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="E61" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="D62" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="E62" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="D63" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="E63" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="D64" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="E65" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="55" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B66" s="11" t="s">
+    <row r="66" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A66" s="56" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="D66" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="E66" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="D67" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="E67" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="D68" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="E68" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="E69" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="D70" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="E70" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="22"/>
+      <c r="C71" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="D71" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="E71" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="22"/>
+      <c r="C72" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="E72" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="E73" s="14" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="E74" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A75" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="22"/>
+      <c r="C75" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="D75" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="E75" s="14" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A76" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="E76" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A77" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="E77" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="E78" s="14" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="D79" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="E79" s="14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="22"/>
+      <c r="C80" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="D80" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="E80" s="14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="E81" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A82" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="D82" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="E82" s="14" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="22"/>
+      <c r="C83" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="D83" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="E83" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="22"/>
+      <c r="C84" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="D84" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="E84" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="D85" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="E85" s="14" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="E86" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="D87" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="E87" s="14" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="22"/>
+      <c r="C88" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="D88" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="E88" s="14" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="22"/>
+      <c r="C89" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="D89" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="E89" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="22"/>
+      <c r="C90" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="D90" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="E90" s="14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="22"/>
+      <c r="C91" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="D91" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="E91" s="14" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="22"/>
+      <c r="C92" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="D92" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="E92" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="22"/>
+      <c r="C93" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="D93" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="E93" s="14" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="22"/>
+      <c r="C94" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="D94" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="E94" s="14" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="22"/>
+      <c r="C95" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="D95" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="E95" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="22"/>
+      <c r="C96" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="D96" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="E96" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="22"/>
+      <c r="C97" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="D97" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="E97" s="14" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="22"/>
+      <c r="C98" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="D98" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="E98" s="14" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A99" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="22"/>
+      <c r="C99" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="D99" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="E99" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="22"/>
+      <c r="C100" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="D100" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="E100" s="14" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="22"/>
+      <c r="C101" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="D101" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="E101" s="14" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="22"/>
+      <c r="C102" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="E102" s="14" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A103" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="22"/>
+      <c r="C103" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="E103" s="14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A104" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="22"/>
+      <c r="C104" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="E104" s="14" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="22"/>
+      <c r="C105" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="E105" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="22"/>
+      <c r="C106" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="E106" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A107" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="22"/>
+      <c r="C107" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="D107" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="E107" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A108" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="22"/>
+      <c r="C108" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="D108" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="E108" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="22"/>
+      <c r="C109" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="D109" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="E109" s="14" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A110" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="22"/>
+      <c r="C110" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C110" s="33" t="s">
+      <c r="D110" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="E110" s="14" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A111" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="22"/>
+      <c r="C111" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="E111" s="14" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A112" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="22"/>
+      <c r="C112" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="D112" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="E112" s="14" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A113" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="22"/>
+      <c r="C113" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="E113" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A114" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="22"/>
+      <c r="C114" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="E114" s="14" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A115" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="22"/>
+      <c r="C115" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="D115" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="E115" s="14" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="22"/>
+      <c r="C116" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="D116" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="E116" s="14" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="22"/>
+      <c r="C117" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="D117" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="E117" s="14" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="22"/>
+      <c r="C118" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="D118" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="E118" s="14" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A119" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="22"/>
+      <c r="C119" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="D119" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="E119" s="14" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A120" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="22"/>
+      <c r="C120" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="D120" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="E120" s="14" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A121" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="22"/>
+      <c r="C121" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="C121" s="32" t="s">
+      <c r="D121" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="E121" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="22"/>
+      <c r="C122" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="D122" s="32" t="s">
         <v>485</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="E122" s="14" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="22"/>
+      <c r="C123" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="D123" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="E123" s="14" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="22"/>
+      <c r="C124" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="D124" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="E124" s="14" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A125" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="22"/>
+      <c r="C125" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="D125" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="E125" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A126" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="22"/>
+      <c r="C126" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="D126" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="E126" s="14" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A127" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="22"/>
+      <c r="C127" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="D127" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="E127" s="14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A128" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="22"/>
+      <c r="C128" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="E128" s="14" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A129" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="22"/>
+      <c r="C129" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="D129" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="E129" s="14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="22"/>
+      <c r="C130" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="E130" s="14" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A131" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="22"/>
+      <c r="C131" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="E131" s="14" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A132" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="22"/>
+      <c r="C132" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="E132" s="14" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="22"/>
+      <c r="C133" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="E133" s="14" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="22"/>
+      <c r="C134" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="D134" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="E134" s="14" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="22"/>
+      <c r="C135" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="D135" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="E135" s="14" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="22"/>
+      <c r="C136" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="D136" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="E136" s="14" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="22"/>
+      <c r="C137" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="D137" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="E137" s="14" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="22"/>
+      <c r="C138" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="D138" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="E138" s="14" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="22"/>
+      <c r="C139" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C139" s="29" t="s">
+      <c r="D139" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="E139" s="14" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
         <v>555</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="22"/>
+      <c r="C140" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="D140" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="E140" s="14" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="22"/>
+      <c r="C141" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="D141" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="E141" s="14" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="22"/>
+      <c r="C142" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="D142" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="E142" s="14" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="22"/>
+      <c r="C143" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="D143" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="E143" s="14" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
         <v>571</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="22"/>
+      <c r="C144" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="D144" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="E144" s="14" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="22"/>
+      <c r="C145" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="D145" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="E145" s="14" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="D146" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="E146" s="14" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A147" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="22"/>
+      <c r="C147" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="D147" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="E147" s="14" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A148" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="22"/>
+      <c r="C148" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="D148" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="E148" s="14" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A149" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="22"/>
+      <c r="C149" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="D149" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="E149" s="14" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A150" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="22"/>
+      <c r="C150" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="D150" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="E150" s="14" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A151" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="22"/>
+      <c r="C151" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="D151" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="E151" s="14" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="304" x14ac:dyDescent="0.2">
       <c r="A152" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="22"/>
+      <c r="C152" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="C152" s="34" t="s">
+      <c r="D152" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="E152" s="14" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A153" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="22"/>
+      <c r="C153" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="D153" s="36" t="s">
         <v>609</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="E153" s="14" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="22"/>
+      <c r="C154" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="D154" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="E154" s="14" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A155" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="22"/>
+      <c r="C155" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="D155" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="E155" s="14" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A156" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="22"/>
+      <c r="C156" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="E156" s="14" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A157" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="22"/>
+      <c r="C157" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="E157" s="14" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A158" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="22"/>
+      <c r="C158" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="D158" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="E158" s="14" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A159" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="22"/>
+      <c r="C159" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="E159" s="14" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A160" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="22"/>
+      <c r="C160" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="E160" s="14" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A161" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="22"/>
+      <c r="C161" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="D161" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="E161" s="14" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A162" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="22"/>
+      <c r="C162" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="D162" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="E162" s="14" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="380" x14ac:dyDescent="0.2">
       <c r="A163" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="22"/>
+      <c r="C163" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="E163" s="14" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="350" x14ac:dyDescent="0.2">
       <c r="A164" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="22"/>
+      <c r="C164" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="D164" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="E164" s="14" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A165" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="22"/>
+      <c r="C165" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="E165" s="14" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A166" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="22"/>
+      <c r="C166" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="D166" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="E166" s="14" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A167" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="22"/>
+      <c r="C167" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="D167" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="E167" s="14" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A168" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="22"/>
+      <c r="C168" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="D168" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="E168" s="14" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A169" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="22"/>
+      <c r="C169" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="D169" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="E169" s="14" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A170" s="22" t="s">
         <v>675</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="22"/>
+      <c r="C170" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="D170" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="E170" s="14" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A171" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="22"/>
+      <c r="C171" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="D171" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="E171" s="14" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A172" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="22"/>
+      <c r="C172" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="D172" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="E172" s="14" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A173" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="22"/>
+      <c r="C173" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="D173" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="E173" s="14" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A174" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="22"/>
+      <c r="C174" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="D174" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="E174" s="14" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A175" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="22"/>
+      <c r="C175" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="D175" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="E175" s="14" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A176" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="22"/>
+      <c r="C176" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="D176" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="E176" s="14" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A177" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="22"/>
+      <c r="C177" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="D177" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="E177" s="14" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A178" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="22"/>
+      <c r="C178" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="D178" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="E178" s="14" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A179" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="22"/>
+      <c r="C179" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="D179" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="E179" s="14" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A180" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="22"/>
+      <c r="C180" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="D180" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="E180" s="14" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A181" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="22"/>
+      <c r="C181" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="D181" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="E181" s="14" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="22" t="s">
+    <row r="182" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A182" s="55" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B182" s="55" t="s">
         <v>723</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="C182" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="D182" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="E182" s="14" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="22" t="s">
+    <row r="183" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A183" s="55" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B183" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="C183" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="D183" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="E183" s="14" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A184" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="C184" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="E184" s="14" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A185" s="22" t="s">
         <v>735</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="E185" s="14" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A186" s="22" t="s">
         <v>739</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="C186" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="D186" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="D186" s="14" t="s">
+      <c r="E186" s="14" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A187" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="C187" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="D187" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="E187" s="14" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A188" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="C188" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="D188" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="E188" s="14" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A189" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C189" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="D189" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="E189" s="14" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A190" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="D190" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="E190" s="14" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A191" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C191" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="D191" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="E191" s="14" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A192" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="C192" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="C192" s="34" t="s">
+      <c r="D192" s="34" t="s">
         <v>765</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="E192" s="14" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="C193" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="E193" s="14" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A194" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C194" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="D194" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="D194" s="14" t="s">
+      <c r="E194" s="14" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A195" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="C195" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="E195" s="14" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A196" s="22" t="s">
         <v>779</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="C196" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="D196" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="E196" s="14" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A197" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="C197" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="D197" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="E197" s="14" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A198" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="C198" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="E198" s="14" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A199" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="D199" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="E199" s="14" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A200" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C200" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="D200" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="E200" s="14" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A201" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="C201" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="D201" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="E201" s="14" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A202" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="D202" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="D202" s="14" t="s">
+      <c r="E202" s="14" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A203" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="C203" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="D203" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="D203" s="14" t="s">
+      <c r="E203" s="14" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A204" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="C204" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="D204" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="E204" s="14" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A205" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="D205" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="E205" s="14" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A206" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C206" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="D206" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="E206" s="14" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A207" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="C207" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="D207" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="E207" s="14" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A208" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="C208" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="D208" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="E208" s="14" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A209" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="C209" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="D209" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="E209" s="14" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A210" s="22" t="s">
         <v>835</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="C210" s="29" t="s">
+      <c r="D210" s="29" t="s">
         <v>837</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="E210" s="14" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A211" s="22" t="s">
         <v>839</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="D211" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="E211" s="14" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="320" x14ac:dyDescent="0.2">
       <c r="A212" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="22" t="s">
+        <v>843</v>
+      </c>
+      <c r="C212" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="D212" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="E212" s="14" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="335" x14ac:dyDescent="0.2">
       <c r="A213" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="C213" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="D213" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="E213" s="14" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A214" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="22" t="s">
+        <v>851</v>
+      </c>
+      <c r="C214" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="D214" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="E214" s="14" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A215" s="22" t="s">
         <v>855</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="22" t="s">
+        <v>855</v>
+      </c>
+      <c r="C215" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="D215" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="E215" s="14" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A216" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="C216" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="D216" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="E216" s="14" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A217" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="C217" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="C217" s="13" t="s">
+      <c r="D217" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="E217" s="14" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A218" s="22" t="s">
         <v>867</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="C218" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="D218" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="E218" s="14" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="B219" s="24" t="s">
+      <c r="B219" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C219" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="C219" s="16" t="s">
+      <c r="D219" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="D219" s="17" t="s">
+      <c r="E219" s="17" t="s">
         <v>874</v>
       </c>
     </row>
@@ -19605,12 +19922,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>875</v>
       </c>
@@ -19618,7 +19935,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -19640,14 +19957,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -19658,7 +19975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>1391</v>
       </c>
@@ -19667,7 +19984,7 @@
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>1393</v>
       </c>
@@ -19676,7 +19993,7 @@
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>931</v>
       </c>
@@ -19685,7 +20002,7 @@
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>1396</v>
       </c>
@@ -19694,7 +20011,7 @@
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>1398</v>
       </c>
@@ -19703,7 +20020,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>1400</v>
       </c>
@@ -19712,7 +20029,7 @@
       </c>
       <c r="C7" s="23"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>1402</v>
       </c>
@@ -19721,7 +20038,7 @@
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>896</v>
       </c>
@@ -19730,7 +20047,7 @@
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>1405</v>
       </c>
@@ -19755,12 +20072,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>875</v>
       </c>
@@ -19768,7 +20085,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -19789,13 +20106,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="55" customWidth="1"/>
     <col min="4" max="4" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>1407</v>
       </c>
@@ -19809,7 +20126,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -19823,7 +20140,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -19837,7 +20154,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -19851,7 +20168,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -19865,7 +20182,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>

--- a/tools/excel/ccb/cyfun2025.xlsx
+++ b/tools/excel/ccb/cyfun2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486397B-4046-9C46-836C-A21859F42ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB37660-306B-9B40-BD56-8DA48AC81C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20540" tabRatio="906" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20540" tabRatio="906" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -7051,9 +7051,6 @@
     <t xml:space="preserve">ID.AM-08.10  </t>
   </si>
   <si>
-    <t xml:space="preserve">1:ID.AM-08.10  </t>
-  </si>
-  <si>
     <t>gv.rr-03-1</t>
   </si>
   <si>
@@ -7082,6 +7079,9 @@
   </si>
   <si>
     <t xml:space="preserve">D.AM-08.10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:D.AM-08.10  </t>
   </si>
 </sst>
 </file>
@@ -8684,7 +8684,7 @@
         <v>879</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8912,9 +8912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="H1" zoomScale="156" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>905</v>
@@ -9714,7 +9714,7 @@
         <v>1427</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>915</v>
@@ -9741,7 +9741,7 @@
         <v>1428</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>928</v>
@@ -10858,7 +10858,7 @@
         <v>1429</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>928</v>
@@ -10885,7 +10885,7 @@
         <v>1430</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>1006</v>
@@ -11305,7 +11305,7 @@
         <v>1433</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>1006</v>
@@ -11318,7 +11318,7 @@
         <v>262</v>
       </c>
       <c r="I108" s="54" t="s">
-        <v>1434</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.2">
@@ -14971,7 +14971,7 @@
         <v>1431</v>
       </c>
       <c r="D268" s="52" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E268" s="11" t="s">
         <v>923</v>
@@ -14998,7 +14998,7 @@
         <v>1432</v>
       </c>
       <c r="D269" s="52" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E269" s="11" t="s">
         <v>928</v>
@@ -16520,9 +16520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="119" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
@@ -17523,7 +17523,7 @@
         <v>1433</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>260</v>
